--- a/AAII_Financials/Quarterly/SOLY_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/SOLY_QTR_FIN.xlsx
@@ -5,7 +5,7 @@
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\sundeep\Stocks_Automation\Financials\Quarterly\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\sundeep\Stocks_Automation\AAII_Financials\Quarterly\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="235" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="243" uniqueCount="92">
   <si>
     <t>SOLY</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:O102"/>
+  <dimension ref="A5:Q102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,71 +665,78 @@
     <col min="1" max="1" width="7.42578125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:17" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>43921</v>
+      </c>
+      <c r="E7" s="2">
+        <v>43830</v>
+      </c>
+      <c r="F7" s="2">
         <v>43738</v>
       </c>
-      <c r="E7" s="2">
+      <c r="G7" s="2">
         <v>43646</v>
       </c>
-      <c r="F7" s="2">
+      <c r="H7" s="2">
         <v>43555</v>
       </c>
-      <c r="G7" s="2">
+      <c r="I7" s="2">
         <v>43465</v>
       </c>
-      <c r="H7" s="2">
+      <c r="J7" s="2">
         <v>43373</v>
       </c>
-      <c r="I7" s="2">
+      <c r="K7" s="2">
         <v>43281</v>
       </c>
-      <c r="J7" s="2">
+      <c r="L7" s="2">
         <v>43190</v>
       </c>
-      <c r="K7" s="2">
+      <c r="M7" s="2">
         <v>43100</v>
       </c>
-      <c r="L7" s="2">
+      <c r="N7" s="2">
         <v>43008</v>
       </c>
-      <c r="M7" s="2">
+      <c r="O7" s="2">
         <v>42916</v>
       </c>
-      <c r="N7" s="2">
+      <c r="P7" s="2">
         <v>42825</v>
       </c>
-      <c r="O7" s="2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="Q7" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>4</v>
       </c>
@@ -769,8 +776,14 @@
       <c r="O8" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P8" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q8" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
@@ -810,8 +823,14 @@
       <c r="O9" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P9" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q9" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
@@ -851,8 +870,14 @@
       <c r="O10" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P10" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q10" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -868,49 +893,57 @@
       <c r="M11" s="3"/>
       <c r="N11" s="3"/>
       <c r="O11" s="3"/>
-    </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P11" s="3"/>
+      <c r="Q11" s="3"/>
+    </row>
+    <row r="12" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D12" s="3">
+        <v>1200</v>
+      </c>
+      <c r="E12" s="3">
+        <v>1400</v>
+      </c>
+      <c r="F12" s="3">
         <v>2400</v>
       </c>
-      <c r="E12" s="3">
+      <c r="G12" s="3">
         <v>800</v>
       </c>
-      <c r="F12" s="3">
+      <c r="H12" s="3">
         <v>400</v>
       </c>
-      <c r="G12" s="3">
+      <c r="I12" s="3">
         <v>900</v>
       </c>
-      <c r="H12" s="3">
+      <c r="J12" s="3">
         <v>1700</v>
       </c>
-      <c r="I12" s="3">
+      <c r="K12" s="3">
         <v>1400</v>
-      </c>
-      <c r="J12" s="3">
-        <v>700</v>
-      </c>
-      <c r="K12" s="3">
-        <v>4000</v>
       </c>
       <c r="L12" s="3">
         <v>700</v>
       </c>
       <c r="M12" s="3">
+        <v>4000</v>
+      </c>
+      <c r="N12" s="3">
+        <v>700</v>
+      </c>
+      <c r="O12" s="3">
         <v>1300</v>
       </c>
-      <c r="N12" s="3">
+      <c r="P12" s="3">
         <v>1200</v>
       </c>
-      <c r="O12" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="Q12" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -950,8 +983,14 @@
       <c r="O13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P13" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -991,8 +1030,14 @@
       <c r="O14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P14" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1000,10 +1045,10 @@
         <v>100</v>
       </c>
       <c r="E15" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="F15" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G15" s="3">
         <v>0</v>
@@ -1018,22 +1063,28 @@
         <v>0</v>
       </c>
       <c r="K15" s="3">
+        <v>0</v>
+      </c>
+      <c r="L15" s="3">
+        <v>0</v>
+      </c>
+      <c r="M15" s="3">
         <v>100</v>
       </c>
-      <c r="L15" s="3">
-        <v>0</v>
-      </c>
-      <c r="M15" s="3">
-        <v>0</v>
-      </c>
       <c r="N15" s="3">
         <v>0</v>
       </c>
-      <c r="O15" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="O15" s="3">
+        <v>0</v>
+      </c>
+      <c r="P15" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q15" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="16" spans="1:17" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1046,49 +1097,57 @@
       <c r="M16" s="3"/>
       <c r="N16" s="3"/>
       <c r="O16" s="3"/>
-    </row>
-    <row r="17" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P16" s="3"/>
+      <c r="Q16" s="3"/>
+    </row>
+    <row r="17" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>3300</v>
+      </c>
+      <c r="E17" s="3">
+        <v>3300</v>
+      </c>
+      <c r="F17" s="3">
         <v>4300</v>
       </c>
-      <c r="E17" s="3">
+      <c r="G17" s="3">
         <v>3000</v>
       </c>
-      <c r="F17" s="3">
+      <c r="H17" s="3">
         <v>2400</v>
       </c>
-      <c r="G17" s="3">
+      <c r="I17" s="3">
         <v>2100</v>
       </c>
-      <c r="H17" s="3">
+      <c r="J17" s="3">
         <v>2700</v>
       </c>
-      <c r="I17" s="3">
+      <c r="K17" s="3">
         <v>2300</v>
       </c>
-      <c r="J17" s="3">
+      <c r="L17" s="3">
         <v>1200</v>
       </c>
-      <c r="K17" s="3">
+      <c r="M17" s="3">
         <v>7200</v>
       </c>
-      <c r="L17" s="3">
+      <c r="N17" s="3">
         <v>1500</v>
       </c>
-      <c r="M17" s="3">
+      <c r="O17" s="3">
         <v>2100</v>
       </c>
-      <c r="N17" s="3">
+      <c r="P17" s="3">
         <v>1900</v>
       </c>
-      <c r="O17" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="18" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="Q17" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="18" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
@@ -1096,40 +1155,46 @@
         <v>3</v>
       </c>
       <c r="E18" s="3">
+        <v>-3300</v>
+      </c>
+      <c r="F18" s="3">
+        <v>-4300</v>
+      </c>
+      <c r="G18" s="3">
         <v>-3000</v>
       </c>
-      <c r="F18" s="3">
+      <c r="H18" s="3">
         <v>-2400</v>
       </c>
-      <c r="G18" s="3">
+      <c r="I18" s="3">
         <v>-2100</v>
       </c>
-      <c r="H18" s="3">
+      <c r="J18" s="3">
         <v>-2700</v>
       </c>
-      <c r="I18" s="3">
+      <c r="K18" s="3">
         <v>-2300</v>
       </c>
-      <c r="J18" s="3">
+      <c r="L18" s="3">
         <v>-1200</v>
       </c>
-      <c r="K18" s="3">
+      <c r="M18" s="3">
         <v>-7200</v>
       </c>
-      <c r="L18" s="3">
+      <c r="N18" s="3">
         <v>-1500</v>
       </c>
-      <c r="M18" s="3">
+      <c r="O18" s="3">
         <v>-2100</v>
       </c>
-      <c r="N18" s="3">
+      <c r="P18" s="3">
         <v>-1900</v>
       </c>
-      <c r="O18" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="19" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="Q18" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="19" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1145,8 +1210,10 @@
       <c r="M19" s="3"/>
       <c r="N19" s="3"/>
       <c r="O19" s="3"/>
-    </row>
-    <row r="20" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P19" s="3"/>
+      <c r="Q19" s="3"/>
+    </row>
+    <row r="20" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
@@ -1183,11 +1250,17 @@
       <c r="N20" s="3">
         <v>0</v>
       </c>
-      <c r="O20" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="21" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O20" s="3">
+        <v>0</v>
+      </c>
+      <c r="P20" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q20" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="21" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
@@ -1195,40 +1268,46 @@
         <v>3</v>
       </c>
       <c r="E21" s="3">
+        <v>-3200</v>
+      </c>
+      <c r="F21" s="3">
+        <v>-4200</v>
+      </c>
+      <c r="G21" s="3">
         <v>-2900</v>
       </c>
-      <c r="F21" s="3">
+      <c r="H21" s="3">
         <v>-2400</v>
       </c>
-      <c r="G21" s="3">
+      <c r="I21" s="3">
         <v>-2000</v>
       </c>
-      <c r="H21" s="3">
+      <c r="J21" s="3">
         <v>-2600</v>
       </c>
-      <c r="I21" s="3">
+      <c r="K21" s="3">
         <v>-2300</v>
       </c>
-      <c r="J21" s="3">
+      <c r="L21" s="3">
         <v>-1200</v>
       </c>
-      <c r="K21" s="3">
+      <c r="M21" s="3">
         <v>-7100</v>
       </c>
-      <c r="L21" s="3">
+      <c r="N21" s="3">
         <v>-1500</v>
       </c>
-      <c r="M21" s="3">
+      <c r="O21" s="3">
         <v>-2100</v>
       </c>
-      <c r="N21" s="3">
+      <c r="P21" s="3">
         <v>-1900</v>
       </c>
-      <c r="O21" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="22" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="Q21" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="22" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1239,78 +1318,90 @@
         <v>0</v>
       </c>
       <c r="F22" s="3">
+        <v>0</v>
+      </c>
+      <c r="G22" s="3">
+        <v>0</v>
+      </c>
+      <c r="H22" s="3">
         <v>800</v>
       </c>
-      <c r="G22" s="3">
+      <c r="I22" s="3">
         <v>400</v>
       </c>
-      <c r="H22" s="3">
+      <c r="J22" s="3">
         <v>300</v>
-      </c>
-      <c r="I22" s="3">
-        <v>300</v>
-      </c>
-      <c r="J22" s="3">
-        <v>200</v>
       </c>
       <c r="K22" s="3">
         <v>300</v>
       </c>
       <c r="L22" s="3">
+        <v>200</v>
+      </c>
+      <c r="M22" s="3">
+        <v>300</v>
+      </c>
+      <c r="N22" s="3">
         <v>100</v>
       </c>
-      <c r="M22" s="3">
+      <c r="O22" s="3">
         <v>100</v>
       </c>
-      <c r="N22" s="3">
-        <v>0</v>
-      </c>
-      <c r="O22" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="23" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P22" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q22" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="23" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>-3300</v>
+      </c>
+      <c r="E23" s="3">
+        <v>-3300</v>
+      </c>
+      <c r="F23" s="3">
         <v>-4300</v>
       </c>
-      <c r="E23" s="3">
+      <c r="G23" s="3">
         <v>-3000</v>
       </c>
-      <c r="F23" s="3">
+      <c r="H23" s="3">
         <v>-3200</v>
       </c>
-      <c r="G23" s="3">
+      <c r="I23" s="3">
         <v>-2400</v>
       </c>
-      <c r="H23" s="3">
+      <c r="J23" s="3">
         <v>-3000</v>
       </c>
-      <c r="I23" s="3">
+      <c r="K23" s="3">
         <v>-2600</v>
       </c>
-      <c r="J23" s="3">
+      <c r="L23" s="3">
         <v>-1400</v>
       </c>
-      <c r="K23" s="3">
+      <c r="M23" s="3">
         <v>-7500</v>
       </c>
-      <c r="L23" s="3">
+      <c r="N23" s="3">
         <v>-1600</v>
       </c>
-      <c r="M23" s="3">
+      <c r="O23" s="3">
         <v>-2200</v>
       </c>
-      <c r="N23" s="3">
+      <c r="P23" s="3">
         <v>-2000</v>
       </c>
-      <c r="O23" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="24" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="Q23" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="24" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -1320,8 +1411,8 @@
       <c r="E24" s="3">
         <v>0</v>
       </c>
-      <c r="F24" s="3">
-        <v>0</v>
+      <c r="F24" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="G24" s="3">
         <v>0</v>
@@ -1347,11 +1438,17 @@
       <c r="N24" s="3">
         <v>0</v>
       </c>
-      <c r="O24" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="25" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O24" s="3">
+        <v>0</v>
+      </c>
+      <c r="P24" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q24" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="25" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1391,90 +1488,108 @@
       <c r="O25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P25" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>-3300</v>
+      </c>
+      <c r="E26" s="3">
+        <v>-3300</v>
+      </c>
+      <c r="F26" s="3">
         <v>-4300</v>
       </c>
-      <c r="E26" s="3">
+      <c r="G26" s="3">
         <v>-3000</v>
       </c>
-      <c r="F26" s="3">
+      <c r="H26" s="3">
         <v>-3200</v>
       </c>
-      <c r="G26" s="3">
+      <c r="I26" s="3">
         <v>-2400</v>
       </c>
-      <c r="H26" s="3">
+      <c r="J26" s="3">
         <v>-3000</v>
       </c>
-      <c r="I26" s="3">
+      <c r="K26" s="3">
         <v>-2600</v>
       </c>
-      <c r="J26" s="3">
+      <c r="L26" s="3">
         <v>-1400</v>
       </c>
-      <c r="K26" s="3">
+      <c r="M26" s="3">
         <v>-7500</v>
       </c>
-      <c r="L26" s="3">
+      <c r="N26" s="3">
         <v>-1600</v>
       </c>
-      <c r="M26" s="3">
+      <c r="O26" s="3">
         <v>-2200</v>
       </c>
-      <c r="N26" s="3">
+      <c r="P26" s="3">
         <v>-2000</v>
       </c>
-      <c r="O26" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="27" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="Q26" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="27" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>-3300</v>
+      </c>
+      <c r="E27" s="3">
+        <v>-3300</v>
+      </c>
+      <c r="F27" s="3">
         <v>-4300</v>
       </c>
-      <c r="E27" s="3">
+      <c r="G27" s="3">
         <v>-3000</v>
       </c>
-      <c r="F27" s="3">
+      <c r="H27" s="3">
         <v>-3400</v>
       </c>
-      <c r="G27" s="3">
+      <c r="I27" s="3">
         <v>-2700</v>
       </c>
-      <c r="H27" s="3">
+      <c r="J27" s="3">
         <v>-3300</v>
       </c>
-      <c r="I27" s="3">
+      <c r="K27" s="3">
         <v>-2900</v>
       </c>
-      <c r="J27" s="3">
+      <c r="L27" s="3">
         <v>-1700</v>
       </c>
-      <c r="K27" s="3">
+      <c r="M27" s="3">
         <v>-7500</v>
       </c>
-      <c r="L27" s="3">
+      <c r="N27" s="3">
         <v>-1900</v>
       </c>
-      <c r="M27" s="3">
+      <c r="O27" s="3">
         <v>-2800</v>
       </c>
-      <c r="N27" s="3">
+      <c r="P27" s="3">
         <v>-2000</v>
       </c>
-      <c r="O27" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="28" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="Q27" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="28" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1514,8 +1629,14 @@
       <c r="O28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P28" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1555,8 +1676,14 @@
       <c r="O29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P29" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1596,8 +1723,14 @@
       <c r="O30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P30" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1637,8 +1770,14 @@
       <c r="O31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P31" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
@@ -1675,52 +1814,64 @@
       <c r="N32" s="3">
         <v>0</v>
       </c>
-      <c r="O32" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="33" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="O32" s="3">
+        <v>0</v>
+      </c>
+      <c r="P32" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q32" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="33" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>-3300</v>
+      </c>
+      <c r="E33" s="3">
+        <v>-3300</v>
+      </c>
+      <c r="F33" s="3">
         <v>-4300</v>
       </c>
-      <c r="E33" s="3">
+      <c r="G33" s="3">
         <v>-3000</v>
       </c>
-      <c r="F33" s="3">
+      <c r="H33" s="3">
         <v>-3400</v>
       </c>
-      <c r="G33" s="3">
+      <c r="I33" s="3">
         <v>-2700</v>
       </c>
-      <c r="H33" s="3">
+      <c r="J33" s="3">
         <v>-3300</v>
       </c>
-      <c r="I33" s="3">
+      <c r="K33" s="3">
         <v>-2900</v>
       </c>
-      <c r="J33" s="3">
+      <c r="L33" s="3">
         <v>-1700</v>
       </c>
-      <c r="K33" s="3">
+      <c r="M33" s="3">
         <v>-7500</v>
       </c>
-      <c r="L33" s="3">
+      <c r="N33" s="3">
         <v>-1900</v>
       </c>
-      <c r="M33" s="3">
+      <c r="O33" s="3">
         <v>-2800</v>
       </c>
-      <c r="N33" s="3">
+      <c r="P33" s="3">
         <v>-2000</v>
       </c>
-      <c r="O33" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="34" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="Q33" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="34" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1760,95 +1911,113 @@
       <c r="O34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P34" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>-3300</v>
+      </c>
+      <c r="E35" s="3">
+        <v>-3300</v>
+      </c>
+      <c r="F35" s="3">
         <v>-4300</v>
       </c>
-      <c r="E35" s="3">
+      <c r="G35" s="3">
         <v>-3000</v>
       </c>
-      <c r="F35" s="3">
+      <c r="H35" s="3">
         <v>-3400</v>
       </c>
-      <c r="G35" s="3">
+      <c r="I35" s="3">
         <v>-2700</v>
       </c>
-      <c r="H35" s="3">
+      <c r="J35" s="3">
         <v>-3300</v>
       </c>
-      <c r="I35" s="3">
+      <c r="K35" s="3">
         <v>-2900</v>
       </c>
-      <c r="J35" s="3">
+      <c r="L35" s="3">
         <v>-1700</v>
       </c>
-      <c r="K35" s="3">
+      <c r="M35" s="3">
         <v>-7500</v>
       </c>
-      <c r="L35" s="3">
+      <c r="N35" s="3">
         <v>-1900</v>
       </c>
-      <c r="M35" s="3">
+      <c r="O35" s="3">
         <v>-2800</v>
       </c>
-      <c r="N35" s="3">
+      <c r="P35" s="3">
         <v>-2000</v>
       </c>
-      <c r="O35" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="37" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="Q35" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="37" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>43921</v>
+      </c>
+      <c r="E38" s="2">
+        <v>43830</v>
+      </c>
+      <c r="F38" s="2">
         <v>43738</v>
       </c>
-      <c r="E38" s="2">
+      <c r="G38" s="2">
         <v>43646</v>
       </c>
-      <c r="F38" s="2">
+      <c r="H38" s="2">
         <v>43555</v>
       </c>
-      <c r="G38" s="2">
+      <c r="I38" s="2">
         <v>43465</v>
       </c>
-      <c r="H38" s="2">
+      <c r="J38" s="2">
         <v>43373</v>
       </c>
-      <c r="I38" s="2">
+      <c r="K38" s="2">
         <v>43281</v>
       </c>
-      <c r="J38" s="2">
+      <c r="L38" s="2">
         <v>43190</v>
       </c>
-      <c r="K38" s="2">
+      <c r="M38" s="2">
         <v>43100</v>
       </c>
-      <c r="L38" s="2">
+      <c r="N38" s="2">
         <v>43008</v>
       </c>
-      <c r="M38" s="2">
+      <c r="O38" s="2">
         <v>42916</v>
       </c>
-      <c r="N38" s="2">
+      <c r="P38" s="2">
         <v>42825</v>
       </c>
-      <c r="O38" s="2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="39" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="Q38" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="39" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1864,8 +2033,10 @@
       <c r="M39" s="3"/>
       <c r="N39" s="3"/>
       <c r="O39" s="3"/>
-    </row>
-    <row r="40" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P39" s="3"/>
+      <c r="Q39" s="3"/>
+    </row>
+    <row r="40" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1881,37 +2052,39 @@
       <c r="M40" s="3"/>
       <c r="N40" s="3"/>
       <c r="O40" s="3"/>
-    </row>
-    <row r="41" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P40" s="3"/>
+      <c r="Q40" s="3"/>
+    </row>
+    <row r="41" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>7500</v>
+      </c>
+      <c r="E41" s="3">
+        <v>11900</v>
+      </c>
+      <c r="F41" s="3">
         <v>8500</v>
       </c>
-      <c r="E41" s="3">
+      <c r="G41" s="3">
         <v>11200</v>
       </c>
-      <c r="F41" s="3">
+      <c r="H41" s="3">
         <v>4900</v>
       </c>
-      <c r="G41" s="3">
+      <c r="I41" s="3">
         <v>100</v>
       </c>
-      <c r="H41" s="3">
+      <c r="J41" s="3">
         <v>200</v>
       </c>
-      <c r="I41" s="3">
+      <c r="K41" s="3">
         <v>1400</v>
       </c>
-      <c r="J41" s="3">
-        <v>0</v>
-      </c>
-      <c r="K41" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="L41" s="3" t="s">
-        <v>3</v>
+      <c r="L41" s="3">
+        <v>0</v>
       </c>
       <c r="M41" s="3" t="s">
         <v>3</v>
@@ -1922,8 +2095,14 @@
       <c r="O41" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="42" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P41" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q41" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="42" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -1963,8 +2142,14 @@
       <c r="O42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P42" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
@@ -1980,20 +2165,20 @@
       <c r="G43" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="H43" s="3">
-        <v>0</v>
-      </c>
-      <c r="I43" s="3">
-        <v>0</v>
+      <c r="H43" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="I43" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="J43" s="3">
         <v>0</v>
       </c>
-      <c r="K43" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="L43" s="3" t="s">
-        <v>3</v>
+      <c r="K43" s="3">
+        <v>0</v>
+      </c>
+      <c r="L43" s="3">
+        <v>0</v>
       </c>
       <c r="M43" s="3" t="s">
         <v>3</v>
@@ -2004,8 +2189,14 @@
       <c r="O43" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="44" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P43" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q43" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="44" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -2045,25 +2236,31 @@
       <c r="O44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P44" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>400</v>
+        <v>1100</v>
       </c>
       <c r="E45" s="3">
-        <v>500</v>
+        <v>300</v>
       </c>
       <c r="F45" s="3">
         <v>400</v>
       </c>
       <c r="G45" s="3">
-        <v>0</v>
+        <v>500</v>
       </c>
       <c r="H45" s="3">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="I45" s="3">
         <v>0</v>
@@ -2071,11 +2268,11 @@
       <c r="J45" s="3">
         <v>0</v>
       </c>
-      <c r="K45" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="L45" s="3" t="s">
-        <v>3</v>
+      <c r="K45" s="3">
+        <v>0</v>
+      </c>
+      <c r="L45" s="3">
+        <v>0</v>
       </c>
       <c r="M45" s="3" t="s">
         <v>3</v>
@@ -2086,37 +2283,43 @@
       <c r="O45" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="46" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P45" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q45" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="46" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>8700</v>
+      </c>
+      <c r="E46" s="3">
+        <v>12200</v>
+      </c>
+      <c r="F46" s="3">
         <v>8900</v>
       </c>
-      <c r="E46" s="3">
+      <c r="G46" s="3">
         <v>11700</v>
       </c>
-      <c r="F46" s="3">
+      <c r="H46" s="3">
         <v>5300</v>
       </c>
-      <c r="G46" s="3">
+      <c r="I46" s="3">
         <v>100</v>
       </c>
-      <c r="H46" s="3">
+      <c r="J46" s="3">
         <v>200</v>
       </c>
-      <c r="I46" s="3">
+      <c r="K46" s="3">
         <v>1500</v>
       </c>
-      <c r="J46" s="3">
-        <v>0</v>
-      </c>
-      <c r="K46" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="L46" s="3" t="s">
-        <v>3</v>
+      <c r="L46" s="3">
+        <v>0</v>
       </c>
       <c r="M46" s="3" t="s">
         <v>3</v>
@@ -2127,8 +2330,14 @@
       <c r="O46" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="47" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P46" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q46" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="47" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -2168,37 +2377,43 @@
       <c r="O47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P47" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>800</v>
+      </c>
+      <c r="E48" s="3">
+        <v>800</v>
+      </c>
+      <c r="F48" s="3">
         <v>900</v>
-      </c>
-      <c r="E48" s="3">
-        <v>1000</v>
-      </c>
-      <c r="F48" s="3">
-        <v>1000</v>
       </c>
       <c r="G48" s="3">
         <v>1000</v>
       </c>
       <c r="H48" s="3">
-        <v>300</v>
+        <v>1000</v>
       </c>
       <c r="I48" s="3">
-        <v>300</v>
+        <v>1000</v>
       </c>
       <c r="J48" s="3">
         <v>300</v>
       </c>
-      <c r="K48" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="L48" s="3" t="s">
-        <v>3</v>
+      <c r="K48" s="3">
+        <v>300</v>
+      </c>
+      <c r="L48" s="3">
+        <v>300</v>
       </c>
       <c r="M48" s="3" t="s">
         <v>3</v>
@@ -2209,8 +2424,14 @@
       <c r="O48" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="49" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P48" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q48" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="49" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -2235,11 +2456,11 @@
       <c r="J49" s="3">
         <v>100</v>
       </c>
-      <c r="K49" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="L49" s="3" t="s">
-        <v>3</v>
+      <c r="K49" s="3">
+        <v>100</v>
+      </c>
+      <c r="L49" s="3">
+        <v>100</v>
       </c>
       <c r="M49" s="3" t="s">
         <v>3</v>
@@ -2250,8 +2471,14 @@
       <c r="O49" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="50" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P49" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q49" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="50" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2291,8 +2518,14 @@
       <c r="O50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P50" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2332,8 +2565,14 @@
       <c r="O51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P51" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
@@ -2347,22 +2586,22 @@
         <v>0</v>
       </c>
       <c r="G52" s="3">
+        <v>0</v>
+      </c>
+      <c r="H52" s="3">
+        <v>0</v>
+      </c>
+      <c r="I52" s="3">
         <v>300</v>
       </c>
-      <c r="H52" s="3">
+      <c r="J52" s="3">
         <v>300</v>
       </c>
-      <c r="I52" s="3">
+      <c r="K52" s="3">
         <v>100</v>
       </c>
-      <c r="J52" s="3">
-        <v>0</v>
-      </c>
-      <c r="K52" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="L52" s="3" t="s">
-        <v>3</v>
+      <c r="L52" s="3">
+        <v>0</v>
       </c>
       <c r="M52" s="3" t="s">
         <v>3</v>
@@ -2373,8 +2612,14 @@
       <c r="O52" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="53" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P52" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q52" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="53" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2414,38 +2659,44 @@
       <c r="O53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P53" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>9600</v>
+      </c>
+      <c r="E54" s="3">
+        <v>13100</v>
+      </c>
+      <c r="F54" s="3">
         <v>9900</v>
       </c>
-      <c r="E54" s="3">
+      <c r="G54" s="3">
         <v>12800</v>
       </c>
-      <c r="F54" s="3">
+      <c r="H54" s="3">
         <v>6400</v>
       </c>
-      <c r="G54" s="3">
+      <c r="I54" s="3">
         <v>1500</v>
       </c>
-      <c r="H54" s="3">
+      <c r="J54" s="3">
         <v>900</v>
       </c>
-      <c r="I54" s="3">
+      <c r="K54" s="3">
         <v>2000</v>
       </c>
-      <c r="J54" s="3">
+      <c r="L54" s="3">
         <v>400</v>
       </c>
-      <c r="K54" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="L54" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M54" s="3" t="s">
         <v>3</v>
       </c>
@@ -2455,8 +2706,14 @@
       <c r="O54" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="55" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P54" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q54" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="55" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2472,8 +2729,10 @@
       <c r="M55" s="3"/>
       <c r="N55" s="3"/>
       <c r="O55" s="3"/>
-    </row>
-    <row r="56" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P55" s="3"/>
+      <c r="Q55" s="3"/>
+    </row>
+    <row r="56" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2489,38 +2748,40 @@
       <c r="M56" s="3"/>
       <c r="N56" s="3"/>
       <c r="O56" s="3"/>
-    </row>
-    <row r="57" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P56" s="3"/>
+      <c r="Q56" s="3"/>
+    </row>
+    <row r="57" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>1000</v>
+      </c>
+      <c r="E57" s="3">
+        <v>1300</v>
+      </c>
+      <c r="F57" s="3">
         <v>900</v>
       </c>
-      <c r="E57" s="3">
+      <c r="G57" s="3">
         <v>400</v>
       </c>
-      <c r="F57" s="3">
+      <c r="H57" s="3">
         <v>500</v>
       </c>
-      <c r="G57" s="3">
+      <c r="I57" s="3">
         <v>2700</v>
       </c>
-      <c r="H57" s="3">
+      <c r="J57" s="3">
         <v>1800</v>
       </c>
-      <c r="I57" s="3">
+      <c r="K57" s="3">
         <v>1100</v>
       </c>
-      <c r="J57" s="3">
+      <c r="L57" s="3">
         <v>900</v>
       </c>
-      <c r="K57" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="L57" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M57" s="3" t="s">
         <v>3</v>
       </c>
@@ -2530,13 +2791,19 @@
       <c r="O57" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="58" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P57" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q57" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="58" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="D58" s="3">
-        <v>0</v>
+      <c r="D58" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="E58" s="3">
         <v>0</v>
@@ -2545,23 +2812,23 @@
         <v>0</v>
       </c>
       <c r="G58" s="3">
+        <v>0</v>
+      </c>
+      <c r="H58" s="3">
+        <v>0</v>
+      </c>
+      <c r="I58" s="3">
         <v>10600</v>
       </c>
-      <c r="H58" s="3">
+      <c r="J58" s="3">
         <v>10200</v>
       </c>
-      <c r="I58" s="3">
+      <c r="K58" s="3">
         <v>10200</v>
       </c>
-      <c r="J58" s="3">
+      <c r="L58" s="3">
         <v>6900</v>
       </c>
-      <c r="K58" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="L58" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M58" s="3" t="s">
         <v>3</v>
       </c>
@@ -2571,38 +2838,44 @@
       <c r="O58" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="59" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P58" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q58" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="59" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>900</v>
+      </c>
+      <c r="E59" s="3">
+        <v>1500</v>
+      </c>
+      <c r="F59" s="3">
         <v>1800</v>
       </c>
-      <c r="E59" s="3">
+      <c r="G59" s="3">
         <v>1600</v>
       </c>
-      <c r="F59" s="3">
+      <c r="H59" s="3">
         <v>1400</v>
       </c>
-      <c r="G59" s="3">
+      <c r="I59" s="3">
         <v>7800</v>
       </c>
-      <c r="H59" s="3">
+      <c r="J59" s="3">
         <v>6500</v>
       </c>
-      <c r="I59" s="3">
+      <c r="K59" s="3">
         <v>5300</v>
       </c>
-      <c r="J59" s="3">
+      <c r="L59" s="3">
         <v>4600</v>
       </c>
-      <c r="K59" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="L59" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M59" s="3" t="s">
         <v>3</v>
       </c>
@@ -2612,38 +2885,44 @@
       <c r="O59" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="60" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P59" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q59" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="60" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>1800</v>
+      </c>
+      <c r="E60" s="3">
+        <v>2900</v>
+      </c>
+      <c r="F60" s="3">
         <v>2700</v>
       </c>
-      <c r="E60" s="3">
+      <c r="G60" s="3">
         <v>2000</v>
       </c>
-      <c r="F60" s="3">
+      <c r="H60" s="3">
         <v>2000</v>
       </c>
-      <c r="G60" s="3">
+      <c r="I60" s="3">
         <v>21100</v>
       </c>
-      <c r="H60" s="3">
+      <c r="J60" s="3">
         <v>18400</v>
       </c>
-      <c r="I60" s="3">
+      <c r="K60" s="3">
         <v>16600</v>
       </c>
-      <c r="J60" s="3">
+      <c r="L60" s="3">
         <v>12400</v>
       </c>
-      <c r="K60" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="L60" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M60" s="3" t="s">
         <v>3</v>
       </c>
@@ -2653,8 +2932,14 @@
       <c r="O60" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="61" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P60" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q60" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="61" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -2694,8 +2979,14 @@
       <c r="O61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P61" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
@@ -2720,11 +3011,11 @@
       <c r="J62" s="3">
         <v>0</v>
       </c>
-      <c r="K62" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="L62" s="3" t="s">
-        <v>3</v>
+      <c r="K62" s="3">
+        <v>0</v>
+      </c>
+      <c r="L62" s="3">
+        <v>0</v>
       </c>
       <c r="M62" s="3" t="s">
         <v>3</v>
@@ -2735,8 +3026,14 @@
       <c r="O62" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="63" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P62" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q62" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="63" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2776,8 +3073,14 @@
       <c r="O63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P63" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2817,8 +3120,14 @@
       <c r="O64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P64" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -2858,38 +3167,44 @@
       <c r="O65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P65" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>1900</v>
+      </c>
+      <c r="E66" s="3">
+        <v>2900</v>
+      </c>
+      <c r="F66" s="3">
         <v>2700</v>
       </c>
-      <c r="E66" s="3">
+      <c r="G66" s="3">
         <v>2000</v>
       </c>
-      <c r="F66" s="3">
+      <c r="H66" s="3">
         <v>2000</v>
       </c>
-      <c r="G66" s="3">
+      <c r="I66" s="3">
         <v>21100</v>
       </c>
-      <c r="H66" s="3">
+      <c r="J66" s="3">
         <v>18500</v>
       </c>
-      <c r="I66" s="3">
+      <c r="K66" s="3">
         <v>16600</v>
       </c>
-      <c r="J66" s="3">
+      <c r="L66" s="3">
         <v>12500</v>
       </c>
-      <c r="K66" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="L66" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M66" s="3" t="s">
         <v>3</v>
       </c>
@@ -2899,8 +3214,14 @@
       <c r="O66" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="67" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P66" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q66" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="67" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -2916,8 +3237,10 @@
       <c r="M67" s="3"/>
       <c r="N67" s="3"/>
       <c r="O67" s="3"/>
-    </row>
-    <row r="68" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P67" s="3"/>
+      <c r="Q67" s="3"/>
+    </row>
+    <row r="68" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -2957,8 +3280,14 @@
       <c r="O68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P68" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -2998,8 +3327,14 @@
       <c r="O69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P69" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3039,8 +3374,14 @@
       <c r="O70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P70" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3080,38 +3421,44 @@
       <c r="O71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P71" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-59300</v>
+      </c>
+      <c r="E72" s="3">
+        <v>-56000</v>
+      </c>
+      <c r="F72" s="3">
         <v>-52800</v>
       </c>
-      <c r="E72" s="3">
+      <c r="G72" s="3">
         <v>-48500</v>
       </c>
-      <c r="F72" s="3">
+      <c r="H72" s="3">
         <v>-45500</v>
       </c>
-      <c r="G72" s="3">
+      <c r="I72" s="3">
         <v>-42100</v>
       </c>
-      <c r="H72" s="3">
+      <c r="J72" s="3">
         <v>-39400</v>
       </c>
-      <c r="I72" s="3">
+      <c r="K72" s="3">
         <v>-36100</v>
       </c>
-      <c r="J72" s="3">
+      <c r="L72" s="3">
         <v>-33200</v>
       </c>
-      <c r="K72" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="L72" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M72" s="3" t="s">
         <v>3</v>
       </c>
@@ -3121,8 +3468,14 @@
       <c r="O72" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="73" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P72" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q72" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="73" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -3162,8 +3515,14 @@
       <c r="O73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P73" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3203,8 +3562,14 @@
       <c r="O74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P74" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3244,38 +3609,44 @@
       <c r="O75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P75" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>7700</v>
+      </c>
+      <c r="E76" s="3">
+        <v>10300</v>
+      </c>
+      <c r="F76" s="3">
         <v>7200</v>
       </c>
-      <c r="E76" s="3">
+      <c r="G76" s="3">
         <v>10800</v>
       </c>
-      <c r="F76" s="3">
+      <c r="H76" s="3">
         <v>4400</v>
       </c>
-      <c r="G76" s="3">
+      <c r="I76" s="3">
         <v>-19600</v>
       </c>
-      <c r="H76" s="3">
+      <c r="J76" s="3">
         <v>-17600</v>
       </c>
-      <c r="I76" s="3">
+      <c r="K76" s="3">
         <v>-14600</v>
       </c>
-      <c r="J76" s="3">
+      <c r="L76" s="3">
         <v>-12000</v>
       </c>
-      <c r="K76" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="L76" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M76" s="3" t="s">
         <v>3</v>
       </c>
@@ -3285,8 +3656,14 @@
       <c r="O76" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="77" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P76" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q76" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="77" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -3326,95 +3703,113 @@
       <c r="O77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P77" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>43921</v>
+      </c>
+      <c r="E80" s="2">
+        <v>43830</v>
+      </c>
+      <c r="F80" s="2">
         <v>43738</v>
       </c>
-      <c r="E80" s="2">
+      <c r="G80" s="2">
         <v>43646</v>
       </c>
-      <c r="F80" s="2">
+      <c r="H80" s="2">
         <v>43555</v>
       </c>
-      <c r="G80" s="2">
+      <c r="I80" s="2">
         <v>43465</v>
       </c>
-      <c r="H80" s="2">
+      <c r="J80" s="2">
         <v>43373</v>
       </c>
-      <c r="I80" s="2">
+      <c r="K80" s="2">
         <v>43281</v>
       </c>
-      <c r="J80" s="2">
+      <c r="L80" s="2">
         <v>43190</v>
       </c>
-      <c r="K80" s="2">
+      <c r="M80" s="2">
         <v>43100</v>
       </c>
-      <c r="L80" s="2">
+      <c r="N80" s="2">
         <v>43008</v>
       </c>
-      <c r="M80" s="2">
+      <c r="O80" s="2">
         <v>42916</v>
       </c>
-      <c r="N80" s="2">
+      <c r="P80" s="2">
         <v>42825</v>
       </c>
-      <c r="O80" s="2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="81" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="Q80" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="81" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>-3300</v>
+      </c>
+      <c r="E81" s="3">
+        <v>-3300</v>
+      </c>
+      <c r="F81" s="3">
         <v>-4300</v>
       </c>
-      <c r="E81" s="3">
+      <c r="G81" s="3">
         <v>-3000</v>
       </c>
-      <c r="F81" s="3">
+      <c r="H81" s="3">
         <v>-3400</v>
       </c>
-      <c r="G81" s="3">
+      <c r="I81" s="3">
         <v>-2700</v>
       </c>
-      <c r="H81" s="3">
+      <c r="J81" s="3">
         <v>-3300</v>
       </c>
-      <c r="I81" s="3">
+      <c r="K81" s="3">
         <v>-2900</v>
       </c>
-      <c r="J81" s="3">
+      <c r="L81" s="3">
         <v>-1700</v>
       </c>
-      <c r="K81" s="3">
+      <c r="M81" s="3">
         <v>-7500</v>
       </c>
-      <c r="L81" s="3">
+      <c r="N81" s="3">
         <v>-1900</v>
       </c>
-      <c r="M81" s="3">
+      <c r="O81" s="3">
         <v>-2800</v>
       </c>
-      <c r="N81" s="3">
+      <c r="P81" s="3">
         <v>-2000</v>
       </c>
-      <c r="O81" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="82" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="Q81" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="82" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -3430,8 +3825,10 @@
       <c r="M82" s="3"/>
       <c r="N82" s="3"/>
       <c r="O82" s="3"/>
-    </row>
-    <row r="83" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P82" s="3"/>
+      <c r="Q82" s="3"/>
+    </row>
+    <row r="83" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -3439,10 +3836,10 @@
         <v>100</v>
       </c>
       <c r="E83" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="F83" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G83" s="3">
         <v>0</v>
@@ -3457,22 +3854,28 @@
         <v>0</v>
       </c>
       <c r="K83" s="3">
+        <v>0</v>
+      </c>
+      <c r="L83" s="3">
+        <v>0</v>
+      </c>
+      <c r="M83" s="3">
         <v>100</v>
       </c>
-      <c r="L83" s="3">
-        <v>0</v>
-      </c>
-      <c r="M83" s="3">
-        <v>0</v>
-      </c>
       <c r="N83" s="3">
         <v>0</v>
       </c>
-      <c r="O83" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="84" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O83" s="3">
+        <v>0</v>
+      </c>
+      <c r="P83" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q83" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="84" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -3512,8 +3915,14 @@
       <c r="O84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P84" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -3553,8 +3962,14 @@
       <c r="O85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P85" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -3594,8 +4009,14 @@
       <c r="O86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P86" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -3635,8 +4056,14 @@
       <c r="O87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P87" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -3676,49 +4103,61 @@
       <c r="O88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P88" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>-4300</v>
+      </c>
+      <c r="E89" s="3">
+        <v>-1600</v>
+      </c>
+      <c r="F89" s="3">
         <v>-2700</v>
       </c>
-      <c r="E89" s="3">
-        <v>-2300</v>
-      </c>
-      <c r="F89" s="3">
-        <v>-4100</v>
-      </c>
       <c r="G89" s="3">
+        <v>-3100</v>
+      </c>
+      <c r="H89" s="3">
+        <v>-3300</v>
+      </c>
+      <c r="I89" s="3">
         <v>-900</v>
-      </c>
-      <c r="H89" s="3">
-        <v>-900</v>
-      </c>
-      <c r="I89" s="3">
-        <v>-1900</v>
       </c>
       <c r="J89" s="3">
         <v>-900</v>
       </c>
       <c r="K89" s="3">
+        <v>-1900</v>
+      </c>
+      <c r="L89" s="3">
+        <v>-900</v>
+      </c>
+      <c r="M89" s="3">
         <v>-6100</v>
       </c>
-      <c r="L89" s="3">
+      <c r="N89" s="3">
         <v>-1400</v>
       </c>
-      <c r="M89" s="3">
+      <c r="O89" s="3">
         <v>-2200</v>
       </c>
-      <c r="N89" s="3">
+      <c r="P89" s="3">
         <v>-1200</v>
       </c>
-      <c r="O89" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="90" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="Q89" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="90" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -3734,8 +4173,10 @@
       <c r="M90" s="3"/>
       <c r="N90" s="3"/>
       <c r="O90" s="3"/>
-    </row>
-    <row r="91" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P90" s="3"/>
+      <c r="Q90" s="3"/>
+    </row>
+    <row r="91" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
@@ -3743,7 +4184,7 @@
         <v>0</v>
       </c>
       <c r="E91" s="3">
-        <v>0</v>
+        <v>-800</v>
       </c>
       <c r="F91" s="3">
         <v>0</v>
@@ -3754,17 +4195,17 @@
       <c r="H91" s="3">
         <v>0</v>
       </c>
-      <c r="I91" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="J91" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="K91" s="3">
-        <v>0</v>
-      </c>
-      <c r="L91" s="3">
-        <v>0</v>
+      <c r="I91" s="3">
+        <v>0</v>
+      </c>
+      <c r="J91" s="3">
+        <v>0</v>
+      </c>
+      <c r="K91" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L91" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="M91" s="3">
         <v>0</v>
@@ -3772,11 +4213,17 @@
       <c r="N91" s="3">
         <v>0</v>
       </c>
-      <c r="O91" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="92" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O91" s="3">
+        <v>0</v>
+      </c>
+      <c r="P91" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q91" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="92" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -3816,8 +4263,14 @@
       <c r="O92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P92" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -3857,8 +4310,14 @@
       <c r="O93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P93" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
@@ -3866,7 +4325,7 @@
         <v>0</v>
       </c>
       <c r="E94" s="3">
-        <v>0</v>
+        <v>-800</v>
       </c>
       <c r="F94" s="3">
         <v>0</v>
@@ -3884,7 +4343,7 @@
         <v>0</v>
       </c>
       <c r="K94" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="L94" s="3">
         <v>0</v>
@@ -3895,11 +4354,17 @@
       <c r="N94" s="3">
         <v>0</v>
       </c>
-      <c r="O94" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="95" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O94" s="3">
+        <v>-100</v>
+      </c>
+      <c r="P94" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q94" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="95" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -3915,8 +4380,10 @@
       <c r="M95" s="3"/>
       <c r="N95" s="3"/>
       <c r="O95" s="3"/>
-    </row>
-    <row r="96" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P95" s="3"/>
+      <c r="Q95" s="3"/>
+    </row>
+    <row r="96" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -3956,8 +4423,14 @@
       <c r="O96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P96" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -3997,8 +4470,14 @@
       <c r="O97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P97" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -4038,8 +4517,14 @@
       <c r="O98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P98" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -4079,8 +4564,14 @@
       <c r="O99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P99" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
@@ -4088,40 +4579,46 @@
         <v>0</v>
       </c>
       <c r="E100" s="3">
+        <v>5700</v>
+      </c>
+      <c r="F100" s="3">
+        <v>0</v>
+      </c>
+      <c r="G100" s="3">
         <v>8600</v>
       </c>
-      <c r="F100" s="3">
+      <c r="H100" s="3">
         <v>9000</v>
       </c>
-      <c r="G100" s="3">
+      <c r="I100" s="3">
         <v>800</v>
       </c>
-      <c r="H100" s="3">
+      <c r="J100" s="3">
         <v>-300</v>
       </c>
-      <c r="I100" s="3">
+      <c r="K100" s="3">
         <v>3300</v>
       </c>
-      <c r="J100" s="3">
+      <c r="L100" s="3">
         <v>900</v>
       </c>
-      <c r="K100" s="3">
+      <c r="M100" s="3">
         <v>6000</v>
       </c>
-      <c r="L100" s="3">
+      <c r="N100" s="3">
         <v>700</v>
       </c>
-      <c r="M100" s="3">
+      <c r="O100" s="3">
         <v>2300</v>
       </c>
-      <c r="N100" s="3">
+      <c r="P100" s="3">
         <v>2000</v>
       </c>
-      <c r="O100" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="101" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="Q100" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="101" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -4161,45 +4658,57 @@
       <c r="O101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P101" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>-4300</v>
+      </c>
+      <c r="E102" s="3">
+        <v>3400</v>
+      </c>
+      <c r="F102" s="3">
         <v>-2700</v>
       </c>
-      <c r="E102" s="3">
+      <c r="G102" s="3">
         <v>6300</v>
       </c>
-      <c r="F102" s="3">
+      <c r="H102" s="3">
         <v>4900</v>
       </c>
-      <c r="G102" s="3">
+      <c r="I102" s="3">
         <v>-100</v>
       </c>
-      <c r="H102" s="3">
+      <c r="J102" s="3">
         <v>-1200</v>
       </c>
-      <c r="I102" s="3">
+      <c r="K102" s="3">
         <v>1400</v>
       </c>
-      <c r="J102" s="3">
-        <v>0</v>
-      </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
+        <v>0</v>
+      </c>
+      <c r="M102" s="3">
         <v>-100</v>
       </c>
-      <c r="L102" s="3">
+      <c r="N102" s="3">
         <v>-700</v>
       </c>
-      <c r="M102" s="3">
+      <c r="O102" s="3">
         <v>100</v>
       </c>
-      <c r="N102" s="3">
+      <c r="P102" s="3">
         <v>800</v>
       </c>
-      <c r="O102" s="3" t="s">
+      <c r="Q102" s="3" t="s">
         <v>3</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/SOLY_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/SOLY_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="243" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="251" uniqueCount="92">
   <si>
     <t>SOLY</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:Q102"/>
+  <dimension ref="A5:R102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,78 +665,82 @@
     <col min="1" max="1" width="7.42578125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:18" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44012</v>
+      </c>
+      <c r="E7" s="2">
         <v>43921</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>43830</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>43738</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>43646</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>43555</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>43465</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43373</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43281</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43190</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43100</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43008</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>42916</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>42825</v>
       </c>
-      <c r="Q7" s="2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="8" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R7" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>4</v>
       </c>
@@ -782,8 +786,11 @@
       <c r="Q8" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R8" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
@@ -829,8 +836,11 @@
       <c r="Q9" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="10" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R9" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
@@ -876,8 +886,11 @@
       <c r="Q10" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="11" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R10" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -895,55 +908,59 @@
       <c r="O11" s="3"/>
       <c r="P11" s="3"/>
       <c r="Q11" s="3"/>
-    </row>
-    <row r="12" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R11" s="3"/>
+    </row>
+    <row r="12" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D12" s="3">
+        <v>1300</v>
+      </c>
+      <c r="E12" s="3">
         <v>1200</v>
       </c>
-      <c r="E12" s="3">
+      <c r="F12" s="3">
         <v>1400</v>
       </c>
-      <c r="F12" s="3">
+      <c r="G12" s="3">
         <v>2400</v>
       </c>
-      <c r="G12" s="3">
+      <c r="H12" s="3">
         <v>800</v>
       </c>
-      <c r="H12" s="3">
+      <c r="I12" s="3">
         <v>400</v>
       </c>
-      <c r="I12" s="3">
+      <c r="J12" s="3">
         <v>900</v>
       </c>
-      <c r="J12" s="3">
+      <c r="K12" s="3">
         <v>1700</v>
       </c>
-      <c r="K12" s="3">
+      <c r="L12" s="3">
         <v>1400</v>
       </c>
-      <c r="L12" s="3">
+      <c r="M12" s="3">
         <v>700</v>
       </c>
-      <c r="M12" s="3">
+      <c r="N12" s="3">
         <v>4000</v>
       </c>
-      <c r="N12" s="3">
+      <c r="O12" s="3">
         <v>700</v>
       </c>
-      <c r="O12" s="3">
+      <c r="P12" s="3">
         <v>1300</v>
       </c>
-      <c r="P12" s="3">
+      <c r="Q12" s="3">
         <v>1200</v>
       </c>
-      <c r="Q12" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="13" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R12" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -989,8 +1006,11 @@
       <c r="Q13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -1036,8 +1056,11 @@
       <c r="Q14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1051,7 +1074,7 @@
         <v>100</v>
       </c>
       <c r="G15" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="H15" s="3">
         <v>0</v>
@@ -1069,22 +1092,25 @@
         <v>0</v>
       </c>
       <c r="M15" s="3">
+        <v>0</v>
+      </c>
+      <c r="N15" s="3">
         <v>100</v>
       </c>
-      <c r="N15" s="3">
-        <v>0</v>
-      </c>
       <c r="O15" s="3">
         <v>0</v>
       </c>
       <c r="P15" s="3">
         <v>0</v>
       </c>
-      <c r="Q15" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="16" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="Q15" s="3">
+        <v>0</v>
+      </c>
+      <c r="R15" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="16" spans="1:18" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1099,55 +1125,59 @@
       <c r="O16" s="3"/>
       <c r="P16" s="3"/>
       <c r="Q16" s="3"/>
-    </row>
-    <row r="17" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R16" s="3"/>
+    </row>
+    <row r="17" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>3300</v>
+        <v>3100</v>
       </c>
       <c r="E17" s="3">
         <v>3300</v>
       </c>
       <c r="F17" s="3">
+        <v>3300</v>
+      </c>
+      <c r="G17" s="3">
         <v>4300</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>3000</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>2400</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>2100</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>2700</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>2300</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>1200</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>7200</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>1500</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>2100</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>1900</v>
       </c>
-      <c r="Q17" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="18" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R17" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="18" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
@@ -1158,43 +1188,46 @@
         <v>-3300</v>
       </c>
       <c r="F18" s="3">
+        <v>-3300</v>
+      </c>
+      <c r="G18" s="3">
         <v>-4300</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>-3000</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>-2400</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>-2100</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>-2700</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>-2300</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>-1200</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>-7200</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>-1500</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>-2100</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>-1900</v>
       </c>
-      <c r="Q18" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="19" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R18" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="19" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1212,8 +1245,9 @@
       <c r="O19" s="3"/>
       <c r="P19" s="3"/>
       <c r="Q19" s="3"/>
-    </row>
-    <row r="20" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R19" s="3"/>
+    </row>
+    <row r="20" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
@@ -1256,11 +1290,14 @@
       <c r="P20" s="3">
         <v>0</v>
       </c>
-      <c r="Q20" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="21" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="Q20" s="3">
+        <v>0</v>
+      </c>
+      <c r="R20" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="21" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
@@ -1271,43 +1308,46 @@
         <v>-3200</v>
       </c>
       <c r="F21" s="3">
+        <v>-3200</v>
+      </c>
+      <c r="G21" s="3">
         <v>-4200</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>-2900</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>-2400</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>-2000</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>-2600</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>-2300</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>-1200</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>-7100</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>-1500</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>-2100</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>-1900</v>
       </c>
-      <c r="Q21" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="22" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R21" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="22" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1324,95 +1364,101 @@
         <v>0</v>
       </c>
       <c r="H22" s="3">
+        <v>0</v>
+      </c>
+      <c r="I22" s="3">
         <v>800</v>
       </c>
-      <c r="I22" s="3">
+      <c r="J22" s="3">
         <v>400</v>
-      </c>
-      <c r="J22" s="3">
-        <v>300</v>
       </c>
       <c r="K22" s="3">
         <v>300</v>
       </c>
       <c r="L22" s="3">
+        <v>300</v>
+      </c>
+      <c r="M22" s="3">
         <v>200</v>
       </c>
-      <c r="M22" s="3">
+      <c r="N22" s="3">
         <v>300</v>
-      </c>
-      <c r="N22" s="3">
-        <v>100</v>
       </c>
       <c r="O22" s="3">
         <v>100</v>
       </c>
       <c r="P22" s="3">
-        <v>0</v>
-      </c>
-      <c r="Q22" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="23" spans="3:17" x14ac:dyDescent="0.2">
+        <v>100</v>
+      </c>
+      <c r="Q22" s="3">
+        <v>0</v>
+      </c>
+      <c r="R22" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="23" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>-3300</v>
+        <v>-3100</v>
       </c>
       <c r="E23" s="3">
         <v>-3300</v>
       </c>
       <c r="F23" s="3">
+        <v>-3300</v>
+      </c>
+      <c r="G23" s="3">
         <v>-4300</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>-3000</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>-3200</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>-2400</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>-3000</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>-2600</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>-1400</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>-7500</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>-1600</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>-2200</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>-2000</v>
       </c>
-      <c r="Q23" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="24" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R23" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="24" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="D24" s="3" t="s">
-        <v>3</v>
+      <c r="D24" s="3">
+        <v>0</v>
       </c>
       <c r="E24" s="3">
         <v>0</v>
       </c>
-      <c r="F24" s="3" t="s">
-        <v>3</v>
+      <c r="F24" s="3">
+        <v>0</v>
       </c>
       <c r="G24" s="3">
         <v>0</v>
@@ -1444,11 +1490,14 @@
       <c r="P24" s="3">
         <v>0</v>
       </c>
-      <c r="Q24" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="25" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="Q24" s="3">
+        <v>0</v>
+      </c>
+      <c r="R24" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="25" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1494,102 +1543,111 @@
       <c r="Q25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>-3300</v>
+        <v>-3100</v>
       </c>
       <c r="E26" s="3">
         <v>-3300</v>
       </c>
       <c r="F26" s="3">
+        <v>-3300</v>
+      </c>
+      <c r="G26" s="3">
         <v>-4300</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>-3000</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>-3200</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>-2400</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>-3000</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>-2600</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>-1400</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>-7500</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>-1600</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>-2200</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>-2000</v>
       </c>
-      <c r="Q26" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="27" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R26" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="27" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>-3300</v>
+        <v>-3100</v>
       </c>
       <c r="E27" s="3">
         <v>-3300</v>
       </c>
       <c r="F27" s="3">
+        <v>-3300</v>
+      </c>
+      <c r="G27" s="3">
         <v>-4300</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>-3000</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>-3400</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>-2700</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>-3300</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>-2900</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>-1700</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>-7500</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>-1900</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>-2800</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>-2000</v>
       </c>
-      <c r="Q27" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="28" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R27" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="28" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1635,8 +1693,11 @@
       <c r="Q28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1682,8 +1743,11 @@
       <c r="Q29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1729,8 +1793,11 @@
       <c r="Q30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1776,8 +1843,11 @@
       <c r="Q31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
@@ -1820,58 +1890,64 @@
       <c r="P32" s="3">
         <v>0</v>
       </c>
-      <c r="Q32" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="33" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="Q32" s="3">
+        <v>0</v>
+      </c>
+      <c r="R32" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="33" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>-3300</v>
+        <v>-3100</v>
       </c>
       <c r="E33" s="3">
         <v>-3300</v>
       </c>
       <c r="F33" s="3">
+        <v>-3300</v>
+      </c>
+      <c r="G33" s="3">
         <v>-4300</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>-3000</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>-3400</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>-2700</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>-3300</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>-2900</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>-1700</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>-7500</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>-1900</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>-2800</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>-2000</v>
       </c>
-      <c r="Q33" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="34" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R33" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="34" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1917,107 +1993,116 @@
       <c r="Q34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>-3300</v>
+        <v>-3100</v>
       </c>
       <c r="E35" s="3">
         <v>-3300</v>
       </c>
       <c r="F35" s="3">
+        <v>-3300</v>
+      </c>
+      <c r="G35" s="3">
         <v>-4300</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>-3000</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>-3400</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>-2700</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>-3300</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>-2900</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>-1700</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>-7500</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>-1900</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>-2800</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>-2000</v>
       </c>
-      <c r="Q35" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="37" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R35" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="37" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44012</v>
+      </c>
+      <c r="E38" s="2">
         <v>43921</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>43830</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>43738</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>43646</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>43555</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>43465</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43373</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43281</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43190</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43100</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43008</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>42916</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>42825</v>
       </c>
-      <c r="Q38" s="2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="39" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R38" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="39" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2035,8 +2120,9 @@
       <c r="O39" s="3"/>
       <c r="P39" s="3"/>
       <c r="Q39" s="3"/>
-    </row>
-    <row r="40" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R39" s="3"/>
+    </row>
+    <row r="40" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2054,40 +2140,41 @@
       <c r="O40" s="3"/>
       <c r="P40" s="3"/>
       <c r="Q40" s="3"/>
-    </row>
-    <row r="41" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R40" s="3"/>
+    </row>
+    <row r="41" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>37300</v>
+      </c>
+      <c r="E41" s="3">
         <v>7500</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>11900</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>8500</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>11200</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>4900</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>100</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>200</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>1400</v>
       </c>
-      <c r="L41" s="3">
-        <v>0</v>
-      </c>
-      <c r="M41" s="3" t="s">
-        <v>3</v>
+      <c r="M41" s="3">
+        <v>0</v>
       </c>
       <c r="N41" s="3" t="s">
         <v>3</v>
@@ -2101,8 +2188,11 @@
       <c r="Q41" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="42" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R41" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="42" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2148,8 +2238,11 @@
       <c r="Q42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
@@ -2171,8 +2264,8 @@
       <c r="I43" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="J43" s="3">
-        <v>0</v>
+      <c r="J43" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="K43" s="3">
         <v>0</v>
@@ -2180,8 +2273,8 @@
       <c r="L43" s="3">
         <v>0</v>
       </c>
-      <c r="M43" s="3" t="s">
-        <v>3</v>
+      <c r="M43" s="3">
+        <v>0</v>
       </c>
       <c r="N43" s="3" t="s">
         <v>3</v>
@@ -2195,31 +2288,34 @@
       <c r="Q43" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="44" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R43" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="44" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
-        <v>0</v>
-      </c>
-      <c r="E44" s="3">
-        <v>0</v>
-      </c>
-      <c r="F44" s="3">
-        <v>0</v>
-      </c>
-      <c r="G44" s="3">
-        <v>0</v>
-      </c>
-      <c r="H44" s="3">
-        <v>0</v>
-      </c>
-      <c r="I44" s="3">
-        <v>0</v>
-      </c>
-      <c r="J44" s="3">
-        <v>0</v>
+        <v>200</v>
+      </c>
+      <c r="E44" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="F44" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="G44" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="H44" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="I44" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="J44" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="K44" s="3">
         <v>0</v>
@@ -2242,29 +2338,32 @@
       <c r="Q44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>600</v>
+      </c>
+      <c r="E45" s="3">
         <v>1100</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>300</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>400</v>
       </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3">
         <v>500</v>
       </c>
-      <c r="H45" s="3">
+      <c r="I45" s="3">
         <v>400</v>
       </c>
-      <c r="I45" s="3">
-        <v>0</v>
-      </c>
       <c r="J45" s="3">
         <v>0</v>
       </c>
@@ -2274,8 +2373,8 @@
       <c r="L45" s="3">
         <v>0</v>
       </c>
-      <c r="M45" s="3" t="s">
-        <v>3</v>
+      <c r="M45" s="3">
+        <v>0</v>
       </c>
       <c r="N45" s="3" t="s">
         <v>3</v>
@@ -2289,40 +2388,43 @@
       <c r="Q45" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="46" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R45" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="46" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>38100</v>
+      </c>
+      <c r="E46" s="3">
         <v>8700</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>12200</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>8900</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>11700</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>5300</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>100</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>200</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>1500</v>
       </c>
-      <c r="L46" s="3">
-        <v>0</v>
-      </c>
-      <c r="M46" s="3" t="s">
-        <v>3</v>
+      <c r="M46" s="3">
+        <v>0</v>
       </c>
       <c r="N46" s="3" t="s">
         <v>3</v>
@@ -2336,8 +2438,11 @@
       <c r="Q46" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="47" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R46" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="47" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -2383,8 +2488,11 @@
       <c r="Q47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
@@ -2395,10 +2503,10 @@
         <v>800</v>
       </c>
       <c r="F48" s="3">
+        <v>800</v>
+      </c>
+      <c r="G48" s="3">
         <v>900</v>
-      </c>
-      <c r="G48" s="3">
-        <v>1000</v>
       </c>
       <c r="H48" s="3">
         <v>1000</v>
@@ -2407,7 +2515,7 @@
         <v>1000</v>
       </c>
       <c r="J48" s="3">
-        <v>300</v>
+        <v>1000</v>
       </c>
       <c r="K48" s="3">
         <v>300</v>
@@ -2415,8 +2523,8 @@
       <c r="L48" s="3">
         <v>300</v>
       </c>
-      <c r="M48" s="3" t="s">
-        <v>3</v>
+      <c r="M48" s="3">
+        <v>300</v>
       </c>
       <c r="N48" s="3" t="s">
         <v>3</v>
@@ -2430,8 +2538,11 @@
       <c r="Q48" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="49" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R48" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="49" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -2462,8 +2573,8 @@
       <c r="L49" s="3">
         <v>100</v>
       </c>
-      <c r="M49" s="3" t="s">
-        <v>3</v>
+      <c r="M49" s="3">
+        <v>100</v>
       </c>
       <c r="N49" s="3" t="s">
         <v>3</v>
@@ -2477,8 +2588,11 @@
       <c r="Q49" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="50" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R49" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="50" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2524,8 +2638,11 @@
       <c r="Q50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2571,8 +2688,11 @@
       <c r="Q51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
@@ -2592,19 +2712,19 @@
         <v>0</v>
       </c>
       <c r="I52" s="3">
-        <v>300</v>
+        <v>0</v>
       </c>
       <c r="J52" s="3">
         <v>300</v>
       </c>
       <c r="K52" s="3">
+        <v>300</v>
+      </c>
+      <c r="L52" s="3">
         <v>100</v>
       </c>
-      <c r="L52" s="3">
-        <v>0</v>
-      </c>
-      <c r="M52" s="3" t="s">
-        <v>3</v>
+      <c r="M52" s="3">
+        <v>0</v>
       </c>
       <c r="N52" s="3" t="s">
         <v>3</v>
@@ -2618,8 +2738,11 @@
       <c r="Q52" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="53" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R52" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="53" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2665,41 +2788,44 @@
       <c r="Q53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>39100</v>
+      </c>
+      <c r="E54" s="3">
         <v>9600</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>13100</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>9900</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>12800</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>6400</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>1500</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>900</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>2000</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>400</v>
       </c>
-      <c r="M54" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N54" s="3" t="s">
         <v>3</v>
       </c>
@@ -2712,8 +2838,11 @@
       <c r="Q54" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="55" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R54" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="55" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2731,8 +2860,9 @@
       <c r="O55" s="3"/>
       <c r="P55" s="3"/>
       <c r="Q55" s="3"/>
-    </row>
-    <row r="56" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R55" s="3"/>
+    </row>
+    <row r="56" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2750,41 +2880,42 @@
       <c r="O56" s="3"/>
       <c r="P56" s="3"/>
       <c r="Q56" s="3"/>
-    </row>
-    <row r="57" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R56" s="3"/>
+    </row>
+    <row r="57" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>800</v>
+      </c>
+      <c r="E57" s="3">
         <v>1000</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>1300</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>900</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>400</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>500</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>2700</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>1800</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>1100</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>900</v>
       </c>
-      <c r="M57" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N57" s="3" t="s">
         <v>3</v>
       </c>
@@ -2797,16 +2928,19 @@
       <c r="Q57" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="58" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R57" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="58" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="E58" s="3">
-        <v>0</v>
+      <c r="E58" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="F58" s="3">
         <v>0</v>
@@ -2818,20 +2952,20 @@
         <v>0</v>
       </c>
       <c r="I58" s="3">
+        <v>0</v>
+      </c>
+      <c r="J58" s="3">
         <v>10600</v>
-      </c>
-      <c r="J58" s="3">
-        <v>10200</v>
       </c>
       <c r="K58" s="3">
         <v>10200</v>
       </c>
       <c r="L58" s="3">
+        <v>10200</v>
+      </c>
+      <c r="M58" s="3">
         <v>6900</v>
       </c>
-      <c r="M58" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N58" s="3" t="s">
         <v>3</v>
       </c>
@@ -2844,8 +2978,11 @@
       <c r="Q58" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="59" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R58" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="59" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
@@ -2853,32 +2990,32 @@
         <v>900</v>
       </c>
       <c r="E59" s="3">
+        <v>900</v>
+      </c>
+      <c r="F59" s="3">
         <v>1500</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>1800</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>1600</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>1400</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>7800</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>6500</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>5300</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>4600</v>
       </c>
-      <c r="M59" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N59" s="3" t="s">
         <v>3</v>
       </c>
@@ -2891,41 +3028,44 @@
       <c r="Q59" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="60" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R59" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="60" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>1700</v>
+      </c>
+      <c r="E60" s="3">
         <v>1800</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>2900</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>2700</v>
-      </c>
-      <c r="G60" s="3">
-        <v>2000</v>
       </c>
       <c r="H60" s="3">
         <v>2000</v>
       </c>
       <c r="I60" s="3">
+        <v>2000</v>
+      </c>
+      <c r="J60" s="3">
         <v>21100</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>18400</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>16600</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>12400</v>
       </c>
-      <c r="M60" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N60" s="3" t="s">
         <v>3</v>
       </c>
@@ -2938,8 +3078,11 @@
       <c r="Q60" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="61" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R60" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="61" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -2985,8 +3128,11 @@
       <c r="Q61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
@@ -3017,8 +3163,8 @@
       <c r="L62" s="3">
         <v>0</v>
       </c>
-      <c r="M62" s="3" t="s">
-        <v>3</v>
+      <c r="M62" s="3">
+        <v>0</v>
       </c>
       <c r="N62" s="3" t="s">
         <v>3</v>
@@ -3032,8 +3178,11 @@
       <c r="Q62" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="63" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R62" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="63" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3079,8 +3228,11 @@
       <c r="Q63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -3126,8 +3278,11 @@
       <c r="Q64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3173,41 +3328,44 @@
       <c r="Q65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>1700</v>
+      </c>
+      <c r="E66" s="3">
         <v>1900</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>2900</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>2700</v>
-      </c>
-      <c r="G66" s="3">
-        <v>2000</v>
       </c>
       <c r="H66" s="3">
         <v>2000</v>
       </c>
       <c r="I66" s="3">
+        <v>2000</v>
+      </c>
+      <c r="J66" s="3">
         <v>21100</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>18500</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>16600</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>12500</v>
       </c>
-      <c r="M66" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N66" s="3" t="s">
         <v>3</v>
       </c>
@@ -3220,8 +3378,11 @@
       <c r="Q66" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="67" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R66" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="67" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3239,8 +3400,9 @@
       <c r="O67" s="3"/>
       <c r="P67" s="3"/>
       <c r="Q67" s="3"/>
-    </row>
-    <row r="68" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R67" s="3"/>
+    </row>
+    <row r="68" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3286,8 +3448,11 @@
       <c r="Q68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -3333,8 +3498,11 @@
       <c r="Q69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3380,8 +3548,11 @@
       <c r="Q70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3427,41 +3598,44 @@
       <c r="Q71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-62500</v>
+      </c>
+      <c r="E72" s="3">
         <v>-59300</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>-56000</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>-52800</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>-48500</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>-45500</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>-42100</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>-39400</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>-36100</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>-33200</v>
       </c>
-      <c r="M72" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N72" s="3" t="s">
         <v>3</v>
       </c>
@@ -3474,8 +3648,11 @@
       <c r="Q72" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="73" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R72" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="73" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -3521,8 +3698,11 @@
       <c r="Q73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3568,8 +3748,11 @@
       <c r="Q74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3615,41 +3798,44 @@
       <c r="Q75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>37400</v>
+      </c>
+      <c r="E76" s="3">
         <v>7700</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>10300</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>7200</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>10800</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>4400</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>-19600</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>-17600</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>-14600</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>-12000</v>
       </c>
-      <c r="M76" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N76" s="3" t="s">
         <v>3</v>
       </c>
@@ -3662,8 +3848,11 @@
       <c r="Q76" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="77" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R76" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="77" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -3709,107 +3898,116 @@
       <c r="Q77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44012</v>
+      </c>
+      <c r="E80" s="2">
         <v>43921</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>43830</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>43738</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>43646</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>43555</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>43465</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43373</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43281</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43190</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43100</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43008</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>42916</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>42825</v>
       </c>
-      <c r="Q80" s="2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="81" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R80" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="81" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>-3300</v>
+        <v>-3100</v>
       </c>
       <c r="E81" s="3">
         <v>-3300</v>
       </c>
       <c r="F81" s="3">
+        <v>-3300</v>
+      </c>
+      <c r="G81" s="3">
         <v>-4300</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>-3000</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>-3400</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>-2700</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>-3300</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>-2900</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>-1700</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>-7500</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>-1900</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>-2800</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>-2000</v>
       </c>
-      <c r="Q81" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="82" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R81" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="82" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -3827,8 +4025,9 @@
       <c r="O82" s="3"/>
       <c r="P82" s="3"/>
       <c r="Q82" s="3"/>
-    </row>
-    <row r="83" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R82" s="3"/>
+    </row>
+    <row r="83" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -3842,7 +4041,7 @@
         <v>100</v>
       </c>
       <c r="G83" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="H83" s="3">
         <v>0</v>
@@ -3860,22 +4059,25 @@
         <v>0</v>
       </c>
       <c r="M83" s="3">
+        <v>0</v>
+      </c>
+      <c r="N83" s="3">
         <v>100</v>
       </c>
-      <c r="N83" s="3">
-        <v>0</v>
-      </c>
       <c r="O83" s="3">
         <v>0</v>
       </c>
       <c r="P83" s="3">
         <v>0</v>
       </c>
-      <c r="Q83" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="84" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="Q83" s="3">
+        <v>0</v>
+      </c>
+      <c r="R83" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="84" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -3921,8 +4123,11 @@
       <c r="Q84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -3968,8 +4173,11 @@
       <c r="Q85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -4015,8 +4223,11 @@
       <c r="Q86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -4062,8 +4273,11 @@
       <c r="Q87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -4109,55 +4323,61 @@
       <c r="Q88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>-2200</v>
+      </c>
+      <c r="E89" s="3">
         <v>-4300</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>-1600</v>
       </c>
-      <c r="F89" s="3">
-        <v>-2700</v>
-      </c>
       <c r="G89" s="3">
-        <v>-3100</v>
+        <v>-3500</v>
       </c>
       <c r="H89" s="3">
+        <v>-2300</v>
+      </c>
+      <c r="I89" s="3">
         <v>-3300</v>
-      </c>
-      <c r="I89" s="3">
-        <v>-900</v>
       </c>
       <c r="J89" s="3">
         <v>-900</v>
       </c>
       <c r="K89" s="3">
+        <v>-900</v>
+      </c>
+      <c r="L89" s="3">
         <v>-1900</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>-900</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>-6100</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>-1400</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>-2200</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>-1200</v>
       </c>
-      <c r="Q89" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="90" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R89" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="90" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -4175,20 +4395,21 @@
       <c r="O90" s="3"/>
       <c r="P90" s="3"/>
       <c r="Q90" s="3"/>
-    </row>
-    <row r="91" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R90" s="3"/>
+    </row>
+    <row r="91" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="E91" s="3">
+        <v>0</v>
+      </c>
+      <c r="F91" s="3">
         <v>-800</v>
       </c>
-      <c r="F91" s="3">
-        <v>0</v>
-      </c>
       <c r="G91" s="3">
         <v>0</v>
       </c>
@@ -4201,14 +4422,14 @@
       <c r="J91" s="3">
         <v>0</v>
       </c>
-      <c r="K91" s="3" t="s">
-        <v>3</v>
+      <c r="K91" s="3">
+        <v>0</v>
       </c>
       <c r="L91" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="M91" s="3">
-        <v>0</v>
+      <c r="M91" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="N91" s="3">
         <v>0</v>
@@ -4219,11 +4440,14 @@
       <c r="P91" s="3">
         <v>0</v>
       </c>
-      <c r="Q91" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="92" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="Q91" s="3">
+        <v>0</v>
+      </c>
+      <c r="R91" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="92" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -4269,8 +4493,11 @@
       <c r="Q92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -4316,20 +4543,23 @@
       <c r="Q93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="E94" s="3">
+        <v>0</v>
+      </c>
+      <c r="F94" s="3">
         <v>-800</v>
       </c>
-      <c r="F94" s="3">
-        <v>0</v>
-      </c>
       <c r="G94" s="3">
         <v>0</v>
       </c>
@@ -4349,22 +4579,25 @@
         <v>0</v>
       </c>
       <c r="M94" s="3">
+        <v>0</v>
+      </c>
+      <c r="N94" s="3">
         <v>-100</v>
       </c>
-      <c r="N94" s="3">
-        <v>0</v>
-      </c>
       <c r="O94" s="3">
+        <v>0</v>
+      </c>
+      <c r="P94" s="3">
         <v>-100</v>
       </c>
-      <c r="P94" s="3">
-        <v>0</v>
-      </c>
-      <c r="Q94" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="95" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="Q94" s="3">
+        <v>0</v>
+      </c>
+      <c r="R94" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="95" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -4382,8 +4615,9 @@
       <c r="O95" s="3"/>
       <c r="P95" s="3"/>
       <c r="Q95" s="3"/>
-    </row>
-    <row r="96" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R95" s="3"/>
+    </row>
+    <row r="96" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -4429,8 +4663,11 @@
       <c r="Q96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -4476,8 +4713,11 @@
       <c r="Q97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -4523,8 +4763,11 @@
       <c r="Q98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -4570,55 +4813,61 @@
       <c r="Q99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>0</v>
+        <v>32000</v>
       </c>
       <c r="E100" s="3">
+        <v>0</v>
+      </c>
+      <c r="F100" s="3">
         <v>5700</v>
       </c>
-      <c r="F100" s="3">
-        <v>0</v>
-      </c>
       <c r="G100" s="3">
+        <v>0</v>
+      </c>
+      <c r="H100" s="3">
         <v>8600</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>9000</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>800</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>-300</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>3300</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>900</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>6000</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>700</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>2300</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>2000</v>
       </c>
-      <c r="Q100" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="101" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R100" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="101" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -4664,51 +4913,57 @@
       <c r="Q101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>29800</v>
+      </c>
+      <c r="E102" s="3">
         <v>-4300</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>3400</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>-2700</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>6300</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>4900</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>-100</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>-1200</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>1400</v>
       </c>
-      <c r="L102" s="3">
-        <v>0</v>
-      </c>
       <c r="M102" s="3">
+        <v>0</v>
+      </c>
+      <c r="N102" s="3">
         <v>-100</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>-700</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>100</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>800</v>
       </c>
-      <c r="Q102" s="3" t="s">
+      <c r="R102" s="3" t="s">
         <v>3</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/SOLY_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/SOLY_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="251" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="250" uniqueCount="92">
   <si>
     <t>SOLY</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:R102"/>
+  <dimension ref="A5:S102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,82 +665,86 @@
     <col min="1" max="1" width="7.42578125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="16" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:19" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44104</v>
+      </c>
+      <c r="E7" s="2">
         <v>44012</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>43921</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>43830</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>43738</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>43646</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>43555</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43465</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43373</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43281</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43190</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43100</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43008</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>42916</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>42825</v>
       </c>
-      <c r="R7" s="2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="8" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S7" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>4</v>
       </c>
@@ -789,8 +793,11 @@
       <c r="R8" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S8" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
@@ -839,8 +846,11 @@
       <c r="R9" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="10" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S9" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
@@ -889,8 +899,11 @@
       <c r="R10" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="11" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S10" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -909,8 +922,9 @@
       <c r="P11" s="3"/>
       <c r="Q11" s="3"/>
       <c r="R11" s="3"/>
-    </row>
-    <row r="12" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S11" s="3"/>
+    </row>
+    <row r="12" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
@@ -918,49 +932,52 @@
         <v>1300</v>
       </c>
       <c r="E12" s="3">
+        <v>1300</v>
+      </c>
+      <c r="F12" s="3">
         <v>1200</v>
       </c>
-      <c r="F12" s="3">
+      <c r="G12" s="3">
         <v>1400</v>
       </c>
-      <c r="G12" s="3">
+      <c r="H12" s="3">
         <v>2400</v>
       </c>
-      <c r="H12" s="3">
+      <c r="I12" s="3">
         <v>800</v>
       </c>
-      <c r="I12" s="3">
+      <c r="J12" s="3">
         <v>400</v>
       </c>
-      <c r="J12" s="3">
+      <c r="K12" s="3">
         <v>900</v>
       </c>
-      <c r="K12" s="3">
+      <c r="L12" s="3">
         <v>1700</v>
       </c>
-      <c r="L12" s="3">
+      <c r="M12" s="3">
         <v>1400</v>
       </c>
-      <c r="M12" s="3">
+      <c r="N12" s="3">
         <v>700</v>
       </c>
-      <c r="N12" s="3">
+      <c r="O12" s="3">
         <v>4000</v>
       </c>
-      <c r="O12" s="3">
+      <c r="P12" s="3">
         <v>700</v>
       </c>
-      <c r="P12" s="3">
+      <c r="Q12" s="3">
         <v>1300</v>
       </c>
-      <c r="Q12" s="3">
+      <c r="R12" s="3">
         <v>1200</v>
       </c>
-      <c r="R12" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="13" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S12" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1009,8 +1026,11 @@
       <c r="R13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -1059,8 +1079,11 @@
       <c r="R14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1077,7 +1100,7 @@
         <v>100</v>
       </c>
       <c r="H15" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="I15" s="3">
         <v>0</v>
@@ -1095,22 +1118,25 @@
         <v>0</v>
       </c>
       <c r="N15" s="3">
+        <v>0</v>
+      </c>
+      <c r="O15" s="3">
         <v>100</v>
       </c>
-      <c r="O15" s="3">
-        <v>0</v>
-      </c>
       <c r="P15" s="3">
         <v>0</v>
       </c>
       <c r="Q15" s="3">
         <v>0</v>
       </c>
-      <c r="R15" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="16" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="R15" s="3">
+        <v>0</v>
+      </c>
+      <c r="S15" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="16" spans="1:19" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1126,58 +1152,62 @@
       <c r="P16" s="3"/>
       <c r="Q16" s="3"/>
       <c r="R16" s="3"/>
-    </row>
-    <row r="17" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S16" s="3"/>
+    </row>
+    <row r="17" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>3700</v>
+      </c>
+      <c r="E17" s="3">
         <v>3100</v>
-      </c>
-      <c r="E17" s="3">
-        <v>3300</v>
       </c>
       <c r="F17" s="3">
         <v>3300</v>
       </c>
       <c r="G17" s="3">
+        <v>3300</v>
+      </c>
+      <c r="H17" s="3">
         <v>4300</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>3000</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>2400</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>2100</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>2700</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>2300</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>1200</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>7200</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>1500</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>2100</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>1900</v>
       </c>
-      <c r="R17" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="18" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S17" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="18" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
@@ -1185,49 +1215,52 @@
         <v>3</v>
       </c>
       <c r="E18" s="3">
-        <v>-3300</v>
+        <v>-3100</v>
       </c>
       <c r="F18" s="3">
         <v>-3300</v>
       </c>
       <c r="G18" s="3">
+        <v>-3300</v>
+      </c>
+      <c r="H18" s="3">
         <v>-4300</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>-3000</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>-2400</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>-2100</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>-2700</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>-2300</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>-1200</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>-7200</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>-1500</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>-2100</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>-1900</v>
       </c>
-      <c r="R18" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="19" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S18" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="19" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1246,8 +1279,9 @@
       <c r="P19" s="3"/>
       <c r="Q19" s="3"/>
       <c r="R19" s="3"/>
-    </row>
-    <row r="20" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S19" s="3"/>
+    </row>
+    <row r="20" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
@@ -1293,11 +1327,14 @@
       <c r="Q20" s="3">
         <v>0</v>
       </c>
-      <c r="R20" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="21" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="R20" s="3">
+        <v>0</v>
+      </c>
+      <c r="S20" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="21" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
@@ -1305,49 +1342,52 @@
         <v>3</v>
       </c>
       <c r="E21" s="3">
-        <v>-3200</v>
+        <v>-3100</v>
       </c>
       <c r="F21" s="3">
         <v>-3200</v>
       </c>
       <c r="G21" s="3">
+        <v>-3200</v>
+      </c>
+      <c r="H21" s="3">
         <v>-4200</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>-2900</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>-2400</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>-2000</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>-2600</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>-2300</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>-1200</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>-7100</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>-1500</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>-2100</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>-1900</v>
       </c>
-      <c r="R21" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="22" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S21" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="22" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1367,87 +1407,93 @@
         <v>0</v>
       </c>
       <c r="I22" s="3">
+        <v>0</v>
+      </c>
+      <c r="J22" s="3">
         <v>800</v>
       </c>
-      <c r="J22" s="3">
+      <c r="K22" s="3">
         <v>400</v>
-      </c>
-      <c r="K22" s="3">
-        <v>300</v>
       </c>
       <c r="L22" s="3">
         <v>300</v>
       </c>
       <c r="M22" s="3">
+        <v>300</v>
+      </c>
+      <c r="N22" s="3">
         <v>200</v>
       </c>
-      <c r="N22" s="3">
+      <c r="O22" s="3">
         <v>300</v>
-      </c>
-      <c r="O22" s="3">
-        <v>100</v>
       </c>
       <c r="P22" s="3">
         <v>100</v>
       </c>
       <c r="Q22" s="3">
-        <v>0</v>
-      </c>
-      <c r="R22" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="23" spans="3:18" x14ac:dyDescent="0.2">
+        <v>100</v>
+      </c>
+      <c r="R22" s="3">
+        <v>0</v>
+      </c>
+      <c r="S22" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="23" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>-3600</v>
+      </c>
+      <c r="E23" s="3">
         <v>-3100</v>
-      </c>
-      <c r="E23" s="3">
-        <v>-3300</v>
       </c>
       <c r="F23" s="3">
         <v>-3300</v>
       </c>
       <c r="G23" s="3">
+        <v>-3300</v>
+      </c>
+      <c r="H23" s="3">
         <v>-4300</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>-3000</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>-3200</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>-2400</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>-3000</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>-2600</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>-1400</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>-7500</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>-1600</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>-2200</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>-2000</v>
       </c>
-      <c r="R23" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="24" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S23" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="24" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -1493,11 +1539,14 @@
       <c r="Q24" s="3">
         <v>0</v>
       </c>
-      <c r="R24" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="25" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="R24" s="3">
+        <v>0</v>
+      </c>
+      <c r="S24" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="25" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1546,108 +1595,117 @@
       <c r="R25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>-3600</v>
+      </c>
+      <c r="E26" s="3">
         <v>-3100</v>
-      </c>
-      <c r="E26" s="3">
-        <v>-3300</v>
       </c>
       <c r="F26" s="3">
         <v>-3300</v>
       </c>
       <c r="G26" s="3">
+        <v>-3300</v>
+      </c>
+      <c r="H26" s="3">
         <v>-4300</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>-3000</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>-3200</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>-2400</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>-3000</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>-2600</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>-1400</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>-7500</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>-1600</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>-2200</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>-2000</v>
       </c>
-      <c r="R26" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="27" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S26" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="27" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>-3600</v>
+      </c>
+      <c r="E27" s="3">
         <v>-3100</v>
-      </c>
-      <c r="E27" s="3">
-        <v>-3300</v>
       </c>
       <c r="F27" s="3">
         <v>-3300</v>
       </c>
       <c r="G27" s="3">
+        <v>-3300</v>
+      </c>
+      <c r="H27" s="3">
         <v>-4300</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>-3000</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>-3400</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>-2700</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>-3300</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>-2900</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>-1700</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>-7500</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>-1900</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>-2800</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>-2000</v>
       </c>
-      <c r="R27" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="28" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S27" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="28" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1696,8 +1754,11 @@
       <c r="R28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1746,8 +1807,11 @@
       <c r="R29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1796,8 +1860,11 @@
       <c r="R30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1846,8 +1913,11 @@
       <c r="R31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
@@ -1893,61 +1963,67 @@
       <c r="Q32" s="3">
         <v>0</v>
       </c>
-      <c r="R32" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="33" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="R32" s="3">
+        <v>0</v>
+      </c>
+      <c r="S32" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="33" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>-3600</v>
+      </c>
+      <c r="E33" s="3">
         <v>-3100</v>
-      </c>
-      <c r="E33" s="3">
-        <v>-3300</v>
       </c>
       <c r="F33" s="3">
         <v>-3300</v>
       </c>
       <c r="G33" s="3">
+        <v>-3300</v>
+      </c>
+      <c r="H33" s="3">
         <v>-4300</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>-3000</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>-3400</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>-2700</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>-3300</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>-2900</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>-1700</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>-7500</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>-1900</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>-2800</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>-2000</v>
       </c>
-      <c r="R33" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="34" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S33" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="34" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1996,113 +2072,122 @@
       <c r="R34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>-3600</v>
+      </c>
+      <c r="E35" s="3">
         <v>-3100</v>
-      </c>
-      <c r="E35" s="3">
-        <v>-3300</v>
       </c>
       <c r="F35" s="3">
         <v>-3300</v>
       </c>
       <c r="G35" s="3">
+        <v>-3300</v>
+      </c>
+      <c r="H35" s="3">
         <v>-4300</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>-3000</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>-3400</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>-2700</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>-3300</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>-2900</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>-1700</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>-7500</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>-1900</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>-2800</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>-2000</v>
       </c>
-      <c r="R35" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="37" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S35" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="37" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44104</v>
+      </c>
+      <c r="E38" s="2">
         <v>44012</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>43921</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>43830</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>43738</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>43646</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>43555</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43465</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43373</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43281</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43190</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43100</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43008</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>42916</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>42825</v>
       </c>
-      <c r="R38" s="2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="39" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S38" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="39" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2121,8 +2206,9 @@
       <c r="P39" s="3"/>
       <c r="Q39" s="3"/>
       <c r="R39" s="3"/>
-    </row>
-    <row r="40" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S39" s="3"/>
+    </row>
+    <row r="40" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2141,43 +2227,44 @@
       <c r="P40" s="3"/>
       <c r="Q40" s="3"/>
       <c r="R40" s="3"/>
-    </row>
-    <row r="41" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S40" s="3"/>
+    </row>
+    <row r="41" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>34600</v>
+      </c>
+      <c r="E41" s="3">
         <v>37300</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>7500</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>11900</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>8500</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>11200</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>4900</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>100</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>200</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>1400</v>
       </c>
-      <c r="M41" s="3">
-        <v>0</v>
-      </c>
-      <c r="N41" s="3" t="s">
-        <v>3</v>
+      <c r="N41" s="3">
+        <v>0</v>
       </c>
       <c r="O41" s="3" t="s">
         <v>3</v>
@@ -2191,8 +2278,11 @@
       <c r="R41" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="42" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S41" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="42" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2241,34 +2331,37 @@
       <c r="R42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="D43" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="E43" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="F43" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="G43" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="H43" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="I43" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="J43" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="K43" s="3">
-        <v>0</v>
+      <c r="D43" s="3">
+        <v>0</v>
+      </c>
+      <c r="E43" s="3">
+        <v>0</v>
+      </c>
+      <c r="F43" s="3">
+        <v>0</v>
+      </c>
+      <c r="G43" s="3">
+        <v>0</v>
+      </c>
+      <c r="H43" s="3">
+        <v>0</v>
+      </c>
+      <c r="I43" s="3">
+        <v>0</v>
+      </c>
+      <c r="J43" s="3">
+        <v>0</v>
+      </c>
+      <c r="K43" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="L43" s="3">
         <v>0</v>
@@ -2276,8 +2369,8 @@
       <c r="M43" s="3">
         <v>0</v>
       </c>
-      <c r="N43" s="3" t="s">
-        <v>3</v>
+      <c r="N43" s="3">
+        <v>0</v>
       </c>
       <c r="O43" s="3" t="s">
         <v>3</v>
@@ -2291,17 +2384,20 @@
       <c r="R43" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="44" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S43" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="44" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
+        <v>300</v>
+      </c>
+      <c r="E44" s="3">
         <v>200</v>
       </c>
-      <c r="E44" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="F44" s="3" t="s">
         <v>3</v>
       </c>
@@ -2317,8 +2413,8 @@
       <c r="J44" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K44" s="3">
-        <v>0</v>
+      <c r="K44" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="L44" s="3">
         <v>0</v>
@@ -2341,32 +2437,35 @@
       <c r="R44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>500</v>
+      </c>
+      <c r="E45" s="3">
         <v>600</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>1100</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>300</v>
       </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3">
         <v>400</v>
       </c>
-      <c r="H45" s="3">
+      <c r="I45" s="3">
         <v>500</v>
       </c>
-      <c r="I45" s="3">
+      <c r="J45" s="3">
         <v>400</v>
       </c>
-      <c r="J45" s="3">
-        <v>0</v>
-      </c>
       <c r="K45" s="3">
         <v>0</v>
       </c>
@@ -2376,8 +2475,8 @@
       <c r="M45" s="3">
         <v>0</v>
       </c>
-      <c r="N45" s="3" t="s">
-        <v>3</v>
+      <c r="N45" s="3">
+        <v>0</v>
       </c>
       <c r="O45" s="3" t="s">
         <v>3</v>
@@ -2391,43 +2490,46 @@
       <c r="R45" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="46" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S45" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="46" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>35400</v>
+      </c>
+      <c r="E46" s="3">
         <v>38100</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>8700</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>12200</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>8900</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>11700</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>5300</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>100</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>200</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>1500</v>
       </c>
-      <c r="M46" s="3">
-        <v>0</v>
-      </c>
-      <c r="N46" s="3" t="s">
-        <v>3</v>
+      <c r="N46" s="3">
+        <v>0</v>
       </c>
       <c r="O46" s="3" t="s">
         <v>3</v>
@@ -2441,8 +2543,11 @@
       <c r="R46" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="47" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S46" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="47" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -2491,13 +2596,16 @@
       <c r="R47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>800</v>
+        <v>1300</v>
       </c>
       <c r="E48" s="3">
         <v>800</v>
@@ -2506,10 +2614,10 @@
         <v>800</v>
       </c>
       <c r="G48" s="3">
+        <v>800</v>
+      </c>
+      <c r="H48" s="3">
         <v>900</v>
-      </c>
-      <c r="H48" s="3">
-        <v>1000</v>
       </c>
       <c r="I48" s="3">
         <v>1000</v>
@@ -2518,7 +2626,7 @@
         <v>1000</v>
       </c>
       <c r="K48" s="3">
-        <v>300</v>
+        <v>1000</v>
       </c>
       <c r="L48" s="3">
         <v>300</v>
@@ -2526,8 +2634,8 @@
       <c r="M48" s="3">
         <v>300</v>
       </c>
-      <c r="N48" s="3" t="s">
-        <v>3</v>
+      <c r="N48" s="3">
+        <v>300</v>
       </c>
       <c r="O48" s="3" t="s">
         <v>3</v>
@@ -2541,8 +2649,11 @@
       <c r="R48" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="49" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S48" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="49" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -2576,8 +2687,8 @@
       <c r="M49" s="3">
         <v>100</v>
       </c>
-      <c r="N49" s="3" t="s">
-        <v>3</v>
+      <c r="N49" s="3">
+        <v>100</v>
       </c>
       <c r="O49" s="3" t="s">
         <v>3</v>
@@ -2591,8 +2702,11 @@
       <c r="R49" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="50" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S49" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="50" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2641,8 +2755,11 @@
       <c r="R50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2691,13 +2808,16 @@
       <c r="R51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="D52" s="3">
-        <v>0</v>
+      <c r="D52" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="E52" s="3">
         <v>0</v>
@@ -2715,19 +2835,19 @@
         <v>0</v>
       </c>
       <c r="J52" s="3">
-        <v>300</v>
+        <v>0</v>
       </c>
       <c r="K52" s="3">
         <v>300</v>
       </c>
       <c r="L52" s="3">
+        <v>300</v>
+      </c>
+      <c r="M52" s="3">
         <v>100</v>
       </c>
-      <c r="M52" s="3">
-        <v>0</v>
-      </c>
-      <c r="N52" s="3" t="s">
-        <v>3</v>
+      <c r="N52" s="3">
+        <v>0</v>
       </c>
       <c r="O52" s="3" t="s">
         <v>3</v>
@@ -2741,8 +2861,11 @@
       <c r="R52" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="53" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S52" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="53" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2791,44 +2914,47 @@
       <c r="R53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>36900</v>
+      </c>
+      <c r="E54" s="3">
         <v>39100</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>9600</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>13100</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>9900</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>12800</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>6400</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>1500</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>900</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>2000</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>400</v>
       </c>
-      <c r="N54" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O54" s="3" t="s">
         <v>3</v>
       </c>
@@ -2841,8 +2967,11 @@
       <c r="R54" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="55" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S54" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="55" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2861,8 +2990,9 @@
       <c r="P55" s="3"/>
       <c r="Q55" s="3"/>
       <c r="R55" s="3"/>
-    </row>
-    <row r="56" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S55" s="3"/>
+    </row>
+    <row r="56" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2881,44 +3011,45 @@
       <c r="P56" s="3"/>
       <c r="Q56" s="3"/>
       <c r="R56" s="3"/>
-    </row>
-    <row r="57" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S56" s="3"/>
+    </row>
+    <row r="57" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>700</v>
+      </c>
+      <c r="E57" s="3">
         <v>800</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>1000</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>1300</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>900</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>400</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>500</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>2700</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>1800</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>1100</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>900</v>
       </c>
-      <c r="N57" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O57" s="3" t="s">
         <v>3</v>
       </c>
@@ -2931,8 +3062,11 @@
       <c r="R57" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="58" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S57" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="58" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -2942,8 +3076,8 @@
       <c r="E58" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="F58" s="3">
-        <v>0</v>
+      <c r="F58" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="G58" s="3">
         <v>0</v>
@@ -2955,20 +3089,20 @@
         <v>0</v>
       </c>
       <c r="J58" s="3">
+        <v>0</v>
+      </c>
+      <c r="K58" s="3">
         <v>10600</v>
-      </c>
-      <c r="K58" s="3">
-        <v>10200</v>
       </c>
       <c r="L58" s="3">
         <v>10200</v>
       </c>
       <c r="M58" s="3">
+        <v>10200</v>
+      </c>
+      <c r="N58" s="3">
         <v>6900</v>
       </c>
-      <c r="N58" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O58" s="3" t="s">
         <v>3</v>
       </c>
@@ -2981,44 +3115,47 @@
       <c r="R58" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="59" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S58" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="59" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>900</v>
+        <v>1700</v>
       </c>
       <c r="E59" s="3">
         <v>900</v>
       </c>
       <c r="F59" s="3">
+        <v>900</v>
+      </c>
+      <c r="G59" s="3">
         <v>1500</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>1800</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>1600</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>1400</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>7800</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>6500</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>5300</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>4600</v>
       </c>
-      <c r="N59" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O59" s="3" t="s">
         <v>3</v>
       </c>
@@ -3031,44 +3168,47 @@
       <c r="R59" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="60" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S59" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="60" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>2300</v>
+      </c>
+      <c r="E60" s="3">
         <v>1700</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>1800</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>2900</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>2700</v>
-      </c>
-      <c r="H60" s="3">
-        <v>2000</v>
       </c>
       <c r="I60" s="3">
         <v>2000</v>
       </c>
       <c r="J60" s="3">
+        <v>2000</v>
+      </c>
+      <c r="K60" s="3">
         <v>21100</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>18400</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>16600</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>12400</v>
       </c>
-      <c r="N60" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O60" s="3" t="s">
         <v>3</v>
       </c>
@@ -3081,8 +3221,11 @@
       <c r="R60" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="61" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S60" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="61" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -3131,13 +3274,16 @@
       <c r="R61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="D62" s="3">
-        <v>0</v>
+      <c r="D62" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="E62" s="3">
         <v>0</v>
@@ -3166,8 +3312,8 @@
       <c r="M62" s="3">
         <v>0</v>
       </c>
-      <c r="N62" s="3" t="s">
-        <v>3</v>
+      <c r="N62" s="3">
+        <v>0</v>
       </c>
       <c r="O62" s="3" t="s">
         <v>3</v>
@@ -3181,8 +3327,11 @@
       <c r="R62" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="63" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S62" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="63" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3231,8 +3380,11 @@
       <c r="R63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -3281,8 +3433,11 @@
       <c r="R64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3331,44 +3486,47 @@
       <c r="R65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>2300</v>
+      </c>
+      <c r="E66" s="3">
         <v>1700</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>1900</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>2900</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>2700</v>
-      </c>
-      <c r="H66" s="3">
-        <v>2000</v>
       </c>
       <c r="I66" s="3">
         <v>2000</v>
       </c>
       <c r="J66" s="3">
+        <v>2000</v>
+      </c>
+      <c r="K66" s="3">
         <v>21100</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>18500</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>16600</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>12500</v>
       </c>
-      <c r="N66" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O66" s="3" t="s">
         <v>3</v>
       </c>
@@ -3381,8 +3539,11 @@
       <c r="R66" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="67" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S66" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="67" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3401,8 +3562,9 @@
       <c r="P67" s="3"/>
       <c r="Q67" s="3"/>
       <c r="R67" s="3"/>
-    </row>
-    <row r="68" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S67" s="3"/>
+    </row>
+    <row r="68" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3451,8 +3613,11 @@
       <c r="R68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -3501,8 +3666,11 @@
       <c r="R69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3551,8 +3719,11 @@
       <c r="R70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3601,44 +3772,47 @@
       <c r="R71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-66000</v>
+      </c>
+      <c r="E72" s="3">
         <v>-62500</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>-59300</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>-56000</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>-52800</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>-48500</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>-45500</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>-42100</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>-39400</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>-36100</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>-33200</v>
       </c>
-      <c r="N72" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O72" s="3" t="s">
         <v>3</v>
       </c>
@@ -3651,8 +3825,11 @@
       <c r="R72" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="73" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S72" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="73" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -3701,8 +3878,11 @@
       <c r="R73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3751,8 +3931,11 @@
       <c r="R74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3801,44 +3984,47 @@
       <c r="R75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>34500</v>
+      </c>
+      <c r="E76" s="3">
         <v>37400</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>7700</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>10300</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>7200</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>10800</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>4400</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>-19600</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>-17600</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>-14600</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>-12000</v>
       </c>
-      <c r="N76" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O76" s="3" t="s">
         <v>3</v>
       </c>
@@ -3851,8 +4037,11 @@
       <c r="R76" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="77" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S76" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="77" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -3901,113 +4090,122 @@
       <c r="R77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44104</v>
+      </c>
+      <c r="E80" s="2">
         <v>44012</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>43921</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>43830</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>43738</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>43646</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>43555</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43465</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43373</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43281</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43190</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43100</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43008</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>42916</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>42825</v>
       </c>
-      <c r="R80" s="2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="81" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S80" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="81" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>-3600</v>
+      </c>
+      <c r="E81" s="3">
         <v>-3100</v>
-      </c>
-      <c r="E81" s="3">
-        <v>-3300</v>
       </c>
       <c r="F81" s="3">
         <v>-3300</v>
       </c>
       <c r="G81" s="3">
+        <v>-3300</v>
+      </c>
+      <c r="H81" s="3">
         <v>-4300</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>-3000</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>-3400</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>-2700</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>-3300</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>-2900</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>-1700</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>-7500</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>-1900</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>-2800</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>-2000</v>
       </c>
-      <c r="R81" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="82" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S81" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="82" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -4026,8 +4224,9 @@
       <c r="P82" s="3"/>
       <c r="Q82" s="3"/>
       <c r="R82" s="3"/>
-    </row>
-    <row r="83" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S82" s="3"/>
+    </row>
+    <row r="83" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -4044,7 +4243,7 @@
         <v>100</v>
       </c>
       <c r="H83" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="I83" s="3">
         <v>0</v>
@@ -4062,22 +4261,25 @@
         <v>0</v>
       </c>
       <c r="N83" s="3">
+        <v>0</v>
+      </c>
+      <c r="O83" s="3">
         <v>100</v>
       </c>
-      <c r="O83" s="3">
-        <v>0</v>
-      </c>
       <c r="P83" s="3">
         <v>0</v>
       </c>
       <c r="Q83" s="3">
         <v>0</v>
       </c>
-      <c r="R83" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="84" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="R83" s="3">
+        <v>0</v>
+      </c>
+      <c r="S83" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="84" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -4126,8 +4328,11 @@
       <c r="R84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -4176,8 +4381,11 @@
       <c r="R85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -4226,8 +4434,11 @@
       <c r="R86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -4276,8 +4487,11 @@
       <c r="R87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -4326,58 +4540,64 @@
       <c r="R88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>-2300</v>
+      </c>
+      <c r="E89" s="3">
         <v>-2200</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>-4300</v>
       </c>
-      <c r="F89" s="3">
-        <v>-1600</v>
-      </c>
       <c r="G89" s="3">
-        <v>-3500</v>
+        <v>-2400</v>
       </c>
       <c r="H89" s="3">
+        <v>-2700</v>
+      </c>
+      <c r="I89" s="3">
         <v>-2300</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>-3300</v>
-      </c>
-      <c r="J89" s="3">
-        <v>-900</v>
       </c>
       <c r="K89" s="3">
         <v>-900</v>
       </c>
       <c r="L89" s="3">
+        <v>-900</v>
+      </c>
+      <c r="M89" s="3">
         <v>-1900</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>-900</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>-6100</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>-1400</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>-2200</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>-1200</v>
       </c>
-      <c r="R89" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="90" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S89" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="90" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -4396,23 +4616,24 @@
       <c r="P90" s="3"/>
       <c r="Q90" s="3"/>
       <c r="R90" s="3"/>
-    </row>
-    <row r="91" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S90" s="3"/>
+    </row>
+    <row r="91" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-300</v>
+      </c>
+      <c r="E91" s="3">
         <v>-100</v>
       </c>
-      <c r="E91" s="3">
-        <v>0</v>
-      </c>
       <c r="F91" s="3">
+        <v>0</v>
+      </c>
+      <c r="G91" s="3">
         <v>-800</v>
       </c>
-      <c r="G91" s="3">
-        <v>0</v>
-      </c>
       <c r="H91" s="3">
         <v>0</v>
       </c>
@@ -4425,14 +4646,14 @@
       <c r="K91" s="3">
         <v>0</v>
       </c>
-      <c r="L91" s="3" t="s">
-        <v>3</v>
+      <c r="L91" s="3">
+        <v>0</v>
       </c>
       <c r="M91" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="N91" s="3">
-        <v>0</v>
+      <c r="N91" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="O91" s="3">
         <v>0</v>
@@ -4443,11 +4664,14 @@
       <c r="Q91" s="3">
         <v>0</v>
       </c>
-      <c r="R91" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="92" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="R91" s="3">
+        <v>0</v>
+      </c>
+      <c r="S91" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="92" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -4496,8 +4720,11 @@
       <c r="R92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -4546,23 +4773,26 @@
       <c r="R93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-300</v>
+      </c>
+      <c r="E94" s="3">
         <v>-100</v>
       </c>
-      <c r="E94" s="3">
-        <v>0</v>
-      </c>
       <c r="F94" s="3">
+        <v>0</v>
+      </c>
+      <c r="G94" s="3">
         <v>-800</v>
       </c>
-      <c r="G94" s="3">
-        <v>0</v>
-      </c>
       <c r="H94" s="3">
         <v>0</v>
       </c>
@@ -4582,22 +4812,25 @@
         <v>0</v>
       </c>
       <c r="N94" s="3">
+        <v>0</v>
+      </c>
+      <c r="O94" s="3">
         <v>-100</v>
       </c>
-      <c r="O94" s="3">
-        <v>0</v>
-      </c>
       <c r="P94" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q94" s="3">
         <v>-100</v>
       </c>
-      <c r="Q94" s="3">
-        <v>0</v>
-      </c>
-      <c r="R94" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="95" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="R94" s="3">
+        <v>0</v>
+      </c>
+      <c r="S94" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="95" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -4616,8 +4849,9 @@
       <c r="P95" s="3"/>
       <c r="Q95" s="3"/>
       <c r="R95" s="3"/>
-    </row>
-    <row r="96" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S95" s="3"/>
+    </row>
+    <row r="96" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -4666,8 +4900,11 @@
       <c r="R96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -4716,8 +4953,11 @@
       <c r="R97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -4766,8 +5006,11 @@
       <c r="R98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -4816,58 +5059,64 @@
       <c r="R99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>0</v>
+      </c>
+      <c r="E100" s="3">
         <v>32000</v>
       </c>
-      <c r="E100" s="3">
-        <v>0</v>
-      </c>
       <c r="F100" s="3">
+        <v>0</v>
+      </c>
+      <c r="G100" s="3">
         <v>5700</v>
       </c>
-      <c r="G100" s="3">
-        <v>0</v>
-      </c>
       <c r="H100" s="3">
+        <v>0</v>
+      </c>
+      <c r="I100" s="3">
         <v>8600</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>9000</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>800</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>-300</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>3300</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>900</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>6000</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>700</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>2300</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="R100" s="3">
         <v>2000</v>
       </c>
-      <c r="R100" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="101" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S100" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="101" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -4916,54 +5165,60 @@
       <c r="R101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>-2700</v>
+      </c>
+      <c r="E102" s="3">
         <v>29800</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>-4300</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>3400</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>-2700</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>6300</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>4900</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>-100</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>-1200</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>1400</v>
       </c>
-      <c r="M102" s="3">
-        <v>0</v>
-      </c>
       <c r="N102" s="3">
+        <v>0</v>
+      </c>
+      <c r="O102" s="3">
         <v>-100</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>-700</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>100</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>800</v>
       </c>
-      <c r="R102" s="3" t="s">
+      <c r="S102" s="3" t="s">
         <v>3</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/SOLY_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/SOLY_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="250" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="260" uniqueCount="92">
   <si>
     <t>SOLY</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:S102"/>
+  <dimension ref="A5:T102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,86 +665,89 @@
     <col min="1" max="1" width="7.42578125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="16" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="13" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="17" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:20" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44196</v>
+      </c>
+      <c r="E7" s="2">
         <v>44104</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44012</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>43921</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>43830</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>43738</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>43646</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43555</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43465</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43373</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43281</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43190</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43100</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43008</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>42916</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>42825</v>
       </c>
-      <c r="S7" s="2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="8" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T7" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>4</v>
       </c>
@@ -796,8 +799,11 @@
       <c r="S8" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T8" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
@@ -849,8 +855,11 @@
       <c r="S9" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="10" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T9" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
@@ -902,8 +911,11 @@
       <c r="S10" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="11" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T10" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -923,61 +935,65 @@
       <c r="Q11" s="3"/>
       <c r="R11" s="3"/>
       <c r="S11" s="3"/>
-    </row>
-    <row r="12" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T11" s="3"/>
+    </row>
+    <row r="12" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D12" s="3">
-        <v>1300</v>
+        <v>900</v>
       </c>
       <c r="E12" s="3">
         <v>1300</v>
       </c>
       <c r="F12" s="3">
+        <v>1300</v>
+      </c>
+      <c r="G12" s="3">
         <v>1200</v>
       </c>
-      <c r="G12" s="3">
+      <c r="H12" s="3">
         <v>1400</v>
       </c>
-      <c r="H12" s="3">
+      <c r="I12" s="3">
         <v>2400</v>
       </c>
-      <c r="I12" s="3">
+      <c r="J12" s="3">
         <v>800</v>
       </c>
-      <c r="J12" s="3">
+      <c r="K12" s="3">
         <v>400</v>
       </c>
-      <c r="K12" s="3">
+      <c r="L12" s="3">
         <v>900</v>
       </c>
-      <c r="L12" s="3">
+      <c r="M12" s="3">
         <v>1700</v>
       </c>
-      <c r="M12" s="3">
+      <c r="N12" s="3">
         <v>1400</v>
       </c>
-      <c r="N12" s="3">
+      <c r="O12" s="3">
         <v>700</v>
       </c>
-      <c r="O12" s="3">
+      <c r="P12" s="3">
         <v>4000</v>
       </c>
-      <c r="P12" s="3">
+      <c r="Q12" s="3">
         <v>700</v>
       </c>
-      <c r="Q12" s="3">
+      <c r="R12" s="3">
         <v>1300</v>
       </c>
-      <c r="R12" s="3">
+      <c r="S12" s="3">
         <v>1200</v>
       </c>
-      <c r="S12" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="13" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T12" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1029,31 +1045,34 @@
       <c r="S13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D14" s="3">
-        <v>0</v>
-      </c>
-      <c r="E14" s="3">
-        <v>0</v>
-      </c>
-      <c r="F14" s="3">
-        <v>0</v>
-      </c>
-      <c r="G14" s="3">
-        <v>0</v>
-      </c>
-      <c r="H14" s="3">
-        <v>0</v>
-      </c>
-      <c r="I14" s="3">
-        <v>0</v>
-      </c>
-      <c r="J14" s="3">
-        <v>0</v>
+        <v>300</v>
+      </c>
+      <c r="E14" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="F14" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="G14" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="H14" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="I14" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="J14" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="K14" s="3">
         <v>0</v>
@@ -1082,8 +1101,11 @@
       <c r="S14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1103,7 +1125,7 @@
         <v>100</v>
       </c>
       <c r="I15" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="J15" s="3">
         <v>0</v>
@@ -1121,22 +1143,25 @@
         <v>0</v>
       </c>
       <c r="O15" s="3">
+        <v>0</v>
+      </c>
+      <c r="P15" s="3">
         <v>100</v>
       </c>
-      <c r="P15" s="3">
-        <v>0</v>
-      </c>
       <c r="Q15" s="3">
         <v>0</v>
       </c>
       <c r="R15" s="3">
         <v>0</v>
       </c>
-      <c r="S15" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="16" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="S15" s="3">
+        <v>0</v>
+      </c>
+      <c r="T15" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1153,61 +1178,65 @@
       <c r="Q16" s="3"/>
       <c r="R16" s="3"/>
       <c r="S16" s="3"/>
-    </row>
-    <row r="17" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T16" s="3"/>
+    </row>
+    <row r="17" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>4600</v>
+      </c>
+      <c r="E17" s="3">
         <v>3700</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>3100</v>
-      </c>
-      <c r="F17" s="3">
-        <v>3300</v>
       </c>
       <c r="G17" s="3">
         <v>3300</v>
       </c>
       <c r="H17" s="3">
+        <v>3300</v>
+      </c>
+      <c r="I17" s="3">
         <v>4300</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>3000</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>2400</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>2100</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>2700</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>2300</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>1200</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>7200</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>1500</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>2100</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>1900</v>
       </c>
-      <c r="S17" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="18" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T17" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="18" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
@@ -1215,52 +1244,55 @@
         <v>3</v>
       </c>
       <c r="E18" s="3">
+        <v>-3700</v>
+      </c>
+      <c r="F18" s="3">
         <v>-3100</v>
-      </c>
-      <c r="F18" s="3">
-        <v>-3300</v>
       </c>
       <c r="G18" s="3">
         <v>-3300</v>
       </c>
       <c r="H18" s="3">
+        <v>-3300</v>
+      </c>
+      <c r="I18" s="3">
         <v>-4300</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>-3000</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>-2400</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>-2100</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>-2700</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>-2300</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>-1200</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>-7200</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>-1500</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>-2100</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>-1900</v>
       </c>
-      <c r="S18" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="19" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T18" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="19" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1280,8 +1312,9 @@
       <c r="Q19" s="3"/>
       <c r="R19" s="3"/>
       <c r="S19" s="3"/>
-    </row>
-    <row r="20" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T19" s="3"/>
+    </row>
+    <row r="20" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
@@ -1289,7 +1322,7 @@
         <v>3</v>
       </c>
       <c r="E20" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="F20" s="3">
         <v>0</v>
@@ -1330,11 +1363,14 @@
       <c r="R20" s="3">
         <v>0</v>
       </c>
-      <c r="S20" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="21" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="S20" s="3">
+        <v>0</v>
+      </c>
+      <c r="T20" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="21" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
@@ -1342,52 +1378,55 @@
         <v>3</v>
       </c>
       <c r="E21" s="3">
+        <v>-3500</v>
+      </c>
+      <c r="F21" s="3">
         <v>-3100</v>
-      </c>
-      <c r="F21" s="3">
-        <v>-3200</v>
       </c>
       <c r="G21" s="3">
         <v>-3200</v>
       </c>
       <c r="H21" s="3">
+        <v>-3200</v>
+      </c>
+      <c r="I21" s="3">
         <v>-4200</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>-2900</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>-2400</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>-2000</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>-2600</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>-2300</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>-1200</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>-7100</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>-1500</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>-2100</v>
       </c>
-      <c r="R21" s="3">
+      <c r="S21" s="3">
         <v>-1900</v>
       </c>
-      <c r="S21" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="22" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T21" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="22" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1410,90 +1449,96 @@
         <v>0</v>
       </c>
       <c r="J22" s="3">
+        <v>0</v>
+      </c>
+      <c r="K22" s="3">
         <v>800</v>
       </c>
-      <c r="K22" s="3">
+      <c r="L22" s="3">
         <v>400</v>
-      </c>
-      <c r="L22" s="3">
-        <v>300</v>
       </c>
       <c r="M22" s="3">
         <v>300</v>
       </c>
       <c r="N22" s="3">
+        <v>300</v>
+      </c>
+      <c r="O22" s="3">
         <v>200</v>
       </c>
-      <c r="O22" s="3">
+      <c r="P22" s="3">
         <v>300</v>
-      </c>
-      <c r="P22" s="3">
-        <v>100</v>
       </c>
       <c r="Q22" s="3">
         <v>100</v>
       </c>
       <c r="R22" s="3">
-        <v>0</v>
-      </c>
-      <c r="S22" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="23" spans="3:19" x14ac:dyDescent="0.2">
+        <v>100</v>
+      </c>
+      <c r="S22" s="3">
+        <v>0</v>
+      </c>
+      <c r="T22" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="23" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>-4500</v>
+      </c>
+      <c r="E23" s="3">
         <v>-3600</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>-3100</v>
-      </c>
-      <c r="F23" s="3">
-        <v>-3300</v>
       </c>
       <c r="G23" s="3">
         <v>-3300</v>
       </c>
       <c r="H23" s="3">
+        <v>-3300</v>
+      </c>
+      <c r="I23" s="3">
         <v>-4300</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>-3000</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>-3200</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>-2400</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>-3000</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>-2600</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>-1400</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>-7500</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>-1600</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>-2200</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>-2000</v>
       </c>
-      <c r="S23" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="24" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T23" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="24" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -1542,11 +1587,14 @@
       <c r="R24" s="3">
         <v>0</v>
       </c>
-      <c r="S24" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="25" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="S24" s="3">
+        <v>0</v>
+      </c>
+      <c r="T24" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="25" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1598,114 +1646,123 @@
       <c r="S25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>-4500</v>
+      </c>
+      <c r="E26" s="3">
         <v>-3600</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>-3100</v>
-      </c>
-      <c r="F26" s="3">
-        <v>-3300</v>
       </c>
       <c r="G26" s="3">
         <v>-3300</v>
       </c>
       <c r="H26" s="3">
+        <v>-3300</v>
+      </c>
+      <c r="I26" s="3">
         <v>-4300</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>-3000</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>-3200</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>-2400</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>-3000</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>-2600</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>-1400</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>-7500</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>-1600</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>-2200</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>-2000</v>
       </c>
-      <c r="S26" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="27" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T26" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="27" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>-4500</v>
+      </c>
+      <c r="E27" s="3">
         <v>-3600</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>-3100</v>
-      </c>
-      <c r="F27" s="3">
-        <v>-3300</v>
       </c>
       <c r="G27" s="3">
         <v>-3300</v>
       </c>
       <c r="H27" s="3">
+        <v>-3300</v>
+      </c>
+      <c r="I27" s="3">
         <v>-4300</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>-3000</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>-3400</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>-2700</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>-3300</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>-2900</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>-1700</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>-7500</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>-1900</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>-2800</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>-2000</v>
       </c>
-      <c r="S27" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="28" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T27" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="28" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1757,8 +1814,11 @@
       <c r="S28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1810,8 +1870,11 @@
       <c r="S29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1863,8 +1926,11 @@
       <c r="S30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1916,8 +1982,11 @@
       <c r="S31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
@@ -1925,7 +1994,7 @@
         <v>3</v>
       </c>
       <c r="E32" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="F32" s="3">
         <v>0</v>
@@ -1966,64 +2035,70 @@
       <c r="R32" s="3">
         <v>0</v>
       </c>
-      <c r="S32" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="33" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="S32" s="3">
+        <v>0</v>
+      </c>
+      <c r="T32" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="33" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>-4500</v>
+      </c>
+      <c r="E33" s="3">
         <v>-3600</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>-3100</v>
-      </c>
-      <c r="F33" s="3">
-        <v>-3300</v>
       </c>
       <c r="G33" s="3">
         <v>-3300</v>
       </c>
       <c r="H33" s="3">
+        <v>-3300</v>
+      </c>
+      <c r="I33" s="3">
         <v>-4300</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>-3000</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>-3400</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>-2700</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>-3300</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>-2900</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>-1700</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>-7500</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>-1900</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>-2800</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>-2000</v>
       </c>
-      <c r="S33" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="34" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T33" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="34" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2075,119 +2150,128 @@
       <c r="S34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>-4500</v>
+      </c>
+      <c r="E35" s="3">
         <v>-3600</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>-3100</v>
-      </c>
-      <c r="F35" s="3">
-        <v>-3300</v>
       </c>
       <c r="G35" s="3">
         <v>-3300</v>
       </c>
       <c r="H35" s="3">
+        <v>-3300</v>
+      </c>
+      <c r="I35" s="3">
         <v>-4300</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>-3000</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>-3400</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>-2700</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>-3300</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>-2900</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>-1700</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>-7500</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>-1900</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>-2800</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>-2000</v>
       </c>
-      <c r="S35" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="37" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T35" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="37" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44196</v>
+      </c>
+      <c r="E38" s="2">
         <v>44104</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44012</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>43921</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>43830</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>43738</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>43646</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43555</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43465</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43373</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43281</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43190</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43100</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43008</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>42916</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>42825</v>
       </c>
-      <c r="S38" s="2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="39" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T38" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="39" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2207,8 +2291,9 @@
       <c r="Q39" s="3"/>
       <c r="R39" s="3"/>
       <c r="S39" s="3"/>
-    </row>
-    <row r="40" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T39" s="3"/>
+    </row>
+    <row r="40" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2228,46 +2313,47 @@
       <c r="Q40" s="3"/>
       <c r="R40" s="3"/>
       <c r="S40" s="3"/>
-    </row>
-    <row r="41" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T40" s="3"/>
+    </row>
+    <row r="41" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>31600</v>
+      </c>
+      <c r="E41" s="3">
         <v>34600</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>37300</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>7500</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>11900</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>8500</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>11200</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>4900</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>100</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>200</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>1400</v>
       </c>
-      <c r="N41" s="3">
-        <v>0</v>
-      </c>
-      <c r="O41" s="3" t="s">
-        <v>3</v>
+      <c r="O41" s="3">
+        <v>0</v>
       </c>
       <c r="P41" s="3" t="s">
         <v>3</v>
@@ -2281,8 +2367,11 @@
       <c r="S41" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="42" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T41" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="42" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2334,8 +2423,11 @@
       <c r="S42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
@@ -2360,11 +2452,11 @@
       <c r="J43" s="3">
         <v>0</v>
       </c>
-      <c r="K43" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="L43" s="3">
-        <v>0</v>
+      <c r="K43" s="3">
+        <v>0</v>
+      </c>
+      <c r="L43" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="M43" s="3">
         <v>0</v>
@@ -2372,8 +2464,8 @@
       <c r="N43" s="3">
         <v>0</v>
       </c>
-      <c r="O43" s="3" t="s">
-        <v>3</v>
+      <c r="O43" s="3">
+        <v>0</v>
       </c>
       <c r="P43" s="3" t="s">
         <v>3</v>
@@ -2387,20 +2479,23 @@
       <c r="S43" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="44" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T43" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="44" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
+        <v>400</v>
+      </c>
+      <c r="E44" s="3">
         <v>300</v>
       </c>
-      <c r="E44" s="3">
+      <c r="F44" s="3">
         <v>200</v>
       </c>
-      <c r="F44" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="G44" s="3" t="s">
         <v>3</v>
       </c>
@@ -2416,8 +2511,8 @@
       <c r="K44" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="L44" s="3">
-        <v>0</v>
+      <c r="L44" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="M44" s="3">
         <v>0</v>
@@ -2440,35 +2535,38 @@
       <c r="S44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>300</v>
+      </c>
+      <c r="E45" s="3">
         <v>500</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>600</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>1100</v>
       </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3">
         <v>300</v>
       </c>
-      <c r="H45" s="3">
+      <c r="I45" s="3">
         <v>400</v>
       </c>
-      <c r="I45" s="3">
+      <c r="J45" s="3">
         <v>500</v>
       </c>
-      <c r="J45" s="3">
+      <c r="K45" s="3">
         <v>400</v>
       </c>
-      <c r="K45" s="3">
-        <v>0</v>
-      </c>
       <c r="L45" s="3">
         <v>0</v>
       </c>
@@ -2478,8 +2576,8 @@
       <c r="N45" s="3">
         <v>0</v>
       </c>
-      <c r="O45" s="3" t="s">
-        <v>3</v>
+      <c r="O45" s="3">
+        <v>0</v>
       </c>
       <c r="P45" s="3" t="s">
         <v>3</v>
@@ -2493,46 +2591,49 @@
       <c r="S45" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="46" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T45" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="46" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>32300</v>
+      </c>
+      <c r="E46" s="3">
         <v>35400</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>38100</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>8700</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>12200</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>8900</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>11700</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>5300</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>100</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>200</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>1500</v>
       </c>
-      <c r="N46" s="3">
-        <v>0</v>
-      </c>
-      <c r="O46" s="3" t="s">
-        <v>3</v>
+      <c r="O46" s="3">
+        <v>0</v>
       </c>
       <c r="P46" s="3" t="s">
         <v>3</v>
@@ -2546,8 +2647,11 @@
       <c r="S46" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="47" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T46" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="47" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -2599,16 +2703,19 @@
       <c r="S47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>1400</v>
+      </c>
+      <c r="E48" s="3">
         <v>1300</v>
-      </c>
-      <c r="E48" s="3">
-        <v>800</v>
       </c>
       <c r="F48" s="3">
         <v>800</v>
@@ -2617,10 +2724,10 @@
         <v>800</v>
       </c>
       <c r="H48" s="3">
+        <v>800</v>
+      </c>
+      <c r="I48" s="3">
         <v>900</v>
-      </c>
-      <c r="I48" s="3">
-        <v>1000</v>
       </c>
       <c r="J48" s="3">
         <v>1000</v>
@@ -2629,7 +2736,7 @@
         <v>1000</v>
       </c>
       <c r="L48" s="3">
-        <v>300</v>
+        <v>1000</v>
       </c>
       <c r="M48" s="3">
         <v>300</v>
@@ -2637,8 +2744,8 @@
       <c r="N48" s="3">
         <v>300</v>
       </c>
-      <c r="O48" s="3" t="s">
-        <v>3</v>
+      <c r="O48" s="3">
+        <v>300</v>
       </c>
       <c r="P48" s="3" t="s">
         <v>3</v>
@@ -2652,8 +2759,11 @@
       <c r="S48" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="49" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T48" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="49" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -2690,8 +2800,8 @@
       <c r="N49" s="3">
         <v>100</v>
       </c>
-      <c r="O49" s="3" t="s">
-        <v>3</v>
+      <c r="O49" s="3">
+        <v>100</v>
       </c>
       <c r="P49" s="3" t="s">
         <v>3</v>
@@ -2705,8 +2815,11 @@
       <c r="S49" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="50" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T49" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="50" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2758,8 +2871,11 @@
       <c r="S50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2811,16 +2927,19 @@
       <c r="S51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="D52" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="E52" s="3">
-        <v>0</v>
+      <c r="D52" s="3">
+        <v>0</v>
+      </c>
+      <c r="E52" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="F52" s="3">
         <v>0</v>
@@ -2838,19 +2957,19 @@
         <v>0</v>
       </c>
       <c r="K52" s="3">
-        <v>300</v>
+        <v>0</v>
       </c>
       <c r="L52" s="3">
         <v>300</v>
       </c>
       <c r="M52" s="3">
+        <v>300</v>
+      </c>
+      <c r="N52" s="3">
         <v>100</v>
       </c>
-      <c r="N52" s="3">
-        <v>0</v>
-      </c>
-      <c r="O52" s="3" t="s">
-        <v>3</v>
+      <c r="O52" s="3">
+        <v>0</v>
       </c>
       <c r="P52" s="3" t="s">
         <v>3</v>
@@ -2864,8 +2983,11 @@
       <c r="S52" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="53" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T52" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="53" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2917,47 +3039,50 @@
       <c r="S53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>33800</v>
+      </c>
+      <c r="E54" s="3">
         <v>36900</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>39100</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>9600</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>13100</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>9900</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>12800</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>6400</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>1500</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>900</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>2000</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>400</v>
       </c>
-      <c r="O54" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="P54" s="3" t="s">
         <v>3</v>
       </c>
@@ -2970,8 +3095,11 @@
       <c r="S54" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="55" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T54" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="55" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2991,8 +3119,9 @@
       <c r="Q55" s="3"/>
       <c r="R55" s="3"/>
       <c r="S55" s="3"/>
-    </row>
-    <row r="56" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T55" s="3"/>
+    </row>
+    <row r="56" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3012,47 +3141,48 @@
       <c r="Q56" s="3"/>
       <c r="R56" s="3"/>
       <c r="S56" s="3"/>
-    </row>
-    <row r="57" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T56" s="3"/>
+    </row>
+    <row r="57" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>1000</v>
+      </c>
+      <c r="E57" s="3">
         <v>700</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>800</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>1000</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>1300</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>900</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>400</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>500</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>2700</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>1800</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>1100</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>900</v>
       </c>
-      <c r="O57" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="P57" s="3" t="s">
         <v>3</v>
       </c>
@@ -3065,8 +3195,11 @@
       <c r="S57" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="58" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T57" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="58" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -3079,8 +3212,8 @@
       <c r="F58" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="G58" s="3">
-        <v>0</v>
+      <c r="G58" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="H58" s="3">
         <v>0</v>
@@ -3092,20 +3225,20 @@
         <v>0</v>
       </c>
       <c r="K58" s="3">
+        <v>0</v>
+      </c>
+      <c r="L58" s="3">
         <v>10600</v>
-      </c>
-      <c r="L58" s="3">
-        <v>10200</v>
       </c>
       <c r="M58" s="3">
         <v>10200</v>
       </c>
       <c r="N58" s="3">
+        <v>10200</v>
+      </c>
+      <c r="O58" s="3">
         <v>6900</v>
       </c>
-      <c r="O58" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="P58" s="3" t="s">
         <v>3</v>
       </c>
@@ -3118,47 +3251,50 @@
       <c r="S58" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="59" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T58" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="59" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>1800</v>
+      </c>
+      <c r="E59" s="3">
         <v>1700</v>
-      </c>
-      <c r="E59" s="3">
-        <v>900</v>
       </c>
       <c r="F59" s="3">
         <v>900</v>
       </c>
       <c r="G59" s="3">
+        <v>900</v>
+      </c>
+      <c r="H59" s="3">
         <v>1500</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>1800</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>1600</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>1400</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>7800</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>6500</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>5300</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>4600</v>
       </c>
-      <c r="O59" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="P59" s="3" t="s">
         <v>3</v>
       </c>
@@ -3171,47 +3307,50 @@
       <c r="S59" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="60" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T59" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="60" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>2800</v>
+      </c>
+      <c r="E60" s="3">
         <v>2300</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>1700</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>1800</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>2900</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>2700</v>
-      </c>
-      <c r="I60" s="3">
-        <v>2000</v>
       </c>
       <c r="J60" s="3">
         <v>2000</v>
       </c>
       <c r="K60" s="3">
+        <v>2000</v>
+      </c>
+      <c r="L60" s="3">
         <v>21100</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>18400</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>16600</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>12400</v>
       </c>
-      <c r="O60" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="P60" s="3" t="s">
         <v>3</v>
       </c>
@@ -3224,8 +3363,11 @@
       <c r="S60" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="61" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T60" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="61" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -3277,16 +3419,19 @@
       <c r="S61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="E62" s="3">
-        <v>0</v>
+      <c r="E62" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="F62" s="3">
         <v>0</v>
@@ -3315,8 +3460,8 @@
       <c r="N62" s="3">
         <v>0</v>
       </c>
-      <c r="O62" s="3" t="s">
-        <v>3</v>
+      <c r="O62" s="3">
+        <v>0</v>
       </c>
       <c r="P62" s="3" t="s">
         <v>3</v>
@@ -3330,8 +3475,11 @@
       <c r="S62" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="63" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T62" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="63" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3383,8 +3531,11 @@
       <c r="S63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -3436,8 +3587,11 @@
       <c r="S64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3489,47 +3643,50 @@
       <c r="S65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>2800</v>
+      </c>
+      <c r="E66" s="3">
         <v>2300</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>1700</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>1900</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>2900</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>2700</v>
-      </c>
-      <c r="I66" s="3">
-        <v>2000</v>
       </c>
       <c r="J66" s="3">
         <v>2000</v>
       </c>
       <c r="K66" s="3">
+        <v>2000</v>
+      </c>
+      <c r="L66" s="3">
         <v>21100</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>18500</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>16600</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>12500</v>
       </c>
-      <c r="O66" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="P66" s="3" t="s">
         <v>3</v>
       </c>
@@ -3542,8 +3699,11 @@
       <c r="S66" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="67" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T66" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="67" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3563,8 +3723,9 @@
       <c r="Q67" s="3"/>
       <c r="R67" s="3"/>
       <c r="S67" s="3"/>
-    </row>
-    <row r="68" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T67" s="3"/>
+    </row>
+    <row r="68" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3616,8 +3777,11 @@
       <c r="S68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -3669,8 +3833,11 @@
       <c r="S69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3722,8 +3889,11 @@
       <c r="S70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3775,47 +3945,50 @@
       <c r="S71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-70600</v>
+      </c>
+      <c r="E72" s="3">
         <v>-66000</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>-62500</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>-59300</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>-56000</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>-52800</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>-48500</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>-45500</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>-42100</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>-39400</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>-36100</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>-33200</v>
       </c>
-      <c r="O72" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="P72" s="3" t="s">
         <v>3</v>
       </c>
@@ -3828,8 +4001,11 @@
       <c r="S72" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="73" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T72" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="73" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -3881,8 +4057,11 @@
       <c r="S73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3934,8 +4113,11 @@
       <c r="S74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3987,47 +4169,50 @@
       <c r="S75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>31000</v>
+      </c>
+      <c r="E76" s="3">
         <v>34500</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>37400</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>7700</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>10300</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>7200</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>10800</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>4400</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>-19600</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>-17600</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>-14600</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>-12000</v>
       </c>
-      <c r="O76" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="P76" s="3" t="s">
         <v>3</v>
       </c>
@@ -4040,8 +4225,11 @@
       <c r="S76" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="77" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T76" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="77" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -4093,119 +4281,128 @@
       <c r="S77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44196</v>
+      </c>
+      <c r="E80" s="2">
         <v>44104</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44012</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>43921</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>43830</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>43738</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>43646</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43555</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43465</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43373</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43281</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43190</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43100</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43008</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>42916</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>42825</v>
       </c>
-      <c r="S80" s="2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="81" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T80" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="81" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>-4500</v>
+      </c>
+      <c r="E81" s="3">
         <v>-3600</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>-3100</v>
-      </c>
-      <c r="F81" s="3">
-        <v>-3300</v>
       </c>
       <c r="G81" s="3">
         <v>-3300</v>
       </c>
       <c r="H81" s="3">
+        <v>-3300</v>
+      </c>
+      <c r="I81" s="3">
         <v>-4300</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>-3000</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>-3400</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>-2700</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>-3300</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>-2900</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>-1700</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>-7500</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>-1900</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>-2800</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>-2000</v>
       </c>
-      <c r="S81" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="82" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T81" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="82" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -4225,8 +4422,9 @@
       <c r="Q82" s="3"/>
       <c r="R82" s="3"/>
       <c r="S82" s="3"/>
-    </row>
-    <row r="83" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T82" s="3"/>
+    </row>
+    <row r="83" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -4246,7 +4444,7 @@
         <v>100</v>
       </c>
       <c r="I83" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="J83" s="3">
         <v>0</v>
@@ -4264,22 +4462,25 @@
         <v>0</v>
       </c>
       <c r="O83" s="3">
+        <v>0</v>
+      </c>
+      <c r="P83" s="3">
         <v>100</v>
       </c>
-      <c r="P83" s="3">
-        <v>0</v>
-      </c>
       <c r="Q83" s="3">
         <v>0</v>
       </c>
       <c r="R83" s="3">
         <v>0</v>
       </c>
-      <c r="S83" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="84" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="S83" s="3">
+        <v>0</v>
+      </c>
+      <c r="T83" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="84" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -4331,8 +4532,11 @@
       <c r="S84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -4384,8 +4588,11 @@
       <c r="S85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -4437,8 +4644,11 @@
       <c r="S86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -4490,8 +4700,11 @@
       <c r="S87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -4543,61 +4756,67 @@
       <c r="S88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>-2700</v>
+      </c>
+      <c r="E89" s="3">
         <v>-2300</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>-2200</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>-4300</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>-2400</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>-2700</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>-2300</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>-3300</v>
-      </c>
-      <c r="K89" s="3">
-        <v>-900</v>
       </c>
       <c r="L89" s="3">
         <v>-900</v>
       </c>
       <c r="M89" s="3">
+        <v>-900</v>
+      </c>
+      <c r="N89" s="3">
         <v>-1900</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>-900</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>-6100</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>-1400</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>-2200</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>-1200</v>
       </c>
-      <c r="S89" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="90" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T89" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="90" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -4617,26 +4836,27 @@
       <c r="Q90" s="3"/>
       <c r="R90" s="3"/>
       <c r="S90" s="3"/>
-    </row>
-    <row r="91" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T90" s="3"/>
+    </row>
+    <row r="91" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-400</v>
+      </c>
+      <c r="E91" s="3">
         <v>-300</v>
       </c>
-      <c r="E91" s="3">
+      <c r="F91" s="3">
         <v>-100</v>
       </c>
-      <c r="F91" s="3">
-        <v>0</v>
-      </c>
       <c r="G91" s="3">
+        <v>0</v>
+      </c>
+      <c r="H91" s="3">
         <v>-800</v>
       </c>
-      <c r="H91" s="3">
-        <v>0</v>
-      </c>
       <c r="I91" s="3">
         <v>0</v>
       </c>
@@ -4649,14 +4869,14 @@
       <c r="L91" s="3">
         <v>0</v>
       </c>
-      <c r="M91" s="3" t="s">
-        <v>3</v>
+      <c r="M91" s="3">
+        <v>0</v>
       </c>
       <c r="N91" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="O91" s="3">
-        <v>0</v>
+      <c r="O91" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="P91" s="3">
         <v>0</v>
@@ -4667,11 +4887,14 @@
       <c r="R91" s="3">
         <v>0</v>
       </c>
-      <c r="S91" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="92" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="S91" s="3">
+        <v>0</v>
+      </c>
+      <c r="T91" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="92" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -4723,8 +4946,11 @@
       <c r="S92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -4776,26 +5002,29 @@
       <c r="S93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-400</v>
+      </c>
+      <c r="E94" s="3">
         <v>-300</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>-100</v>
       </c>
-      <c r="F94" s="3">
-        <v>0</v>
-      </c>
       <c r="G94" s="3">
+        <v>0</v>
+      </c>
+      <c r="H94" s="3">
         <v>-800</v>
       </c>
-      <c r="H94" s="3">
-        <v>0</v>
-      </c>
       <c r="I94" s="3">
         <v>0</v>
       </c>
@@ -4815,22 +5044,25 @@
         <v>0</v>
       </c>
       <c r="O94" s="3">
+        <v>0</v>
+      </c>
+      <c r="P94" s="3">
         <v>-100</v>
       </c>
-      <c r="P94" s="3">
-        <v>0</v>
-      </c>
       <c r="Q94" s="3">
+        <v>0</v>
+      </c>
+      <c r="R94" s="3">
         <v>-100</v>
       </c>
-      <c r="R94" s="3">
-        <v>0</v>
-      </c>
-      <c r="S94" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="95" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="S94" s="3">
+        <v>0</v>
+      </c>
+      <c r="T94" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="95" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -4850,8 +5082,9 @@
       <c r="Q95" s="3"/>
       <c r="R95" s="3"/>
       <c r="S95" s="3"/>
-    </row>
-    <row r="96" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T95" s="3"/>
+    </row>
+    <row r="96" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -4903,8 +5136,11 @@
       <c r="S96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -4956,8 +5192,11 @@
       <c r="S97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -5009,8 +5248,11 @@
       <c r="S98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -5062,8 +5304,11 @@
       <c r="S99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
@@ -5071,52 +5316,55 @@
         <v>0</v>
       </c>
       <c r="E100" s="3">
+        <v>0</v>
+      </c>
+      <c r="F100" s="3">
         <v>32000</v>
       </c>
-      <c r="F100" s="3">
-        <v>0</v>
-      </c>
       <c r="G100" s="3">
+        <v>0</v>
+      </c>
+      <c r="H100" s="3">
         <v>5700</v>
       </c>
-      <c r="H100" s="3">
-        <v>0</v>
-      </c>
       <c r="I100" s="3">
+        <v>0</v>
+      </c>
+      <c r="J100" s="3">
         <v>8600</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>9000</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>800</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>-300</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>3300</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>900</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>6000</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>700</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="R100" s="3">
         <v>2300</v>
       </c>
-      <c r="R100" s="3">
+      <c r="S100" s="3">
         <v>2000</v>
       </c>
-      <c r="S100" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="101" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T100" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="101" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -5168,57 +5416,63 @@
       <c r="S101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>-3100</v>
+      </c>
+      <c r="E102" s="3">
         <v>-2700</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>29800</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>-4300</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>3400</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>-2700</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>6300</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>4900</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>-100</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>-1200</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>1400</v>
       </c>
-      <c r="N102" s="3">
-        <v>0</v>
-      </c>
       <c r="O102" s="3">
+        <v>0</v>
+      </c>
+      <c r="P102" s="3">
         <v>-100</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>-700</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>100</v>
       </c>
-      <c r="R102" s="3">
+      <c r="S102" s="3">
         <v>800</v>
       </c>
-      <c r="S102" s="3" t="s">
+      <c r="T102" s="3" t="s">
         <v>3</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/SOLY_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/SOLY_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="260" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="268" uniqueCount="92">
   <si>
     <t>SOLY</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:T102"/>
+  <dimension ref="A5:U102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,89 +665,93 @@
     <col min="1" max="1" width="7.42578125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="13" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="17" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="18" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:21" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44286</v>
+      </c>
+      <c r="E7" s="2">
         <v>44196</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44104</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44012</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>43921</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>43830</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>43738</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43646</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43555</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43465</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43373</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43281</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43190</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43100</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43008</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>42916</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>42825</v>
       </c>
-      <c r="T7" s="2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="8" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U7" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>4</v>
       </c>
@@ -802,8 +806,11 @@
       <c r="T8" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U8" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
@@ -858,8 +865,11 @@
       <c r="T9" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="10" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U9" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
@@ -914,8 +924,11 @@
       <c r="T10" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="11" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U10" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -936,64 +949,68 @@
       <c r="R11" s="3"/>
       <c r="S11" s="3"/>
       <c r="T11" s="3"/>
-    </row>
-    <row r="12" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U11" s="3"/>
+    </row>
+    <row r="12" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D12" s="3">
+        <v>1500</v>
+      </c>
+      <c r="E12" s="3">
         <v>900</v>
-      </c>
-      <c r="E12" s="3">
-        <v>1300</v>
       </c>
       <c r="F12" s="3">
         <v>1300</v>
       </c>
       <c r="G12" s="3">
+        <v>1300</v>
+      </c>
+      <c r="H12" s="3">
+        <v>1100</v>
+      </c>
+      <c r="I12" s="3">
+        <v>1400</v>
+      </c>
+      <c r="J12" s="3">
+        <v>2400</v>
+      </c>
+      <c r="K12" s="3">
+        <v>800</v>
+      </c>
+      <c r="L12" s="3">
+        <v>400</v>
+      </c>
+      <c r="M12" s="3">
+        <v>900</v>
+      </c>
+      <c r="N12" s="3">
+        <v>1700</v>
+      </c>
+      <c r="O12" s="3">
+        <v>1400</v>
+      </c>
+      <c r="P12" s="3">
+        <v>700</v>
+      </c>
+      <c r="Q12" s="3">
+        <v>4000</v>
+      </c>
+      <c r="R12" s="3">
+        <v>700</v>
+      </c>
+      <c r="S12" s="3">
+        <v>1300</v>
+      </c>
+      <c r="T12" s="3">
         <v>1200</v>
       </c>
-      <c r="H12" s="3">
-        <v>1400</v>
-      </c>
-      <c r="I12" s="3">
-        <v>2400</v>
-      </c>
-      <c r="J12" s="3">
-        <v>800</v>
-      </c>
-      <c r="K12" s="3">
-        <v>400</v>
-      </c>
-      <c r="L12" s="3">
-        <v>900</v>
-      </c>
-      <c r="M12" s="3">
-        <v>1700</v>
-      </c>
-      <c r="N12" s="3">
-        <v>1400</v>
-      </c>
-      <c r="O12" s="3">
-        <v>700</v>
-      </c>
-      <c r="P12" s="3">
-        <v>4000</v>
-      </c>
-      <c r="Q12" s="3">
-        <v>700</v>
-      </c>
-      <c r="R12" s="3">
-        <v>1300</v>
-      </c>
-      <c r="S12" s="3">
-        <v>1200</v>
-      </c>
-      <c r="T12" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="13" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U12" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1048,17 +1065,20 @@
       <c r="T13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="D14" s="3">
+      <c r="D14" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E14" s="3">
         <v>300</v>
       </c>
-      <c r="E14" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="F14" s="3" t="s">
         <v>3</v>
       </c>
@@ -1074,8 +1094,8 @@
       <c r="J14" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K14" s="3">
-        <v>0</v>
+      <c r="K14" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="L14" s="3">
         <v>0</v>
@@ -1104,8 +1124,11 @@
       <c r="T14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1128,7 +1151,7 @@
         <v>100</v>
       </c>
       <c r="J15" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="K15" s="3">
         <v>0</v>
@@ -1146,22 +1169,25 @@
         <v>0</v>
       </c>
       <c r="P15" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q15" s="3">
         <v>100</v>
       </c>
-      <c r="Q15" s="3">
-        <v>0</v>
-      </c>
       <c r="R15" s="3">
         <v>0</v>
       </c>
       <c r="S15" s="3">
         <v>0</v>
       </c>
-      <c r="T15" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="16" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="T15" s="3">
+        <v>0</v>
+      </c>
+      <c r="U15" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="16" spans="1:21" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1179,64 +1205,68 @@
       <c r="R16" s="3"/>
       <c r="S16" s="3"/>
       <c r="T16" s="3"/>
-    </row>
-    <row r="17" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U16" s="3"/>
+    </row>
+    <row r="17" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>5200</v>
+      </c>
+      <c r="E17" s="3">
         <v>4600</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>3700</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>3100</v>
-      </c>
-      <c r="G17" s="3">
-        <v>3300</v>
       </c>
       <c r="H17" s="3">
         <v>3300</v>
       </c>
       <c r="I17" s="3">
+        <v>3300</v>
+      </c>
+      <c r="J17" s="3">
         <v>4300</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>3000</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>2400</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>2100</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>2700</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>2300</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>1200</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>7200</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>1500</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>2100</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>1900</v>
       </c>
-      <c r="T17" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="18" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U17" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="18" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
@@ -1244,55 +1274,58 @@
         <v>3</v>
       </c>
       <c r="E18" s="3">
+        <v>-4600</v>
+      </c>
+      <c r="F18" s="3">
         <v>-3700</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>-3100</v>
-      </c>
-      <c r="G18" s="3">
-        <v>-3300</v>
       </c>
       <c r="H18" s="3">
         <v>-3300</v>
       </c>
       <c r="I18" s="3">
+        <v>-3300</v>
+      </c>
+      <c r="J18" s="3">
         <v>-4300</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>-3000</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>-2400</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>-2100</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>-2700</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>-2300</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>-1200</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>-7200</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>-1500</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>-2100</v>
       </c>
-      <c r="S18" s="3">
+      <c r="T18" s="3">
         <v>-1900</v>
       </c>
-      <c r="T18" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="19" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U18" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="19" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1313,8 +1346,9 @@
       <c r="R19" s="3"/>
       <c r="S19" s="3"/>
       <c r="T19" s="3"/>
-    </row>
-    <row r="20" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U19" s="3"/>
+    </row>
+    <row r="20" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
@@ -1325,7 +1359,7 @@
         <v>100</v>
       </c>
       <c r="F20" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G20" s="3">
         <v>0</v>
@@ -1366,11 +1400,14 @@
       <c r="S20" s="3">
         <v>0</v>
       </c>
-      <c r="T20" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="21" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="T20" s="3">
+        <v>0</v>
+      </c>
+      <c r="U20" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="21" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
@@ -1378,60 +1415,63 @@
         <v>3</v>
       </c>
       <c r="E21" s="3">
+        <v>-4500</v>
+      </c>
+      <c r="F21" s="3">
         <v>-3500</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>-3100</v>
-      </c>
-      <c r="G21" s="3">
-        <v>-3200</v>
       </c>
       <c r="H21" s="3">
         <v>-3200</v>
       </c>
       <c r="I21" s="3">
+        <v>-3200</v>
+      </c>
+      <c r="J21" s="3">
         <v>-4200</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>-2900</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>-2400</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>-2000</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>-2600</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>-2300</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>-1200</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>-7100</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>-1500</v>
       </c>
-      <c r="R21" s="3">
+      <c r="S21" s="3">
         <v>-2100</v>
       </c>
-      <c r="S21" s="3">
+      <c r="T21" s="3">
         <v>-1900</v>
       </c>
-      <c r="T21" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="22" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U21" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="22" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="D22" s="3">
-        <v>0</v>
+      <c r="D22" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="E22" s="3">
         <v>0</v>
@@ -1452,93 +1492,99 @@
         <v>0</v>
       </c>
       <c r="K22" s="3">
+        <v>0</v>
+      </c>
+      <c r="L22" s="3">
         <v>800</v>
       </c>
-      <c r="L22" s="3">
+      <c r="M22" s="3">
         <v>400</v>
-      </c>
-      <c r="M22" s="3">
-        <v>300</v>
       </c>
       <c r="N22" s="3">
         <v>300</v>
       </c>
       <c r="O22" s="3">
+        <v>300</v>
+      </c>
+      <c r="P22" s="3">
         <v>200</v>
       </c>
-      <c r="P22" s="3">
+      <c r="Q22" s="3">
         <v>300</v>
-      </c>
-      <c r="Q22" s="3">
-        <v>100</v>
       </c>
       <c r="R22" s="3">
         <v>100</v>
       </c>
       <c r="S22" s="3">
-        <v>0</v>
-      </c>
-      <c r="T22" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="23" spans="3:20" x14ac:dyDescent="0.2">
+        <v>100</v>
+      </c>
+      <c r="T22" s="3">
+        <v>0</v>
+      </c>
+      <c r="U22" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="23" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>-5200</v>
+      </c>
+      <c r="E23" s="3">
         <v>-4500</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>-3600</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>-3100</v>
-      </c>
-      <c r="G23" s="3">
-        <v>-3300</v>
       </c>
       <c r="H23" s="3">
         <v>-3300</v>
       </c>
       <c r="I23" s="3">
+        <v>-3300</v>
+      </c>
+      <c r="J23" s="3">
         <v>-4300</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>-3000</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>-3200</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>-2400</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>-3000</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>-2600</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>-1400</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>-7500</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>-1600</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>-2200</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>-2000</v>
       </c>
-      <c r="T23" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="24" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U23" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="24" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -1590,11 +1636,14 @@
       <c r="S24" s="3">
         <v>0</v>
       </c>
-      <c r="T24" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="25" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="T24" s="3">
+        <v>0</v>
+      </c>
+      <c r="U24" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="25" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1649,120 +1698,129 @@
       <c r="T25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>-5200</v>
+      </c>
+      <c r="E26" s="3">
         <v>-4500</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>-3600</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>-3100</v>
-      </c>
-      <c r="G26" s="3">
-        <v>-3300</v>
       </c>
       <c r="H26" s="3">
         <v>-3300</v>
       </c>
       <c r="I26" s="3">
+        <v>-3300</v>
+      </c>
+      <c r="J26" s="3">
         <v>-4300</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>-3000</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>-3200</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>-2400</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>-3000</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>-2600</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>-1400</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>-7500</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>-1600</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>-2200</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>-2000</v>
       </c>
-      <c r="T26" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="27" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U26" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="27" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>-5200</v>
+      </c>
+      <c r="E27" s="3">
         <v>-4500</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>-3600</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>-3100</v>
-      </c>
-      <c r="G27" s="3">
-        <v>-3300</v>
       </c>
       <c r="H27" s="3">
         <v>-3300</v>
       </c>
       <c r="I27" s="3">
+        <v>-3300</v>
+      </c>
+      <c r="J27" s="3">
         <v>-4300</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>-3000</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>-3400</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>-2700</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>-3300</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>-2900</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>-1700</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>-7500</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>-1900</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>-2800</v>
       </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
         <v>-2000</v>
       </c>
-      <c r="T27" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="28" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U27" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="28" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1817,8 +1875,11 @@
       <c r="T28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1873,8 +1934,11 @@
       <c r="T29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1929,8 +1993,11 @@
       <c r="T30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1985,8 +2052,11 @@
       <c r="T31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
@@ -1997,7 +2067,7 @@
         <v>-100</v>
       </c>
       <c r="F32" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="G32" s="3">
         <v>0</v>
@@ -2038,67 +2108,73 @@
       <c r="S32" s="3">
         <v>0</v>
       </c>
-      <c r="T32" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="33" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="T32" s="3">
+        <v>0</v>
+      </c>
+      <c r="U32" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="33" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>-5200</v>
+      </c>
+      <c r="E33" s="3">
         <v>-4500</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>-3600</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>-3100</v>
-      </c>
-      <c r="G33" s="3">
-        <v>-3300</v>
       </c>
       <c r="H33" s="3">
         <v>-3300</v>
       </c>
       <c r="I33" s="3">
+        <v>-3300</v>
+      </c>
+      <c r="J33" s="3">
         <v>-4300</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>-3000</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>-3400</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>-2700</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>-3300</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>-2900</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>-1700</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>-7500</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>-1900</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>-2800</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>-2000</v>
       </c>
-      <c r="T33" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="34" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U33" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="34" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2153,125 +2229,134 @@
       <c r="T34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>-5200</v>
+      </c>
+      <c r="E35" s="3">
         <v>-4500</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>-3600</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>-3100</v>
-      </c>
-      <c r="G35" s="3">
-        <v>-3300</v>
       </c>
       <c r="H35" s="3">
         <v>-3300</v>
       </c>
       <c r="I35" s="3">
+        <v>-3300</v>
+      </c>
+      <c r="J35" s="3">
         <v>-4300</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>-3000</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>-3400</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>-2700</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>-3300</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>-2900</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>-1700</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>-7500</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>-1900</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>-2800</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>-2000</v>
       </c>
-      <c r="T35" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="37" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U35" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="37" spans="2:21" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44286</v>
+      </c>
+      <c r="E38" s="2">
         <v>44196</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44104</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44012</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>43921</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>43830</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>43738</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43646</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43555</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43465</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43373</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43281</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43190</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43100</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43008</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>42916</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>42825</v>
       </c>
-      <c r="T38" s="2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="39" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U38" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="39" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2292,8 +2377,9 @@
       <c r="R39" s="3"/>
       <c r="S39" s="3"/>
       <c r="T39" s="3"/>
-    </row>
-    <row r="40" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U39" s="3"/>
+    </row>
+    <row r="40" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2314,49 +2400,50 @@
       <c r="R40" s="3"/>
       <c r="S40" s="3"/>
       <c r="T40" s="3"/>
-    </row>
-    <row r="41" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U40" s="3"/>
+    </row>
+    <row r="41" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>26100</v>
+      </c>
+      <c r="E41" s="3">
         <v>31600</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>34600</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>37300</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>7500</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>11900</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>8500</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>11200</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>4900</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>100</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>200</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>1400</v>
       </c>
-      <c r="O41" s="3">
-        <v>0</v>
-      </c>
-      <c r="P41" s="3" t="s">
-        <v>3</v>
+      <c r="P41" s="3">
+        <v>0</v>
       </c>
       <c r="Q41" s="3" t="s">
         <v>3</v>
@@ -2370,8 +2457,11 @@
       <c r="T41" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="42" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U41" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="42" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2426,8 +2516,11 @@
       <c r="T42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
@@ -2455,11 +2548,11 @@
       <c r="K43" s="3">
         <v>0</v>
       </c>
-      <c r="L43" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="M43" s="3">
-        <v>0</v>
+      <c r="L43" s="3">
+        <v>0</v>
+      </c>
+      <c r="M43" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="N43" s="3">
         <v>0</v>
@@ -2467,8 +2560,8 @@
       <c r="O43" s="3">
         <v>0</v>
       </c>
-      <c r="P43" s="3" t="s">
-        <v>3</v>
+      <c r="P43" s="3">
+        <v>0</v>
       </c>
       <c r="Q43" s="3" t="s">
         <v>3</v>
@@ -2482,23 +2575,26 @@
       <c r="T43" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="44" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U43" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="44" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
+        <v>600</v>
+      </c>
+      <c r="E44" s="3">
         <v>400</v>
       </c>
-      <c r="E44" s="3">
+      <c r="F44" s="3">
         <v>300</v>
       </c>
-      <c r="F44" s="3">
+      <c r="G44" s="3">
         <v>200</v>
       </c>
-      <c r="G44" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="H44" s="3" t="s">
         <v>3</v>
       </c>
@@ -2514,8 +2610,8 @@
       <c r="L44" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="M44" s="3">
-        <v>0</v>
+      <c r="M44" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="N44" s="3">
         <v>0</v>
@@ -2538,38 +2634,41 @@
       <c r="T44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>900</v>
+      </c>
+      <c r="E45" s="3">
         <v>300</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>500</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>600</v>
       </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3">
         <v>1100</v>
       </c>
-      <c r="H45" s="3">
+      <c r="I45" s="3">
         <v>300</v>
       </c>
-      <c r="I45" s="3">
+      <c r="J45" s="3">
         <v>400</v>
       </c>
-      <c r="J45" s="3">
+      <c r="K45" s="3">
         <v>500</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>400</v>
       </c>
-      <c r="L45" s="3">
-        <v>0</v>
-      </c>
       <c r="M45" s="3">
         <v>0</v>
       </c>
@@ -2579,8 +2678,8 @@
       <c r="O45" s="3">
         <v>0</v>
       </c>
-      <c r="P45" s="3" t="s">
-        <v>3</v>
+      <c r="P45" s="3">
+        <v>0</v>
       </c>
       <c r="Q45" s="3" t="s">
         <v>3</v>
@@ -2594,49 +2693,52 @@
       <c r="T45" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="46" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U45" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="46" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>27600</v>
+      </c>
+      <c r="E46" s="3">
         <v>32300</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>35400</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>38100</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>8700</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>12200</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>8900</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>11700</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>5300</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>100</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>200</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>1500</v>
       </c>
-      <c r="O46" s="3">
-        <v>0</v>
-      </c>
-      <c r="P46" s="3" t="s">
-        <v>3</v>
+      <c r="P46" s="3">
+        <v>0</v>
       </c>
       <c r="Q46" s="3" t="s">
         <v>3</v>
@@ -2650,8 +2752,11 @@
       <c r="T46" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="47" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U46" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="47" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -2706,19 +2811,22 @@
       <c r="T47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>1800</v>
+      </c>
+      <c r="E48" s="3">
         <v>1400</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>1300</v>
-      </c>
-      <c r="F48" s="3">
-        <v>800</v>
       </c>
       <c r="G48" s="3">
         <v>800</v>
@@ -2727,10 +2835,10 @@
         <v>800</v>
       </c>
       <c r="I48" s="3">
+        <v>800</v>
+      </c>
+      <c r="J48" s="3">
         <v>900</v>
-      </c>
-      <c r="J48" s="3">
-        <v>1000</v>
       </c>
       <c r="K48" s="3">
         <v>1000</v>
@@ -2739,7 +2847,7 @@
         <v>1000</v>
       </c>
       <c r="M48" s="3">
-        <v>300</v>
+        <v>1000</v>
       </c>
       <c r="N48" s="3">
         <v>300</v>
@@ -2747,8 +2855,8 @@
       <c r="O48" s="3">
         <v>300</v>
       </c>
-      <c r="P48" s="3" t="s">
-        <v>3</v>
+      <c r="P48" s="3">
+        <v>300</v>
       </c>
       <c r="Q48" s="3" t="s">
         <v>3</v>
@@ -2762,13 +2870,16 @@
       <c r="T48" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="49" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U48" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="49" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>100</v>
+        <v>300</v>
       </c>
       <c r="E49" s="3">
         <v>100</v>
@@ -2803,8 +2914,8 @@
       <c r="O49" s="3">
         <v>100</v>
       </c>
-      <c r="P49" s="3" t="s">
-        <v>3</v>
+      <c r="P49" s="3">
+        <v>100</v>
       </c>
       <c r="Q49" s="3" t="s">
         <v>3</v>
@@ -2818,8 +2929,11 @@
       <c r="T49" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="50" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U49" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="50" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2874,8 +2988,11 @@
       <c r="T50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2930,19 +3047,22 @@
       <c r="T51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="D52" s="3">
-        <v>0</v>
-      </c>
-      <c r="E52" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="F52" s="3">
-        <v>0</v>
+      <c r="D52" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E52" s="3">
+        <v>0</v>
+      </c>
+      <c r="F52" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="G52" s="3">
         <v>0</v>
@@ -2960,19 +3080,19 @@
         <v>0</v>
       </c>
       <c r="L52" s="3">
-        <v>300</v>
+        <v>0</v>
       </c>
       <c r="M52" s="3">
         <v>300</v>
       </c>
       <c r="N52" s="3">
+        <v>300</v>
+      </c>
+      <c r="O52" s="3">
         <v>100</v>
       </c>
-      <c r="O52" s="3">
-        <v>0</v>
-      </c>
-      <c r="P52" s="3" t="s">
-        <v>3</v>
+      <c r="P52" s="3">
+        <v>0</v>
       </c>
       <c r="Q52" s="3" t="s">
         <v>3</v>
@@ -2986,8 +3106,11 @@
       <c r="T52" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="53" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U52" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="53" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3042,50 +3165,53 @@
       <c r="T53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>29700</v>
+      </c>
+      <c r="E54" s="3">
         <v>33800</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>36900</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>39100</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>9600</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>13100</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>9900</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>12800</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>6400</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>1500</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>900</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>2000</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>400</v>
       </c>
-      <c r="P54" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Q54" s="3" t="s">
         <v>3</v>
       </c>
@@ -3098,8 +3224,11 @@
       <c r="T54" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="55" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U54" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="55" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -3120,8 +3249,9 @@
       <c r="R55" s="3"/>
       <c r="S55" s="3"/>
       <c r="T55" s="3"/>
-    </row>
-    <row r="56" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U55" s="3"/>
+    </row>
+    <row r="56" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3142,50 +3272,51 @@
       <c r="R56" s="3"/>
       <c r="S56" s="3"/>
       <c r="T56" s="3"/>
-    </row>
-    <row r="57" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U56" s="3"/>
+    </row>
+    <row r="57" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>1300</v>
+      </c>
+      <c r="E57" s="3">
         <v>1000</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>700</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>800</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>1000</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>1300</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>900</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>400</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>500</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>2700</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>1800</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>1100</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>900</v>
       </c>
-      <c r="P57" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Q57" s="3" t="s">
         <v>3</v>
       </c>
@@ -3198,8 +3329,11 @@
       <c r="T57" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="58" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U57" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="58" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -3215,8 +3349,8 @@
       <c r="G58" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="H58" s="3">
-        <v>0</v>
+      <c r="H58" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="I58" s="3">
         <v>0</v>
@@ -3228,20 +3362,20 @@
         <v>0</v>
       </c>
       <c r="L58" s="3">
+        <v>0</v>
+      </c>
+      <c r="M58" s="3">
         <v>10600</v>
-      </c>
-      <c r="M58" s="3">
-        <v>10200</v>
       </c>
       <c r="N58" s="3">
         <v>10200</v>
       </c>
       <c r="O58" s="3">
+        <v>10200</v>
+      </c>
+      <c r="P58" s="3">
         <v>6900</v>
       </c>
-      <c r="P58" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Q58" s="3" t="s">
         <v>3</v>
       </c>
@@ -3254,50 +3388,53 @@
       <c r="T58" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="59" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U58" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="59" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>1500</v>
+      </c>
+      <c r="E59" s="3">
         <v>1800</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>1700</v>
-      </c>
-      <c r="F59" s="3">
-        <v>900</v>
       </c>
       <c r="G59" s="3">
         <v>900</v>
       </c>
       <c r="H59" s="3">
+        <v>900</v>
+      </c>
+      <c r="I59" s="3">
         <v>1500</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>1800</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>1600</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>1400</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>7800</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>6500</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>5300</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>4600</v>
       </c>
-      <c r="P59" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Q59" s="3" t="s">
         <v>3</v>
       </c>
@@ -3310,8 +3447,11 @@
       <c r="T59" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="60" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U59" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="60" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
@@ -3319,41 +3459,41 @@
         <v>2800</v>
       </c>
       <c r="E60" s="3">
+        <v>2800</v>
+      </c>
+      <c r="F60" s="3">
         <v>2300</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>1700</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>1800</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>2900</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>2700</v>
-      </c>
-      <c r="J60" s="3">
-        <v>2000</v>
       </c>
       <c r="K60" s="3">
         <v>2000</v>
       </c>
       <c r="L60" s="3">
+        <v>2000</v>
+      </c>
+      <c r="M60" s="3">
         <v>21100</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>18400</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>16600</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>12400</v>
       </c>
-      <c r="P60" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Q60" s="3" t="s">
         <v>3</v>
       </c>
@@ -3366,8 +3506,11 @@
       <c r="T60" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="61" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U60" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="61" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -3422,8 +3565,11 @@
       <c r="T61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
@@ -3433,8 +3579,8 @@
       <c r="E62" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="F62" s="3">
-        <v>0</v>
+      <c r="F62" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="G62" s="3">
         <v>0</v>
@@ -3463,8 +3609,8 @@
       <c r="O62" s="3">
         <v>0</v>
       </c>
-      <c r="P62" s="3" t="s">
-        <v>3</v>
+      <c r="P62" s="3">
+        <v>0</v>
       </c>
       <c r="Q62" s="3" t="s">
         <v>3</v>
@@ -3478,8 +3624,11 @@
       <c r="T62" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="63" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U62" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="63" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3534,8 +3683,11 @@
       <c r="T63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -3590,8 +3742,11 @@
       <c r="T64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3646,8 +3801,11 @@
       <c r="T65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
@@ -3655,41 +3813,41 @@
         <v>2800</v>
       </c>
       <c r="E66" s="3">
+        <v>2800</v>
+      </c>
+      <c r="F66" s="3">
         <v>2300</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>1700</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>1900</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>2900</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>2700</v>
-      </c>
-      <c r="J66" s="3">
-        <v>2000</v>
       </c>
       <c r="K66" s="3">
         <v>2000</v>
       </c>
       <c r="L66" s="3">
+        <v>2000</v>
+      </c>
+      <c r="M66" s="3">
         <v>21100</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>18500</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>16600</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>12500</v>
       </c>
-      <c r="P66" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Q66" s="3" t="s">
         <v>3</v>
       </c>
@@ -3702,8 +3860,11 @@
       <c r="T66" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="67" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U66" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="67" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3724,8 +3885,9 @@
       <c r="R67" s="3"/>
       <c r="S67" s="3"/>
       <c r="T67" s="3"/>
-    </row>
-    <row r="68" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U67" s="3"/>
+    </row>
+    <row r="68" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3780,8 +3942,11 @@
       <c r="T68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -3836,8 +4001,11 @@
       <c r="T69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3892,8 +4060,11 @@
       <c r="T70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3948,50 +4119,53 @@
       <c r="T71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-75800</v>
+      </c>
+      <c r="E72" s="3">
         <v>-70600</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>-66000</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>-62500</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>-59300</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>-56000</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>-52800</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>-48500</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>-45500</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>-42100</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>-39400</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>-36100</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>-33200</v>
       </c>
-      <c r="P72" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Q72" s="3" t="s">
         <v>3</v>
       </c>
@@ -4004,8 +4178,11 @@
       <c r="T72" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="73" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U72" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="73" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -4060,8 +4237,11 @@
       <c r="T73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -4116,8 +4296,11 @@
       <c r="T74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -4172,50 +4355,53 @@
       <c r="T75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>26900</v>
+      </c>
+      <c r="E76" s="3">
         <v>31000</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>34500</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>37400</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>7700</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>10300</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>7200</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>10800</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>4400</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>-19600</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>-17600</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>-14600</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>-12000</v>
       </c>
-      <c r="P76" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Q76" s="3" t="s">
         <v>3</v>
       </c>
@@ -4228,8 +4414,11 @@
       <c r="T76" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="77" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U76" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="77" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -4284,125 +4473,134 @@
       <c r="T77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:21" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44286</v>
+      </c>
+      <c r="E80" s="2">
         <v>44196</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44104</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44012</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>43921</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>43830</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>43738</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43646</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43555</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43465</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43373</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43281</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43190</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43100</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43008</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>42916</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>42825</v>
       </c>
-      <c r="T80" s="2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="81" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U80" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="81" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>-5200</v>
+      </c>
+      <c r="E81" s="3">
         <v>-4500</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>-3600</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>-3100</v>
-      </c>
-      <c r="G81" s="3">
-        <v>-3300</v>
       </c>
       <c r="H81" s="3">
         <v>-3300</v>
       </c>
       <c r="I81" s="3">
+        <v>-3300</v>
+      </c>
+      <c r="J81" s="3">
         <v>-4300</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>-3000</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>-3400</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>-2700</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>-3300</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>-2900</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>-1700</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>-7500</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>-1900</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>-2800</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>-2000</v>
       </c>
-      <c r="T81" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="82" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U81" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="82" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -4423,13 +4621,14 @@
       <c r="R82" s="3"/>
       <c r="S82" s="3"/>
       <c r="T82" s="3"/>
-    </row>
-    <row r="83" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U82" s="3"/>
+    </row>
+    <row r="83" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
-      <c r="D83" s="3">
-        <v>100</v>
+      <c r="D83" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="E83" s="3">
         <v>100</v>
@@ -4447,7 +4646,7 @@
         <v>100</v>
       </c>
       <c r="J83" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="K83" s="3">
         <v>0</v>
@@ -4465,22 +4664,25 @@
         <v>0</v>
       </c>
       <c r="P83" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q83" s="3">
         <v>100</v>
       </c>
-      <c r="Q83" s="3">
-        <v>0</v>
-      </c>
       <c r="R83" s="3">
         <v>0</v>
       </c>
       <c r="S83" s="3">
         <v>0</v>
       </c>
-      <c r="T83" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="84" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="T83" s="3">
+        <v>0</v>
+      </c>
+      <c r="U83" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="84" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -4535,8 +4737,11 @@
       <c r="T84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -4591,8 +4796,11 @@
       <c r="T85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -4647,8 +4855,11 @@
       <c r="T86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -4703,8 +4914,11 @@
       <c r="T87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -4759,64 +4973,70 @@
       <c r="T88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>-5100</v>
+      </c>
+      <c r="E89" s="3">
         <v>-2700</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>-2300</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>-2200</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>-4300</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>-2400</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>-2700</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>-2300</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>-3300</v>
-      </c>
-      <c r="L89" s="3">
-        <v>-900</v>
       </c>
       <c r="M89" s="3">
         <v>-900</v>
       </c>
       <c r="N89" s="3">
+        <v>-900</v>
+      </c>
+      <c r="O89" s="3">
         <v>-1900</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>-900</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>-6100</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>-1400</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>-2200</v>
       </c>
-      <c r="S89" s="3">
+      <c r="T89" s="3">
         <v>-1200</v>
       </c>
-      <c r="T89" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="90" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U89" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="90" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -4837,29 +5057,30 @@
       <c r="R90" s="3"/>
       <c r="S90" s="3"/>
       <c r="T90" s="3"/>
-    </row>
-    <row r="91" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U90" s="3"/>
+    </row>
+    <row r="91" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-300</v>
+      </c>
+      <c r="E91" s="3">
         <v>-400</v>
       </c>
-      <c r="E91" s="3">
+      <c r="F91" s="3">
         <v>-300</v>
       </c>
-      <c r="F91" s="3">
+      <c r="G91" s="3">
         <v>-100</v>
       </c>
-      <c r="G91" s="3">
-        <v>0</v>
-      </c>
       <c r="H91" s="3">
+        <v>0</v>
+      </c>
+      <c r="I91" s="3">
         <v>-800</v>
       </c>
-      <c r="I91" s="3">
-        <v>0</v>
-      </c>
       <c r="J91" s="3">
         <v>0</v>
       </c>
@@ -4872,14 +5093,14 @@
       <c r="M91" s="3">
         <v>0</v>
       </c>
-      <c r="N91" s="3" t="s">
-        <v>3</v>
+      <c r="N91" s="3">
+        <v>0</v>
       </c>
       <c r="O91" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="P91" s="3">
-        <v>0</v>
+      <c r="P91" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="Q91" s="3">
         <v>0</v>
@@ -4890,11 +5111,14 @@
       <c r="S91" s="3">
         <v>0</v>
       </c>
-      <c r="T91" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="92" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="T91" s="3">
+        <v>0</v>
+      </c>
+      <c r="U91" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="92" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -4949,8 +5173,11 @@
       <c r="T92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -5005,8 +5232,11 @@
       <c r="T93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
@@ -5014,20 +5244,20 @@
         <v>-400</v>
       </c>
       <c r="E94" s="3">
+        <v>-400</v>
+      </c>
+      <c r="F94" s="3">
         <v>-300</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>-100</v>
       </c>
-      <c r="G94" s="3">
-        <v>0</v>
-      </c>
       <c r="H94" s="3">
+        <v>0</v>
+      </c>
+      <c r="I94" s="3">
         <v>-800</v>
       </c>
-      <c r="I94" s="3">
-        <v>0</v>
-      </c>
       <c r="J94" s="3">
         <v>0</v>
       </c>
@@ -5047,22 +5277,25 @@
         <v>0</v>
       </c>
       <c r="P94" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q94" s="3">
         <v>-100</v>
       </c>
-      <c r="Q94" s="3">
-        <v>0</v>
-      </c>
       <c r="R94" s="3">
+        <v>0</v>
+      </c>
+      <c r="S94" s="3">
         <v>-100</v>
       </c>
-      <c r="S94" s="3">
-        <v>0</v>
-      </c>
-      <c r="T94" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="95" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="T94" s="3">
+        <v>0</v>
+      </c>
+      <c r="U94" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="95" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -5083,8 +5316,9 @@
       <c r="R95" s="3"/>
       <c r="S95" s="3"/>
       <c r="T95" s="3"/>
-    </row>
-    <row r="96" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U95" s="3"/>
+    </row>
+    <row r="96" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -5139,8 +5373,11 @@
       <c r="T96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -5195,8 +5432,11 @@
       <c r="T97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -5251,8 +5491,11 @@
       <c r="T98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -5307,64 +5550,70 @@
       <c r="T99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E100" s="3">
         <v>0</v>
       </c>
       <c r="F100" s="3">
+        <v>0</v>
+      </c>
+      <c r="G100" s="3">
         <v>32000</v>
       </c>
-      <c r="G100" s="3">
-        <v>0</v>
-      </c>
       <c r="H100" s="3">
+        <v>0</v>
+      </c>
+      <c r="I100" s="3">
         <v>5700</v>
       </c>
-      <c r="I100" s="3">
-        <v>0</v>
-      </c>
       <c r="J100" s="3">
+        <v>0</v>
+      </c>
+      <c r="K100" s="3">
         <v>8600</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>9000</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>800</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>-300</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>3300</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>900</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>6000</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="R100" s="3">
         <v>700</v>
       </c>
-      <c r="R100" s="3">
+      <c r="S100" s="3">
         <v>2300</v>
       </c>
-      <c r="S100" s="3">
+      <c r="T100" s="3">
         <v>2000</v>
       </c>
-      <c r="T100" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="101" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U100" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="101" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -5419,60 +5668,66 @@
       <c r="T101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>-5500</v>
+      </c>
+      <c r="E102" s="3">
         <v>-3100</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>-2700</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>29800</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>-4300</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>3400</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>-2700</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>6300</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>4900</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>-100</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>-1200</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>1400</v>
       </c>
-      <c r="O102" s="3">
-        <v>0</v>
-      </c>
       <c r="P102" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q102" s="3">
         <v>-100</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>-700</v>
       </c>
-      <c r="R102" s="3">
+      <c r="S102" s="3">
         <v>100</v>
       </c>
-      <c r="S102" s="3">
+      <c r="T102" s="3">
         <v>800</v>
       </c>
-      <c r="T102" s="3" t="s">
+      <c r="U102" s="3" t="s">
         <v>3</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/SOLY_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/SOLY_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="268" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="270" uniqueCount="92">
   <si>
     <t>SOLY</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:U102"/>
+  <dimension ref="A5:V102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,93 +665,97 @@
     <col min="1" max="1" width="7.42578125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="18" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="19" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:22" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44377</v>
+      </c>
+      <c r="E7" s="2">
         <v>44286</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44196</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44104</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44012</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>43921</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>43830</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43738</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43646</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43555</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43465</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43373</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43281</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43190</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43100</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43008</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>42916</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>42825</v>
       </c>
-      <c r="U7" s="2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="8" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V7" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>4</v>
       </c>
@@ -809,8 +813,11 @@
       <c r="U8" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V8" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
@@ -868,8 +875,11 @@
       <c r="U9" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="10" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V9" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
@@ -927,8 +937,11 @@
       <c r="U10" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="11" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V10" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -950,67 +963,71 @@
       <c r="S11" s="3"/>
       <c r="T11" s="3"/>
       <c r="U11" s="3"/>
-    </row>
-    <row r="12" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V11" s="3"/>
+    </row>
+    <row r="12" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D12" s="3">
+        <v>1600</v>
+      </c>
+      <c r="E12" s="3">
         <v>1500</v>
       </c>
-      <c r="E12" s="3">
+      <c r="F12" s="3">
         <v>900</v>
-      </c>
-      <c r="F12" s="3">
-        <v>1300</v>
       </c>
       <c r="G12" s="3">
         <v>1300</v>
       </c>
       <c r="H12" s="3">
+        <v>1300</v>
+      </c>
+      <c r="I12" s="3">
         <v>1100</v>
       </c>
-      <c r="I12" s="3">
+      <c r="J12" s="3">
         <v>1400</v>
       </c>
-      <c r="J12" s="3">
+      <c r="K12" s="3">
         <v>2400</v>
       </c>
-      <c r="K12" s="3">
+      <c r="L12" s="3">
         <v>800</v>
       </c>
-      <c r="L12" s="3">
+      <c r="M12" s="3">
         <v>400</v>
       </c>
-      <c r="M12" s="3">
+      <c r="N12" s="3">
         <v>900</v>
       </c>
-      <c r="N12" s="3">
+      <c r="O12" s="3">
         <v>1700</v>
       </c>
-      <c r="O12" s="3">
+      <c r="P12" s="3">
         <v>1400</v>
       </c>
-      <c r="P12" s="3">
+      <c r="Q12" s="3">
         <v>700</v>
       </c>
-      <c r="Q12" s="3">
+      <c r="R12" s="3">
         <v>4000</v>
       </c>
-      <c r="R12" s="3">
+      <c r="S12" s="3">
         <v>700</v>
       </c>
-      <c r="S12" s="3">
+      <c r="T12" s="3">
         <v>1300</v>
       </c>
-      <c r="T12" s="3">
+      <c r="U12" s="3">
         <v>1200</v>
       </c>
-      <c r="U12" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="13" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V12" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1068,20 +1085,23 @@
       <c r="U13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D14" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="E14" s="3">
+      <c r="E14" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="F14" s="3">
         <v>300</v>
       </c>
-      <c r="F14" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="G14" s="3" t="s">
         <v>3</v>
       </c>
@@ -1097,8 +1117,8 @@
       <c r="K14" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="L14" s="3">
-        <v>0</v>
+      <c r="L14" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="M14" s="3">
         <v>0</v>
@@ -1127,13 +1147,16 @@
       <c r="U14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D15" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="E15" s="3">
         <v>100</v>
@@ -1154,7 +1177,7 @@
         <v>100</v>
       </c>
       <c r="K15" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="L15" s="3">
         <v>0</v>
@@ -1172,22 +1195,25 @@
         <v>0</v>
       </c>
       <c r="Q15" s="3">
+        <v>0</v>
+      </c>
+      <c r="R15" s="3">
         <v>100</v>
       </c>
-      <c r="R15" s="3">
-        <v>0</v>
-      </c>
       <c r="S15" s="3">
         <v>0</v>
       </c>
       <c r="T15" s="3">
         <v>0</v>
       </c>
-      <c r="U15" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="16" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="U15" s="3">
+        <v>0</v>
+      </c>
+      <c r="V15" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="16" spans="1:22" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1206,67 +1232,71 @@
       <c r="S16" s="3"/>
       <c r="T16" s="3"/>
       <c r="U16" s="3"/>
-    </row>
-    <row r="17" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V16" s="3"/>
+    </row>
+    <row r="17" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>7900</v>
+      </c>
+      <c r="E17" s="3">
         <v>5200</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>4600</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>3700</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>3100</v>
-      </c>
-      <c r="H17" s="3">
-        <v>3300</v>
       </c>
       <c r="I17" s="3">
         <v>3300</v>
       </c>
       <c r="J17" s="3">
+        <v>3300</v>
+      </c>
+      <c r="K17" s="3">
         <v>4300</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>3000</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>2400</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>2100</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>2700</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>2300</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>1200</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>7200</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>1500</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>2100</v>
       </c>
-      <c r="T17" s="3">
+      <c r="U17" s="3">
         <v>1900</v>
       </c>
-      <c r="U17" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="18" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V17" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="18" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
@@ -1274,58 +1304,61 @@
         <v>3</v>
       </c>
       <c r="E18" s="3">
+        <v>-5200</v>
+      </c>
+      <c r="F18" s="3">
         <v>-4600</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>-3700</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>-3100</v>
-      </c>
-      <c r="H18" s="3">
-        <v>-3300</v>
       </c>
       <c r="I18" s="3">
         <v>-3300</v>
       </c>
       <c r="J18" s="3">
+        <v>-3300</v>
+      </c>
+      <c r="K18" s="3">
         <v>-4300</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>-3000</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>-2400</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>-2100</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>-2700</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>-2300</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>-1200</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>-7200</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>-1500</v>
       </c>
-      <c r="S18" s="3">
+      <c r="T18" s="3">
         <v>-2100</v>
       </c>
-      <c r="T18" s="3">
+      <c r="U18" s="3">
         <v>-1900</v>
       </c>
-      <c r="U18" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="19" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V18" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="19" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1347,8 +1380,9 @@
       <c r="S19" s="3"/>
       <c r="T19" s="3"/>
       <c r="U19" s="3"/>
-    </row>
-    <row r="20" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V19" s="3"/>
+    </row>
+    <row r="20" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
@@ -1362,7 +1396,7 @@
         <v>100</v>
       </c>
       <c r="G20" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="H20" s="3">
         <v>0</v>
@@ -1403,11 +1437,14 @@
       <c r="T20" s="3">
         <v>0</v>
       </c>
-      <c r="U20" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="21" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="U20" s="3">
+        <v>0</v>
+      </c>
+      <c r="V20" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="21" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
@@ -1415,66 +1452,69 @@
         <v>3</v>
       </c>
       <c r="E21" s="3">
+        <v>-5100</v>
+      </c>
+      <c r="F21" s="3">
         <v>-4500</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>-3500</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>-3100</v>
-      </c>
-      <c r="H21" s="3">
-        <v>-3200</v>
       </c>
       <c r="I21" s="3">
         <v>-3200</v>
       </c>
       <c r="J21" s="3">
+        <v>-3200</v>
+      </c>
+      <c r="K21" s="3">
         <v>-4200</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>-2900</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>-2400</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>-2000</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>-2600</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>-2300</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>-1200</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>-7100</v>
       </c>
-      <c r="R21" s="3">
+      <c r="S21" s="3">
         <v>-1500</v>
       </c>
-      <c r="S21" s="3">
+      <c r="T21" s="3">
         <v>-2100</v>
       </c>
-      <c r="T21" s="3">
+      <c r="U21" s="3">
         <v>-1900</v>
       </c>
-      <c r="U21" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="22" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V21" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="22" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="E22" s="3">
-        <v>0</v>
+      <c r="E22" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="F22" s="3">
         <v>0</v>
@@ -1495,96 +1535,102 @@
         <v>0</v>
       </c>
       <c r="L22" s="3">
+        <v>0</v>
+      </c>
+      <c r="M22" s="3">
         <v>800</v>
       </c>
-      <c r="M22" s="3">
+      <c r="N22" s="3">
         <v>400</v>
-      </c>
-      <c r="N22" s="3">
-        <v>300</v>
       </c>
       <c r="O22" s="3">
         <v>300</v>
       </c>
       <c r="P22" s="3">
+        <v>300</v>
+      </c>
+      <c r="Q22" s="3">
         <v>200</v>
       </c>
-      <c r="Q22" s="3">
+      <c r="R22" s="3">
         <v>300</v>
-      </c>
-      <c r="R22" s="3">
-        <v>100</v>
       </c>
       <c r="S22" s="3">
         <v>100</v>
       </c>
       <c r="T22" s="3">
-        <v>0</v>
-      </c>
-      <c r="U22" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="23" spans="3:21" x14ac:dyDescent="0.2">
+        <v>100</v>
+      </c>
+      <c r="U22" s="3">
+        <v>0</v>
+      </c>
+      <c r="V22" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="23" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>-7900</v>
+      </c>
+      <c r="E23" s="3">
         <v>-5200</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>-4500</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>-3600</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>-3100</v>
-      </c>
-      <c r="H23" s="3">
-        <v>-3300</v>
       </c>
       <c r="I23" s="3">
         <v>-3300</v>
       </c>
       <c r="J23" s="3">
+        <v>-3300</v>
+      </c>
+      <c r="K23" s="3">
         <v>-4300</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>-3000</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>-3200</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>-2400</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>-3000</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>-2600</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>-1400</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>-7500</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>-1600</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>-2200</v>
       </c>
-      <c r="T23" s="3">
+      <c r="U23" s="3">
         <v>-2000</v>
       </c>
-      <c r="U23" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="24" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V23" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="24" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -1639,11 +1685,14 @@
       <c r="T24" s="3">
         <v>0</v>
       </c>
-      <c r="U24" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="25" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="U24" s="3">
+        <v>0</v>
+      </c>
+      <c r="V24" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="25" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1701,126 +1750,135 @@
       <c r="U25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>-7900</v>
+      </c>
+      <c r="E26" s="3">
         <v>-5200</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>-4500</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>-3600</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>-3100</v>
-      </c>
-      <c r="H26" s="3">
-        <v>-3300</v>
       </c>
       <c r="I26" s="3">
         <v>-3300</v>
       </c>
       <c r="J26" s="3">
+        <v>-3300</v>
+      </c>
+      <c r="K26" s="3">
         <v>-4300</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>-3000</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>-3200</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>-2400</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>-3000</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>-2600</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>-1400</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>-7500</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>-1600</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>-2200</v>
       </c>
-      <c r="T26" s="3">
+      <c r="U26" s="3">
         <v>-2000</v>
       </c>
-      <c r="U26" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="27" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V26" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="27" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>-7900</v>
+      </c>
+      <c r="E27" s="3">
         <v>-5200</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>-4500</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>-3600</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>-3100</v>
-      </c>
-      <c r="H27" s="3">
-        <v>-3300</v>
       </c>
       <c r="I27" s="3">
         <v>-3300</v>
       </c>
       <c r="J27" s="3">
+        <v>-3300</v>
+      </c>
+      <c r="K27" s="3">
         <v>-4300</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>-3000</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>-3400</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>-2700</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>-3300</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>-2900</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>-1700</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>-7500</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>-1900</v>
       </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
         <v>-2800</v>
       </c>
-      <c r="T27" s="3">
+      <c r="U27" s="3">
         <v>-2000</v>
       </c>
-      <c r="U27" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="28" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V27" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="28" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1878,8 +1936,11 @@
       <c r="U28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1937,8 +1998,11 @@
       <c r="U29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1996,8 +2060,11 @@
       <c r="U30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2055,8 +2122,11 @@
       <c r="U31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
@@ -2070,7 +2140,7 @@
         <v>-100</v>
       </c>
       <c r="G32" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="H32" s="3">
         <v>0</v>
@@ -2111,70 +2181,76 @@
       <c r="T32" s="3">
         <v>0</v>
       </c>
-      <c r="U32" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="33" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="U32" s="3">
+        <v>0</v>
+      </c>
+      <c r="V32" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="33" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>-7900</v>
+      </c>
+      <c r="E33" s="3">
         <v>-5200</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>-4500</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>-3600</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>-3100</v>
-      </c>
-      <c r="H33" s="3">
-        <v>-3300</v>
       </c>
       <c r="I33" s="3">
         <v>-3300</v>
       </c>
       <c r="J33" s="3">
+        <v>-3300</v>
+      </c>
+      <c r="K33" s="3">
         <v>-4300</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>-3000</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>-3400</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>-2700</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>-3300</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>-2900</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>-1700</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>-7500</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>-1900</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>-2800</v>
       </c>
-      <c r="T33" s="3">
+      <c r="U33" s="3">
         <v>-2000</v>
       </c>
-      <c r="U33" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="34" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V33" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="34" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2232,131 +2308,140 @@
       <c r="U34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>-7900</v>
+      </c>
+      <c r="E35" s="3">
         <v>-5200</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>-4500</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>-3600</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>-3100</v>
-      </c>
-      <c r="H35" s="3">
-        <v>-3300</v>
       </c>
       <c r="I35" s="3">
         <v>-3300</v>
       </c>
       <c r="J35" s="3">
+        <v>-3300</v>
+      </c>
+      <c r="K35" s="3">
         <v>-4300</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>-3000</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>-3400</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>-2700</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>-3300</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>-2900</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>-1700</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>-7500</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>-1900</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>-2800</v>
       </c>
-      <c r="T35" s="3">
+      <c r="U35" s="3">
         <v>-2000</v>
       </c>
-      <c r="U35" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="37" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V35" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="37" spans="2:22" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44377</v>
+      </c>
+      <c r="E38" s="2">
         <v>44286</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44196</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44104</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44012</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>43921</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>43830</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43738</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43646</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43555</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43465</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43373</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43281</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43190</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43100</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43008</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>42916</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>42825</v>
       </c>
-      <c r="U38" s="2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="39" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V38" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="39" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2378,8 +2463,9 @@
       <c r="S39" s="3"/>
       <c r="T39" s="3"/>
       <c r="U39" s="3"/>
-    </row>
-    <row r="40" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V39" s="3"/>
+    </row>
+    <row r="40" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2401,52 +2487,53 @@
       <c r="S40" s="3"/>
       <c r="T40" s="3"/>
       <c r="U40" s="3"/>
-    </row>
-    <row r="41" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V40" s="3"/>
+    </row>
+    <row r="41" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>20600</v>
+      </c>
+      <c r="E41" s="3">
         <v>26100</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>31600</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>34600</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>37300</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>7500</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>11900</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>8500</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>11200</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>4900</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>100</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>200</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>1400</v>
       </c>
-      <c r="P41" s="3">
-        <v>0</v>
-      </c>
-      <c r="Q41" s="3" t="s">
-        <v>3</v>
+      <c r="Q41" s="3">
+        <v>0</v>
       </c>
       <c r="R41" s="3" t="s">
         <v>3</v>
@@ -2460,8 +2547,11 @@
       <c r="U41" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="42" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V41" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="42" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2519,8 +2609,11 @@
       <c r="U42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
@@ -2551,11 +2644,11 @@
       <c r="L43" s="3">
         <v>0</v>
       </c>
-      <c r="M43" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="N43" s="3">
-        <v>0</v>
+      <c r="M43" s="3">
+        <v>0</v>
+      </c>
+      <c r="N43" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="O43" s="3">
         <v>0</v>
@@ -2563,8 +2656,8 @@
       <c r="P43" s="3">
         <v>0</v>
       </c>
-      <c r="Q43" s="3" t="s">
-        <v>3</v>
+      <c r="Q43" s="3">
+        <v>0</v>
       </c>
       <c r="R43" s="3" t="s">
         <v>3</v>
@@ -2578,26 +2671,29 @@
       <c r="U43" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="44" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V43" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="44" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
+        <v>100</v>
+      </c>
+      <c r="E44" s="3">
         <v>600</v>
       </c>
-      <c r="E44" s="3">
+      <c r="F44" s="3">
         <v>400</v>
       </c>
-      <c r="F44" s="3">
+      <c r="G44" s="3">
         <v>300</v>
       </c>
-      <c r="G44" s="3">
+      <c r="H44" s="3">
         <v>200</v>
       </c>
-      <c r="H44" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I44" s="3" t="s">
         <v>3</v>
       </c>
@@ -2613,8 +2709,8 @@
       <c r="M44" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="N44" s="3">
-        <v>0</v>
+      <c r="N44" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="O44" s="3">
         <v>0</v>
@@ -2637,41 +2733,44 @@
       <c r="U44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>1300</v>
+      </c>
+      <c r="E45" s="3">
         <v>900</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>300</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>500</v>
       </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3">
         <v>600</v>
       </c>
-      <c r="H45" s="3">
+      <c r="I45" s="3">
         <v>1100</v>
       </c>
-      <c r="I45" s="3">
+      <c r="J45" s="3">
         <v>300</v>
       </c>
-      <c r="J45" s="3">
+      <c r="K45" s="3">
         <v>400</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>500</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>400</v>
       </c>
-      <c r="M45" s="3">
-        <v>0</v>
-      </c>
       <c r="N45" s="3">
         <v>0</v>
       </c>
@@ -2681,8 +2780,8 @@
       <c r="P45" s="3">
         <v>0</v>
       </c>
-      <c r="Q45" s="3" t="s">
-        <v>3</v>
+      <c r="Q45" s="3">
+        <v>0</v>
       </c>
       <c r="R45" s="3" t="s">
         <v>3</v>
@@ -2696,52 +2795,55 @@
       <c r="U45" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="46" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V45" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="46" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>22000</v>
+      </c>
+      <c r="E46" s="3">
         <v>27600</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>32300</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>35400</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>38100</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>8700</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>12200</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>8900</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>11700</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>5300</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>100</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>200</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>1500</v>
       </c>
-      <c r="P46" s="3">
-        <v>0</v>
-      </c>
-      <c r="Q46" s="3" t="s">
-        <v>3</v>
+      <c r="Q46" s="3">
+        <v>0</v>
       </c>
       <c r="R46" s="3" t="s">
         <v>3</v>
@@ -2755,8 +2857,11 @@
       <c r="U46" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="47" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V46" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="47" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -2814,22 +2919,25 @@
       <c r="U47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>2400</v>
+      </c>
+      <c r="E48" s="3">
         <v>1800</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>1400</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>1300</v>
-      </c>
-      <c r="G48" s="3">
-        <v>800</v>
       </c>
       <c r="H48" s="3">
         <v>800</v>
@@ -2838,10 +2946,10 @@
         <v>800</v>
       </c>
       <c r="J48" s="3">
+        <v>800</v>
+      </c>
+      <c r="K48" s="3">
         <v>900</v>
-      </c>
-      <c r="K48" s="3">
-        <v>1000</v>
       </c>
       <c r="L48" s="3">
         <v>1000</v>
@@ -2850,7 +2958,7 @@
         <v>1000</v>
       </c>
       <c r="N48" s="3">
-        <v>300</v>
+        <v>1000</v>
       </c>
       <c r="O48" s="3">
         <v>300</v>
@@ -2858,8 +2966,8 @@
       <c r="P48" s="3">
         <v>300</v>
       </c>
-      <c r="Q48" s="3" t="s">
-        <v>3</v>
+      <c r="Q48" s="3">
+        <v>300</v>
       </c>
       <c r="R48" s="3" t="s">
         <v>3</v>
@@ -2873,8 +2981,11 @@
       <c r="U48" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="49" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V48" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="49" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -2882,7 +2993,7 @@
         <v>300</v>
       </c>
       <c r="E49" s="3">
-        <v>100</v>
+        <v>300</v>
       </c>
       <c r="F49" s="3">
         <v>100</v>
@@ -2917,8 +3028,8 @@
       <c r="P49" s="3">
         <v>100</v>
       </c>
-      <c r="Q49" s="3" t="s">
-        <v>3</v>
+      <c r="Q49" s="3">
+        <v>100</v>
       </c>
       <c r="R49" s="3" t="s">
         <v>3</v>
@@ -2932,8 +3043,11 @@
       <c r="U49" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="50" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V49" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="50" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2991,8 +3105,11 @@
       <c r="U50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3050,22 +3167,25 @@
       <c r="U51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="E52" s="3">
-        <v>0</v>
-      </c>
-      <c r="F52" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="G52" s="3">
-        <v>0</v>
+      <c r="E52" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="F52" s="3">
+        <v>0</v>
+      </c>
+      <c r="G52" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="H52" s="3">
         <v>0</v>
@@ -3083,19 +3203,19 @@
         <v>0</v>
       </c>
       <c r="M52" s="3">
-        <v>300</v>
+        <v>0</v>
       </c>
       <c r="N52" s="3">
         <v>300</v>
       </c>
       <c r="O52" s="3">
+        <v>300</v>
+      </c>
+      <c r="P52" s="3">
         <v>100</v>
       </c>
-      <c r="P52" s="3">
-        <v>0</v>
-      </c>
-      <c r="Q52" s="3" t="s">
-        <v>3</v>
+      <c r="Q52" s="3">
+        <v>0</v>
       </c>
       <c r="R52" s="3" t="s">
         <v>3</v>
@@ -3109,8 +3229,11 @@
       <c r="U52" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="53" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V52" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="53" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3168,53 +3291,56 @@
       <c r="U53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>24700</v>
+      </c>
+      <c r="E54" s="3">
         <v>29700</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>33800</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>36900</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>39100</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>9600</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>13100</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>9900</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>12800</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>6400</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>1500</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>900</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>2000</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>400</v>
       </c>
-      <c r="Q54" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="R54" s="3" t="s">
         <v>3</v>
       </c>
@@ -3227,8 +3353,11 @@
       <c r="U54" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="55" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V54" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="55" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -3250,8 +3379,9 @@
       <c r="S55" s="3"/>
       <c r="T55" s="3"/>
       <c r="U55" s="3"/>
-    </row>
-    <row r="56" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V55" s="3"/>
+    </row>
+    <row r="56" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3273,53 +3403,54 @@
       <c r="S56" s="3"/>
       <c r="T56" s="3"/>
       <c r="U56" s="3"/>
-    </row>
-    <row r="57" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V56" s="3"/>
+    </row>
+    <row r="57" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>2200</v>
+      </c>
+      <c r="E57" s="3">
         <v>1300</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>1000</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>700</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>800</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>1000</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>1300</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>900</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>400</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>500</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>2700</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>1800</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>1100</v>
       </c>
-      <c r="P57" s="3">
+      <c r="Q57" s="3">
         <v>900</v>
       </c>
-      <c r="Q57" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="R57" s="3" t="s">
         <v>3</v>
       </c>
@@ -3332,25 +3463,28 @@
       <c r="U57" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="58" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V57" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="58" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="D58" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="E58" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="F58" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="G58" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="H58" s="3" t="s">
-        <v>3</v>
+      <c r="D58" s="3">
+        <v>0</v>
+      </c>
+      <c r="E58" s="3">
+        <v>0</v>
+      </c>
+      <c r="F58" s="3">
+        <v>0</v>
+      </c>
+      <c r="G58" s="3">
+        <v>0</v>
+      </c>
+      <c r="H58" s="3">
+        <v>0</v>
       </c>
       <c r="I58" s="3">
         <v>0</v>
@@ -3365,20 +3499,20 @@
         <v>0</v>
       </c>
       <c r="M58" s="3">
+        <v>0</v>
+      </c>
+      <c r="N58" s="3">
         <v>10600</v>
-      </c>
-      <c r="N58" s="3">
-        <v>10200</v>
       </c>
       <c r="O58" s="3">
         <v>10200</v>
       </c>
       <c r="P58" s="3">
+        <v>10200</v>
+      </c>
+      <c r="Q58" s="3">
         <v>6900</v>
       </c>
-      <c r="Q58" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="R58" s="3" t="s">
         <v>3</v>
       </c>
@@ -3391,53 +3525,56 @@
       <c r="U58" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="59" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V58" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="59" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>2200</v>
+      </c>
+      <c r="E59" s="3">
         <v>1500</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>1800</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>1700</v>
-      </c>
-      <c r="G59" s="3">
-        <v>900</v>
       </c>
       <c r="H59" s="3">
         <v>900</v>
       </c>
       <c r="I59" s="3">
+        <v>900</v>
+      </c>
+      <c r="J59" s="3">
         <v>1500</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>1800</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>1600</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>1400</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>7800</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>6500</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>5300</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>4600</v>
       </c>
-      <c r="Q59" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="R59" s="3" t="s">
         <v>3</v>
       </c>
@@ -3450,53 +3587,56 @@
       <c r="U59" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="60" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V59" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="60" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>2800</v>
+        <v>4300</v>
       </c>
       <c r="E60" s="3">
         <v>2800</v>
       </c>
       <c r="F60" s="3">
+        <v>2800</v>
+      </c>
+      <c r="G60" s="3">
         <v>2300</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>1700</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>1800</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>2900</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>2700</v>
-      </c>
-      <c r="K60" s="3">
-        <v>2000</v>
       </c>
       <c r="L60" s="3">
         <v>2000</v>
       </c>
       <c r="M60" s="3">
+        <v>2000</v>
+      </c>
+      <c r="N60" s="3">
         <v>21100</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>18400</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>16600</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>12400</v>
       </c>
-      <c r="Q60" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="R60" s="3" t="s">
         <v>3</v>
       </c>
@@ -3509,8 +3649,11 @@
       <c r="U60" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="61" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V60" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="61" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -3568,8 +3711,11 @@
       <c r="U61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
@@ -3582,8 +3728,8 @@
       <c r="F62" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="G62" s="3">
-        <v>0</v>
+      <c r="G62" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="H62" s="3">
         <v>0</v>
@@ -3612,8 +3758,8 @@
       <c r="P62" s="3">
         <v>0</v>
       </c>
-      <c r="Q62" s="3" t="s">
-        <v>3</v>
+      <c r="Q62" s="3">
+        <v>0</v>
       </c>
       <c r="R62" s="3" t="s">
         <v>3</v>
@@ -3627,8 +3773,11 @@
       <c r="U62" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="63" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V62" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="63" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3686,8 +3835,11 @@
       <c r="U63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -3745,8 +3897,11 @@
       <c r="U64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3804,53 +3959,56 @@
       <c r="U65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>2800</v>
+        <v>4300</v>
       </c>
       <c r="E66" s="3">
         <v>2800</v>
       </c>
       <c r="F66" s="3">
+        <v>2800</v>
+      </c>
+      <c r="G66" s="3">
         <v>2300</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>1700</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>1900</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>2900</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>2700</v>
-      </c>
-      <c r="K66" s="3">
-        <v>2000</v>
       </c>
       <c r="L66" s="3">
         <v>2000</v>
       </c>
       <c r="M66" s="3">
+        <v>2000</v>
+      </c>
+      <c r="N66" s="3">
         <v>21100</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>18500</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>16600</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>12500</v>
       </c>
-      <c r="Q66" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="R66" s="3" t="s">
         <v>3</v>
       </c>
@@ -3863,8 +4021,11 @@
       <c r="U66" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="67" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V66" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="67" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3886,8 +4047,9 @@
       <c r="S67" s="3"/>
       <c r="T67" s="3"/>
       <c r="U67" s="3"/>
-    </row>
-    <row r="68" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V67" s="3"/>
+    </row>
+    <row r="68" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3945,8 +4107,11 @@
       <c r="U68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -4004,8 +4169,11 @@
       <c r="U69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -4063,8 +4231,11 @@
       <c r="U70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -4122,53 +4293,56 @@
       <c r="U71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-83600</v>
+      </c>
+      <c r="E72" s="3">
         <v>-75800</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>-70600</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>-66000</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>-62500</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>-59300</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>-56000</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>-52800</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>-48500</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>-45500</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>-42100</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>-39400</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>-36100</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>-33200</v>
       </c>
-      <c r="Q72" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="R72" s="3" t="s">
         <v>3</v>
       </c>
@@ -4181,8 +4355,11 @@
       <c r="U72" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="73" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V72" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="73" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -4240,8 +4417,11 @@
       <c r="U73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -4299,8 +4479,11 @@
       <c r="U74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -4358,53 +4541,56 @@
       <c r="U75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>20400</v>
+      </c>
+      <c r="E76" s="3">
         <v>26900</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>31000</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>34500</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>37400</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>7700</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>10300</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>7200</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>10800</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>4400</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>-19600</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>-17600</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>-14600</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>-12000</v>
       </c>
-      <c r="Q76" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="R76" s="3" t="s">
         <v>3</v>
       </c>
@@ -4417,8 +4603,11 @@
       <c r="U76" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="77" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V76" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="77" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -4476,131 +4665,140 @@
       <c r="U77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:22" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44377</v>
+      </c>
+      <c r="E80" s="2">
         <v>44286</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44196</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44104</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44012</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>43921</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>43830</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43738</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43646</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43555</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43465</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43373</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43281</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43190</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43100</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43008</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>42916</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>42825</v>
       </c>
-      <c r="U80" s="2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="81" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V80" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="81" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>-7900</v>
+      </c>
+      <c r="E81" s="3">
         <v>-5200</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>-4500</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>-3600</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>-3100</v>
-      </c>
-      <c r="H81" s="3">
-        <v>-3300</v>
       </c>
       <c r="I81" s="3">
         <v>-3300</v>
       </c>
       <c r="J81" s="3">
+        <v>-3300</v>
+      </c>
+      <c r="K81" s="3">
         <v>-4300</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>-3000</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>-3400</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>-2700</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>-3300</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>-2900</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>-1700</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>-7500</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>-1900</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>-2800</v>
       </c>
-      <c r="T81" s="3">
+      <c r="U81" s="3">
         <v>-2000</v>
       </c>
-      <c r="U81" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="82" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V81" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="82" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -4622,16 +4820,17 @@
       <c r="S82" s="3"/>
       <c r="T82" s="3"/>
       <c r="U82" s="3"/>
-    </row>
-    <row r="83" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V82" s="3"/>
+    </row>
+    <row r="83" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="E83" s="3">
-        <v>100</v>
+      <c r="E83" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="F83" s="3">
         <v>100</v>
@@ -4649,7 +4848,7 @@
         <v>100</v>
       </c>
       <c r="K83" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="L83" s="3">
         <v>0</v>
@@ -4667,22 +4866,25 @@
         <v>0</v>
       </c>
       <c r="Q83" s="3">
+        <v>0</v>
+      </c>
+      <c r="R83" s="3">
         <v>100</v>
       </c>
-      <c r="R83" s="3">
-        <v>0</v>
-      </c>
       <c r="S83" s="3">
         <v>0</v>
       </c>
       <c r="T83" s="3">
         <v>0</v>
       </c>
-      <c r="U83" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="84" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="U83" s="3">
+        <v>0</v>
+      </c>
+      <c r="V83" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="84" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -4740,8 +4942,11 @@
       <c r="U84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -4799,8 +5004,11 @@
       <c r="U85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -4858,8 +5066,11 @@
       <c r="U86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -4917,8 +5128,11 @@
       <c r="U87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -4976,67 +5190,73 @@
       <c r="U88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>-4800</v>
+      </c>
+      <c r="E89" s="3">
         <v>-5100</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>-2700</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>-2300</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>-2200</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>-4300</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>-2400</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>-2700</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>-2300</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>-3300</v>
-      </c>
-      <c r="M89" s="3">
-        <v>-900</v>
       </c>
       <c r="N89" s="3">
         <v>-900</v>
       </c>
       <c r="O89" s="3">
+        <v>-900</v>
+      </c>
+      <c r="P89" s="3">
         <v>-1900</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>-900</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>-6100</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>-1400</v>
       </c>
-      <c r="S89" s="3">
+      <c r="T89" s="3">
         <v>-2200</v>
       </c>
-      <c r="T89" s="3">
+      <c r="U89" s="3">
         <v>-1200</v>
       </c>
-      <c r="U89" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="90" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V89" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="90" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -5058,32 +5278,33 @@
       <c r="S90" s="3"/>
       <c r="T90" s="3"/>
       <c r="U90" s="3"/>
-    </row>
-    <row r="91" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V90" s="3"/>
+    </row>
+    <row r="91" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-700</v>
+      </c>
+      <c r="E91" s="3">
         <v>-300</v>
       </c>
-      <c r="E91" s="3">
+      <c r="F91" s="3">
         <v>-400</v>
       </c>
-      <c r="F91" s="3">
+      <c r="G91" s="3">
         <v>-300</v>
       </c>
-      <c r="G91" s="3">
+      <c r="H91" s="3">
         <v>-100</v>
       </c>
-      <c r="H91" s="3">
-        <v>0</v>
-      </c>
       <c r="I91" s="3">
+        <v>0</v>
+      </c>
+      <c r="J91" s="3">
         <v>-800</v>
       </c>
-      <c r="J91" s="3">
-        <v>0</v>
-      </c>
       <c r="K91" s="3">
         <v>0</v>
       </c>
@@ -5096,14 +5317,14 @@
       <c r="N91" s="3">
         <v>0</v>
       </c>
-      <c r="O91" s="3" t="s">
-        <v>3</v>
+      <c r="O91" s="3">
+        <v>0</v>
       </c>
       <c r="P91" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="Q91" s="3">
-        <v>0</v>
+      <c r="Q91" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="R91" s="3">
         <v>0</v>
@@ -5114,11 +5335,14 @@
       <c r="T91" s="3">
         <v>0</v>
       </c>
-      <c r="U91" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="92" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="U91" s="3">
+        <v>0</v>
+      </c>
+      <c r="V91" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="92" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -5176,8 +5400,11 @@
       <c r="U92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -5235,32 +5462,35 @@
       <c r="U93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-400</v>
+        <v>-700</v>
       </c>
       <c r="E94" s="3">
         <v>-400</v>
       </c>
       <c r="F94" s="3">
+        <v>-400</v>
+      </c>
+      <c r="G94" s="3">
         <v>-300</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>-100</v>
       </c>
-      <c r="H94" s="3">
-        <v>0</v>
-      </c>
       <c r="I94" s="3">
+        <v>0</v>
+      </c>
+      <c r="J94" s="3">
         <v>-800</v>
       </c>
-      <c r="J94" s="3">
-        <v>0</v>
-      </c>
       <c r="K94" s="3">
         <v>0</v>
       </c>
@@ -5280,22 +5510,25 @@
         <v>0</v>
       </c>
       <c r="Q94" s="3">
+        <v>0</v>
+      </c>
+      <c r="R94" s="3">
         <v>-100</v>
       </c>
-      <c r="R94" s="3">
-        <v>0</v>
-      </c>
       <c r="S94" s="3">
+        <v>0</v>
+      </c>
+      <c r="T94" s="3">
         <v>-100</v>
       </c>
-      <c r="T94" s="3">
-        <v>0</v>
-      </c>
-      <c r="U94" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="95" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="U94" s="3">
+        <v>0</v>
+      </c>
+      <c r="V94" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="95" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -5317,8 +5550,9 @@
       <c r="S95" s="3"/>
       <c r="T95" s="3"/>
       <c r="U95" s="3"/>
-    </row>
-    <row r="96" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V95" s="3"/>
+    </row>
+    <row r="96" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -5376,8 +5610,11 @@
       <c r="U96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -5435,8 +5672,11 @@
       <c r="U97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -5494,8 +5734,11 @@
       <c r="U98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -5553,67 +5796,73 @@
       <c r="U99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>0</v>
+      </c>
+      <c r="E100" s="3">
         <v>100</v>
       </c>
-      <c r="E100" s="3">
-        <v>0</v>
-      </c>
       <c r="F100" s="3">
         <v>0</v>
       </c>
       <c r="G100" s="3">
+        <v>0</v>
+      </c>
+      <c r="H100" s="3">
         <v>32000</v>
       </c>
-      <c r="H100" s="3">
-        <v>0</v>
-      </c>
       <c r="I100" s="3">
+        <v>0</v>
+      </c>
+      <c r="J100" s="3">
         <v>5700</v>
       </c>
-      <c r="J100" s="3">
-        <v>0</v>
-      </c>
       <c r="K100" s="3">
+        <v>0</v>
+      </c>
+      <c r="L100" s="3">
         <v>8600</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>9000</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>800</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>-300</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>3300</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>900</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="R100" s="3">
         <v>6000</v>
       </c>
-      <c r="R100" s="3">
+      <c r="S100" s="3">
         <v>700</v>
       </c>
-      <c r="S100" s="3">
+      <c r="T100" s="3">
         <v>2300</v>
       </c>
-      <c r="T100" s="3">
+      <c r="U100" s="3">
         <v>2000</v>
       </c>
-      <c r="U100" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="101" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V100" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="101" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -5671,8 +5920,11 @@
       <c r="U101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
@@ -5680,54 +5932,57 @@
         <v>-5500</v>
       </c>
       <c r="E102" s="3">
+        <v>-5500</v>
+      </c>
+      <c r="F102" s="3">
         <v>-3100</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>-2700</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>29800</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>-4300</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>3400</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>-2700</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>6300</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>4900</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>-100</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>-1200</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>1400</v>
       </c>
-      <c r="P102" s="3">
-        <v>0</v>
-      </c>
       <c r="Q102" s="3">
+        <v>0</v>
+      </c>
+      <c r="R102" s="3">
         <v>-100</v>
       </c>
-      <c r="R102" s="3">
+      <c r="S102" s="3">
         <v>-700</v>
       </c>
-      <c r="S102" s="3">
+      <c r="T102" s="3">
         <v>100</v>
       </c>
-      <c r="T102" s="3">
+      <c r="U102" s="3">
         <v>800</v>
       </c>
-      <c r="U102" s="3" t="s">
+      <c r="V102" s="3" t="s">
         <v>3</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/SOLY_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/SOLY_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="270" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="268" uniqueCount="92">
   <si>
     <t>SOLY</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:V102"/>
+  <dimension ref="A5:W102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,102 +665,106 @@
     <col min="1" max="1" width="7.42578125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="19" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="23" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="16" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="20" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="24" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:23" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44469</v>
+      </c>
+      <c r="E7" s="2">
         <v>44377</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44286</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44196</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44104</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44012</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>43921</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43830</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43738</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43646</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43555</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43465</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43373</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43281</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43190</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43100</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>43008</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>42916</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>42825</v>
       </c>
-      <c r="V7" s="2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="8" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W7" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="D8" s="3" t="s">
-        <v>3</v>
+      <c r="D8" s="3">
+        <v>400</v>
       </c>
       <c r="E8" s="3">
         <v>0</v>
@@ -816,13 +820,16 @@
       <c r="V8" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W8" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="D9" s="3" t="s">
-        <v>3</v>
+      <c r="D9" s="3">
+        <v>300</v>
       </c>
       <c r="E9" s="3" t="s">
         <v>3</v>
@@ -878,13 +885,16 @@
       <c r="V9" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="10" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W9" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="D10" s="3" t="s">
-        <v>3</v>
+      <c r="D10" s="3">
+        <v>100</v>
       </c>
       <c r="E10" s="3" t="s">
         <v>3</v>
@@ -940,8 +950,11 @@
       <c r="V10" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="11" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W10" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -964,70 +977,74 @@
       <c r="T11" s="3"/>
       <c r="U11" s="3"/>
       <c r="V11" s="3"/>
-    </row>
-    <row r="12" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W11" s="3"/>
+    </row>
+    <row r="12" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D12" s="3">
+        <v>1200</v>
+      </c>
+      <c r="E12" s="3">
         <v>1600</v>
       </c>
-      <c r="E12" s="3">
+      <c r="F12" s="3">
         <v>1500</v>
       </c>
-      <c r="F12" s="3">
+      <c r="G12" s="3">
         <v>900</v>
-      </c>
-      <c r="G12" s="3">
-        <v>1300</v>
       </c>
       <c r="H12" s="3">
         <v>1300</v>
       </c>
       <c r="I12" s="3">
+        <v>1300</v>
+      </c>
+      <c r="J12" s="3">
         <v>1100</v>
       </c>
-      <c r="J12" s="3">
+      <c r="K12" s="3">
         <v>1400</v>
       </c>
-      <c r="K12" s="3">
+      <c r="L12" s="3">
         <v>2400</v>
       </c>
-      <c r="L12" s="3">
+      <c r="M12" s="3">
         <v>800</v>
       </c>
-      <c r="M12" s="3">
+      <c r="N12" s="3">
         <v>400</v>
       </c>
-      <c r="N12" s="3">
+      <c r="O12" s="3">
         <v>900</v>
       </c>
-      <c r="O12" s="3">
+      <c r="P12" s="3">
         <v>1700</v>
       </c>
-      <c r="P12" s="3">
+      <c r="Q12" s="3">
         <v>1400</v>
       </c>
-      <c r="Q12" s="3">
+      <c r="R12" s="3">
         <v>700</v>
       </c>
-      <c r="R12" s="3">
+      <c r="S12" s="3">
         <v>4000</v>
       </c>
-      <c r="S12" s="3">
+      <c r="T12" s="3">
         <v>700</v>
       </c>
-      <c r="T12" s="3">
+      <c r="U12" s="3">
         <v>1300</v>
       </c>
-      <c r="U12" s="3">
+      <c r="V12" s="3">
         <v>1200</v>
       </c>
-      <c r="V12" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="13" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W12" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1088,23 +1105,26 @@
       <c r="V13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="D14" s="3" t="s">
-        <v>3</v>
+      <c r="D14" s="3">
+        <v>-6000</v>
       </c>
       <c r="E14" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="F14" s="3">
+      <c r="F14" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="G14" s="3">
         <v>300</v>
       </c>
-      <c r="G14" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="H14" s="3" t="s">
         <v>3</v>
       </c>
@@ -1120,8 +1140,8 @@
       <c r="L14" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="M14" s="3">
-        <v>0</v>
+      <c r="M14" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="N14" s="3">
         <v>0</v>
@@ -1150,8 +1170,11 @@
       <c r="V14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1159,7 +1182,7 @@
         <v>200</v>
       </c>
       <c r="E15" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="F15" s="3">
         <v>100</v>
@@ -1180,7 +1203,7 @@
         <v>100</v>
       </c>
       <c r="L15" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="M15" s="3">
         <v>0</v>
@@ -1198,22 +1221,25 @@
         <v>0</v>
       </c>
       <c r="R15" s="3">
+        <v>0</v>
+      </c>
+      <c r="S15" s="3">
         <v>100</v>
       </c>
-      <c r="S15" s="3">
-        <v>0</v>
-      </c>
       <c r="T15" s="3">
         <v>0</v>
       </c>
       <c r="U15" s="3">
         <v>0</v>
       </c>
-      <c r="V15" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="16" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="V15" s="3">
+        <v>0</v>
+      </c>
+      <c r="W15" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="16" spans="1:23" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1233,132 +1259,139 @@
       <c r="T16" s="3"/>
       <c r="U16" s="3"/>
       <c r="V16" s="3"/>
-    </row>
-    <row r="17" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W16" s="3"/>
+    </row>
+    <row r="17" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>700</v>
+      </c>
+      <c r="E17" s="3">
         <v>7900</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>5200</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>4600</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>3700</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>3100</v>
-      </c>
-      <c r="I17" s="3">
-        <v>3300</v>
       </c>
       <c r="J17" s="3">
         <v>3300</v>
       </c>
       <c r="K17" s="3">
+        <v>3300</v>
+      </c>
+      <c r="L17" s="3">
         <v>4300</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>3000</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>2400</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>2100</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>2700</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>2300</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>1200</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>7200</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>1500</v>
       </c>
-      <c r="T17" s="3">
+      <c r="U17" s="3">
         <v>2100</v>
       </c>
-      <c r="U17" s="3">
+      <c r="V17" s="3">
         <v>1900</v>
       </c>
-      <c r="V17" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="18" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W17" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="18" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="D18" s="3" t="s">
-        <v>3</v>
+      <c r="D18" s="3">
+        <v>-300</v>
       </c>
       <c r="E18" s="3">
+        <v>-7900</v>
+      </c>
+      <c r="F18" s="3">
         <v>-5200</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>-4600</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>-3700</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>-3100</v>
-      </c>
-      <c r="I18" s="3">
-        <v>-3300</v>
       </c>
       <c r="J18" s="3">
         <v>-3300</v>
       </c>
       <c r="K18" s="3">
+        <v>-3300</v>
+      </c>
+      <c r="L18" s="3">
         <v>-4300</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>-3000</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>-2400</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>-2100</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>-2700</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>-2300</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>-1200</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>-7200</v>
       </c>
-      <c r="S18" s="3">
+      <c r="T18" s="3">
         <v>-1500</v>
       </c>
-      <c r="T18" s="3">
+      <c r="U18" s="3">
         <v>-2100</v>
       </c>
-      <c r="U18" s="3">
+      <c r="V18" s="3">
         <v>-1900</v>
       </c>
-      <c r="V18" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="19" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W18" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="19" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1381,16 +1414,17 @@
       <c r="T19" s="3"/>
       <c r="U19" s="3"/>
       <c r="V19" s="3"/>
-    </row>
-    <row r="20" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W19" s="3"/>
+    </row>
+    <row r="20" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="D20" s="3" t="s">
-        <v>3</v>
+      <c r="D20" s="3">
+        <v>0</v>
       </c>
       <c r="E20" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F20" s="3">
         <v>100</v>
@@ -1399,7 +1433,7 @@
         <v>100</v>
       </c>
       <c r="H20" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="I20" s="3">
         <v>0</v>
@@ -1440,73 +1474,79 @@
       <c r="U20" s="3">
         <v>0</v>
       </c>
-      <c r="V20" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="21" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="V20" s="3">
+        <v>0</v>
+      </c>
+      <c r="W20" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="21" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="D21" s="3" t="s">
-        <v>3</v>
+      <c r="D21" s="3">
+        <v>-100</v>
       </c>
       <c r="E21" s="3">
+        <v>-7700</v>
+      </c>
+      <c r="F21" s="3">
         <v>-5100</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>-4500</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>-3500</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>-3100</v>
-      </c>
-      <c r="I21" s="3">
-        <v>-3200</v>
       </c>
       <c r="J21" s="3">
         <v>-3200</v>
       </c>
       <c r="K21" s="3">
+        <v>-3200</v>
+      </c>
+      <c r="L21" s="3">
         <v>-4200</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>-2900</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>-2400</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>-2000</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>-2600</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>-2300</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>-1200</v>
       </c>
-      <c r="R21" s="3">
+      <c r="S21" s="3">
         <v>-7100</v>
       </c>
-      <c r="S21" s="3">
+      <c r="T21" s="3">
         <v>-1500</v>
       </c>
-      <c r="T21" s="3">
+      <c r="U21" s="3">
         <v>-2100</v>
       </c>
-      <c r="U21" s="3">
+      <c r="V21" s="3">
         <v>-1900</v>
       </c>
-      <c r="V21" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="22" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W21" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="22" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1516,8 +1556,8 @@
       <c r="E22" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="F22" s="3">
-        <v>0</v>
+      <c r="F22" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="G22" s="3">
         <v>0</v>
@@ -1538,99 +1578,105 @@
         <v>0</v>
       </c>
       <c r="M22" s="3">
+        <v>0</v>
+      </c>
+      <c r="N22" s="3">
         <v>800</v>
       </c>
-      <c r="N22" s="3">
+      <c r="O22" s="3">
         <v>400</v>
-      </c>
-      <c r="O22" s="3">
-        <v>300</v>
       </c>
       <c r="P22" s="3">
         <v>300</v>
       </c>
       <c r="Q22" s="3">
+        <v>300</v>
+      </c>
+      <c r="R22" s="3">
         <v>200</v>
       </c>
-      <c r="R22" s="3">
+      <c r="S22" s="3">
         <v>300</v>
-      </c>
-      <c r="S22" s="3">
-        <v>100</v>
       </c>
       <c r="T22" s="3">
         <v>100</v>
       </c>
       <c r="U22" s="3">
-        <v>0</v>
-      </c>
-      <c r="V22" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="23" spans="3:22" x14ac:dyDescent="0.2">
+        <v>100</v>
+      </c>
+      <c r="V22" s="3">
+        <v>0</v>
+      </c>
+      <c r="W22" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="23" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>-300</v>
+      </c>
+      <c r="E23" s="3">
         <v>-7900</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>-5200</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>-4500</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>-3600</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>-3100</v>
-      </c>
-      <c r="I23" s="3">
-        <v>-3300</v>
       </c>
       <c r="J23" s="3">
         <v>-3300</v>
       </c>
       <c r="K23" s="3">
+        <v>-3300</v>
+      </c>
+      <c r="L23" s="3">
         <v>-4300</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>-3000</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>-3200</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>-2400</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>-3000</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>-2600</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>-1400</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>-7500</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>-1600</v>
       </c>
-      <c r="T23" s="3">
+      <c r="U23" s="3">
         <v>-2200</v>
       </c>
-      <c r="U23" s="3">
+      <c r="V23" s="3">
         <v>-2000</v>
       </c>
-      <c r="V23" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="24" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W23" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="24" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -1688,11 +1734,14 @@
       <c r="U24" s="3">
         <v>0</v>
       </c>
-      <c r="V24" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="25" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="V24" s="3">
+        <v>0</v>
+      </c>
+      <c r="W24" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="25" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1753,132 +1802,141 @@
       <c r="V25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>-300</v>
+      </c>
+      <c r="E26" s="3">
         <v>-7900</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>-5200</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>-4500</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>-3600</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>-3100</v>
-      </c>
-      <c r="I26" s="3">
-        <v>-3300</v>
       </c>
       <c r="J26" s="3">
         <v>-3300</v>
       </c>
       <c r="K26" s="3">
+        <v>-3300</v>
+      </c>
+      <c r="L26" s="3">
         <v>-4300</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>-3000</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>-3200</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>-2400</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>-3000</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>-2600</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>-1400</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>-7500</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>-1600</v>
       </c>
-      <c r="T26" s="3">
+      <c r="U26" s="3">
         <v>-2200</v>
       </c>
-      <c r="U26" s="3">
+      <c r="V26" s="3">
         <v>-2000</v>
       </c>
-      <c r="V26" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="27" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W26" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="27" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>-300</v>
+      </c>
+      <c r="E27" s="3">
         <v>-7900</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>-5200</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>-4500</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>-3600</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>-3100</v>
-      </c>
-      <c r="I27" s="3">
-        <v>-3300</v>
       </c>
       <c r="J27" s="3">
         <v>-3300</v>
       </c>
       <c r="K27" s="3">
+        <v>-3300</v>
+      </c>
+      <c r="L27" s="3">
         <v>-4300</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>-3000</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>-3400</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>-2700</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>-3300</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>-2900</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>-1700</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>-7500</v>
       </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
         <v>-1900</v>
       </c>
-      <c r="T27" s="3">
+      <c r="U27" s="3">
         <v>-2800</v>
       </c>
-      <c r="U27" s="3">
+      <c r="V27" s="3">
         <v>-2000</v>
       </c>
-      <c r="V27" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="28" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W27" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="28" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1939,8 +1997,11 @@
       <c r="V28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -2001,8 +2062,11 @@
       <c r="V29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2063,8 +2127,11 @@
       <c r="V30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2125,16 +2192,19 @@
       <c r="V31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="D32" s="3" t="s">
-        <v>3</v>
+      <c r="D32" s="3">
+        <v>0</v>
       </c>
       <c r="E32" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="F32" s="3">
         <v>-100</v>
@@ -2143,7 +2213,7 @@
         <v>-100</v>
       </c>
       <c r="H32" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="I32" s="3">
         <v>0</v>
@@ -2184,73 +2254,79 @@
       <c r="U32" s="3">
         <v>0</v>
       </c>
-      <c r="V32" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="33" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="V32" s="3">
+        <v>0</v>
+      </c>
+      <c r="W32" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="33" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>-300</v>
+      </c>
+      <c r="E33" s="3">
         <v>-7900</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>-5200</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>-4500</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>-3600</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>-3100</v>
-      </c>
-      <c r="I33" s="3">
-        <v>-3300</v>
       </c>
       <c r="J33" s="3">
         <v>-3300</v>
       </c>
       <c r="K33" s="3">
+        <v>-3300</v>
+      </c>
+      <c r="L33" s="3">
         <v>-4300</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>-3000</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>-3400</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>-2700</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>-3300</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>-2900</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>-1700</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>-7500</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>-1900</v>
       </c>
-      <c r="T33" s="3">
+      <c r="U33" s="3">
         <v>-2800</v>
       </c>
-      <c r="U33" s="3">
+      <c r="V33" s="3">
         <v>-2000</v>
       </c>
-      <c r="V33" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="34" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W33" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="34" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2311,137 +2387,146 @@
       <c r="V34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>-300</v>
+      </c>
+      <c r="E35" s="3">
         <v>-7900</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>-5200</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>-4500</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>-3600</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>-3100</v>
-      </c>
-      <c r="I35" s="3">
-        <v>-3300</v>
       </c>
       <c r="J35" s="3">
         <v>-3300</v>
       </c>
       <c r="K35" s="3">
+        <v>-3300</v>
+      </c>
+      <c r="L35" s="3">
         <v>-4300</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>-3000</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>-3400</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>-2700</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>-3300</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>-2900</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>-1700</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>-7500</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>-1900</v>
       </c>
-      <c r="T35" s="3">
+      <c r="U35" s="3">
         <v>-2800</v>
       </c>
-      <c r="U35" s="3">
+      <c r="V35" s="3">
         <v>-2000</v>
       </c>
-      <c r="V35" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="37" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W35" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="37" spans="2:23" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44469</v>
+      </c>
+      <c r="E38" s="2">
         <v>44377</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44286</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44196</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44104</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44012</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>43921</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43830</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43738</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43646</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43555</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43465</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43373</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43281</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43190</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43100</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>43008</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>42916</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>42825</v>
       </c>
-      <c r="V38" s="2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="39" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W38" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="39" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2464,8 +2549,9 @@
       <c r="T39" s="3"/>
       <c r="U39" s="3"/>
       <c r="V39" s="3"/>
-    </row>
-    <row r="40" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W39" s="3"/>
+    </row>
+    <row r="40" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2488,55 +2574,56 @@
       <c r="T40" s="3"/>
       <c r="U40" s="3"/>
       <c r="V40" s="3"/>
-    </row>
-    <row r="41" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W40" s="3"/>
+    </row>
+    <row r="41" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>21700</v>
+      </c>
+      <c r="E41" s="3">
         <v>20600</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>26100</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>31600</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>34600</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>37300</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>7500</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>11900</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>8500</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>11200</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>4900</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>100</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>200</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>1400</v>
       </c>
-      <c r="Q41" s="3">
-        <v>0</v>
-      </c>
-      <c r="R41" s="3" t="s">
-        <v>3</v>
+      <c r="R41" s="3">
+        <v>0</v>
       </c>
       <c r="S41" s="3" t="s">
         <v>3</v>
@@ -2550,8 +2637,11 @@
       <c r="V41" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="42" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W41" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="42" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2612,8 +2702,11 @@
       <c r="V42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
@@ -2647,11 +2740,11 @@
       <c r="M43" s="3">
         <v>0</v>
       </c>
-      <c r="N43" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="O43" s="3">
-        <v>0</v>
+      <c r="N43" s="3">
+        <v>0</v>
+      </c>
+      <c r="O43" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="P43" s="3">
         <v>0</v>
@@ -2659,8 +2752,8 @@
       <c r="Q43" s="3">
         <v>0</v>
       </c>
-      <c r="R43" s="3" t="s">
-        <v>3</v>
+      <c r="R43" s="3">
+        <v>0</v>
       </c>
       <c r="S43" s="3" t="s">
         <v>3</v>
@@ -2674,29 +2767,32 @@
       <c r="V43" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="44" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W43" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="44" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
+        <v>400</v>
+      </c>
+      <c r="E44" s="3">
         <v>100</v>
       </c>
-      <c r="E44" s="3">
+      <c r="F44" s="3">
         <v>600</v>
       </c>
-      <c r="F44" s="3">
+      <c r="G44" s="3">
         <v>400</v>
       </c>
-      <c r="G44" s="3">
+      <c r="H44" s="3">
         <v>300</v>
       </c>
-      <c r="H44" s="3">
+      <c r="I44" s="3">
         <v>200</v>
       </c>
-      <c r="I44" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J44" s="3" t="s">
         <v>3</v>
       </c>
@@ -2712,8 +2808,8 @@
       <c r="N44" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="O44" s="3">
-        <v>0</v>
+      <c r="O44" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="P44" s="3">
         <v>0</v>
@@ -2736,44 +2832,47 @@
       <c r="V44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>800</v>
+      </c>
+      <c r="E45" s="3">
         <v>1300</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>900</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>300</v>
       </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3">
         <v>500</v>
       </c>
-      <c r="H45" s="3">
+      <c r="I45" s="3">
         <v>600</v>
       </c>
-      <c r="I45" s="3">
+      <c r="J45" s="3">
         <v>1100</v>
       </c>
-      <c r="J45" s="3">
+      <c r="K45" s="3">
         <v>300</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>400</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>500</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>400</v>
       </c>
-      <c r="N45" s="3">
-        <v>0</v>
-      </c>
       <c r="O45" s="3">
         <v>0</v>
       </c>
@@ -2783,8 +2882,8 @@
       <c r="Q45" s="3">
         <v>0</v>
       </c>
-      <c r="R45" s="3" t="s">
-        <v>3</v>
+      <c r="R45" s="3">
+        <v>0</v>
       </c>
       <c r="S45" s="3" t="s">
         <v>3</v>
@@ -2798,55 +2897,58 @@
       <c r="V45" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="46" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W45" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="46" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>23000</v>
+      </c>
+      <c r="E46" s="3">
         <v>22000</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>27600</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>32300</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>35400</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>38100</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>8700</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>12200</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>8900</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>11700</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>5300</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>100</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>200</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>1500</v>
       </c>
-      <c r="Q46" s="3">
-        <v>0</v>
-      </c>
-      <c r="R46" s="3" t="s">
-        <v>3</v>
+      <c r="R46" s="3">
+        <v>0</v>
       </c>
       <c r="S46" s="3" t="s">
         <v>3</v>
@@ -2860,8 +2962,11 @@
       <c r="V46" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="47" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W46" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="47" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -2922,25 +3027,28 @@
       <c r="V47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>2300</v>
+      </c>
+      <c r="E48" s="3">
         <v>2400</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>1800</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>1400</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>1300</v>
-      </c>
-      <c r="H48" s="3">
-        <v>800</v>
       </c>
       <c r="I48" s="3">
         <v>800</v>
@@ -2949,10 +3057,10 @@
         <v>800</v>
       </c>
       <c r="K48" s="3">
+        <v>800</v>
+      </c>
+      <c r="L48" s="3">
         <v>900</v>
-      </c>
-      <c r="L48" s="3">
-        <v>1000</v>
       </c>
       <c r="M48" s="3">
         <v>1000</v>
@@ -2961,7 +3069,7 @@
         <v>1000</v>
       </c>
       <c r="O48" s="3">
-        <v>300</v>
+        <v>1000</v>
       </c>
       <c r="P48" s="3">
         <v>300</v>
@@ -2969,8 +3077,8 @@
       <c r="Q48" s="3">
         <v>300</v>
       </c>
-      <c r="R48" s="3" t="s">
-        <v>3</v>
+      <c r="R48" s="3">
+        <v>300</v>
       </c>
       <c r="S48" s="3" t="s">
         <v>3</v>
@@ -2984,8 +3092,11 @@
       <c r="V48" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="49" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W48" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="49" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -2996,7 +3107,7 @@
         <v>300</v>
       </c>
       <c r="F49" s="3">
-        <v>100</v>
+        <v>300</v>
       </c>
       <c r="G49" s="3">
         <v>100</v>
@@ -3031,8 +3142,8 @@
       <c r="Q49" s="3">
         <v>100</v>
       </c>
-      <c r="R49" s="3" t="s">
-        <v>3</v>
+      <c r="R49" s="3">
+        <v>100</v>
       </c>
       <c r="S49" s="3" t="s">
         <v>3</v>
@@ -3046,8 +3157,11 @@
       <c r="V49" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="50" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W49" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="50" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -3108,8 +3222,11 @@
       <c r="V50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3170,8 +3287,11 @@
       <c r="V51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
@@ -3181,14 +3301,14 @@
       <c r="E52" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="F52" s="3">
-        <v>0</v>
-      </c>
-      <c r="G52" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="H52" s="3">
-        <v>0</v>
+      <c r="F52" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="G52" s="3">
+        <v>0</v>
+      </c>
+      <c r="H52" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="I52" s="3">
         <v>0</v>
@@ -3206,19 +3326,19 @@
         <v>0</v>
       </c>
       <c r="N52" s="3">
-        <v>300</v>
+        <v>0</v>
       </c>
       <c r="O52" s="3">
         <v>300</v>
       </c>
       <c r="P52" s="3">
+        <v>300</v>
+      </c>
+      <c r="Q52" s="3">
         <v>100</v>
       </c>
-      <c r="Q52" s="3">
-        <v>0</v>
-      </c>
-      <c r="R52" s="3" t="s">
-        <v>3</v>
+      <c r="R52" s="3">
+        <v>0</v>
       </c>
       <c r="S52" s="3" t="s">
         <v>3</v>
@@ -3232,8 +3352,11 @@
       <c r="V52" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="53" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W52" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="53" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3294,56 +3417,59 @@
       <c r="V53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>25600</v>
+      </c>
+      <c r="E54" s="3">
         <v>24700</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>29700</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>33800</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>36900</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>39100</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>9600</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>13100</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>9900</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>12800</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>6400</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>1500</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>900</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>2000</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>400</v>
       </c>
-      <c r="R54" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="S54" s="3" t="s">
         <v>3</v>
       </c>
@@ -3356,8 +3482,11 @@
       <c r="V54" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="55" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W54" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="55" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -3380,8 +3509,9 @@
       <c r="T55" s="3"/>
       <c r="U55" s="3"/>
       <c r="V55" s="3"/>
-    </row>
-    <row r="56" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W55" s="3"/>
+    </row>
+    <row r="56" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3404,56 +3534,57 @@
       <c r="T56" s="3"/>
       <c r="U56" s="3"/>
       <c r="V56" s="3"/>
-    </row>
-    <row r="57" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W56" s="3"/>
+    </row>
+    <row r="57" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>700</v>
+      </c>
+      <c r="E57" s="3">
         <v>2200</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>1300</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>1000</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>700</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>800</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>1000</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>1300</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>900</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>400</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>500</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>2700</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>1800</v>
       </c>
-      <c r="P57" s="3">
+      <c r="Q57" s="3">
         <v>1100</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="R57" s="3">
         <v>900</v>
       </c>
-      <c r="R57" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="S57" s="3" t="s">
         <v>3</v>
       </c>
@@ -3466,8 +3597,11 @@
       <c r="V57" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="58" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W57" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="58" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -3502,20 +3636,20 @@
         <v>0</v>
       </c>
       <c r="N58" s="3">
+        <v>0</v>
+      </c>
+      <c r="O58" s="3">
         <v>10600</v>
-      </c>
-      <c r="O58" s="3">
-        <v>10200</v>
       </c>
       <c r="P58" s="3">
         <v>10200</v>
       </c>
       <c r="Q58" s="3">
+        <v>10200</v>
+      </c>
+      <c r="R58" s="3">
         <v>6900</v>
       </c>
-      <c r="R58" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="S58" s="3" t="s">
         <v>3</v>
       </c>
@@ -3528,56 +3662,59 @@
       <c r="V58" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="59" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W58" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="59" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>3500</v>
+      </c>
+      <c r="E59" s="3">
         <v>2200</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>1500</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>1800</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>1700</v>
-      </c>
-      <c r="H59" s="3">
-        <v>900</v>
       </c>
       <c r="I59" s="3">
         <v>900</v>
       </c>
       <c r="J59" s="3">
+        <v>900</v>
+      </c>
+      <c r="K59" s="3">
         <v>1500</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>1800</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>1600</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>1400</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>7800</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>6500</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>5300</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3">
         <v>4600</v>
       </c>
-      <c r="R59" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="S59" s="3" t="s">
         <v>3</v>
       </c>
@@ -3590,56 +3727,59 @@
       <c r="V59" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="60" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W59" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="60" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>4200</v>
+      </c>
+      <c r="E60" s="3">
         <v>4300</v>
-      </c>
-      <c r="E60" s="3">
-        <v>2800</v>
       </c>
       <c r="F60" s="3">
         <v>2800</v>
       </c>
       <c r="G60" s="3">
+        <v>2800</v>
+      </c>
+      <c r="H60" s="3">
         <v>2300</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>1700</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>1800</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>2900</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>2700</v>
-      </c>
-      <c r="L60" s="3">
-        <v>2000</v>
       </c>
       <c r="M60" s="3">
         <v>2000</v>
       </c>
       <c r="N60" s="3">
+        <v>2000</v>
+      </c>
+      <c r="O60" s="3">
         <v>21100</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>18400</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>16600</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="R60" s="3">
         <v>12400</v>
       </c>
-      <c r="R60" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="S60" s="3" t="s">
         <v>3</v>
       </c>
@@ -3652,8 +3792,11 @@
       <c r="V60" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="61" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W60" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="61" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -3714,8 +3857,11 @@
       <c r="V61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
@@ -3731,8 +3877,8 @@
       <c r="G62" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="H62" s="3">
-        <v>0</v>
+      <c r="H62" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="I62" s="3">
         <v>0</v>
@@ -3761,8 +3907,8 @@
       <c r="Q62" s="3">
         <v>0</v>
       </c>
-      <c r="R62" s="3" t="s">
-        <v>3</v>
+      <c r="R62" s="3">
+        <v>0</v>
       </c>
       <c r="S62" s="3" t="s">
         <v>3</v>
@@ -3776,8 +3922,11 @@
       <c r="V62" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="63" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W62" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="63" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3838,8 +3987,11 @@
       <c r="V63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -3900,8 +4052,11 @@
       <c r="V64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3962,56 +4117,59 @@
       <c r="V65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>4200</v>
+      </c>
+      <c r="E66" s="3">
         <v>4300</v>
-      </c>
-      <c r="E66" s="3">
-        <v>2800</v>
       </c>
       <c r="F66" s="3">
         <v>2800</v>
       </c>
       <c r="G66" s="3">
+        <v>2800</v>
+      </c>
+      <c r="H66" s="3">
         <v>2300</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>1700</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>1900</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>2900</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>2700</v>
-      </c>
-      <c r="L66" s="3">
-        <v>2000</v>
       </c>
       <c r="M66" s="3">
         <v>2000</v>
       </c>
       <c r="N66" s="3">
+        <v>2000</v>
+      </c>
+      <c r="O66" s="3">
         <v>21100</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>18500</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>16600</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>12500</v>
       </c>
-      <c r="R66" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="S66" s="3" t="s">
         <v>3</v>
       </c>
@@ -4024,8 +4182,11 @@
       <c r="V66" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="67" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W66" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="67" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -4048,8 +4209,9 @@
       <c r="T67" s="3"/>
       <c r="U67" s="3"/>
       <c r="V67" s="3"/>
-    </row>
-    <row r="68" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W67" s="3"/>
+    </row>
+    <row r="68" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -4110,8 +4272,11 @@
       <c r="V68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -4172,8 +4337,11 @@
       <c r="V69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -4234,8 +4402,11 @@
       <c r="V70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -4296,56 +4467,59 @@
       <c r="V71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-83900</v>
+      </c>
+      <c r="E72" s="3">
         <v>-83600</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>-75800</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>-70600</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>-66000</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>-62500</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>-59300</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>-56000</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>-52800</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>-48500</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>-45500</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>-42100</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>-39400</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>-36100</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>-33200</v>
       </c>
-      <c r="R72" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="S72" s="3" t="s">
         <v>3</v>
       </c>
@@ -4358,8 +4532,11 @@
       <c r="V72" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="73" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W72" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="73" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -4420,8 +4597,11 @@
       <c r="V73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -4482,8 +4662,11 @@
       <c r="V74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -4544,56 +4727,59 @@
       <c r="V75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>21400</v>
+      </c>
+      <c r="E76" s="3">
         <v>20400</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>26900</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>31000</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>34500</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>37400</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>7700</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>10300</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>7200</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>10800</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>4400</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>-19600</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>-17600</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>-14600</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>-12000</v>
       </c>
-      <c r="R76" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="S76" s="3" t="s">
         <v>3</v>
       </c>
@@ -4606,8 +4792,11 @@
       <c r="V76" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="77" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W76" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="77" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -4668,137 +4857,146 @@
       <c r="V77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:23" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44469</v>
+      </c>
+      <c r="E80" s="2">
         <v>44377</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44286</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44196</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44104</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44012</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>43921</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43830</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43738</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43646</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43555</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43465</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43373</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43281</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43190</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43100</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>43008</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>42916</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>42825</v>
       </c>
-      <c r="V80" s="2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="81" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W80" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="81" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>-300</v>
+      </c>
+      <c r="E81" s="3">
         <v>-7900</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>-5200</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>-4500</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>-3600</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>-3100</v>
-      </c>
-      <c r="I81" s="3">
-        <v>-3300</v>
       </c>
       <c r="J81" s="3">
         <v>-3300</v>
       </c>
       <c r="K81" s="3">
+        <v>-3300</v>
+      </c>
+      <c r="L81" s="3">
         <v>-4300</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>-3000</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>-3400</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>-2700</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>-3300</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>-2900</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>-1700</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>-7500</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>-1900</v>
       </c>
-      <c r="T81" s="3">
+      <c r="U81" s="3">
         <v>-2800</v>
       </c>
-      <c r="U81" s="3">
+      <c r="V81" s="3">
         <v>-2000</v>
       </c>
-      <c r="V81" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="82" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W81" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="82" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -4821,19 +5019,20 @@
       <c r="T82" s="3"/>
       <c r="U82" s="3"/>
       <c r="V82" s="3"/>
-    </row>
-    <row r="83" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W82" s="3"/>
+    </row>
+    <row r="83" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
-      <c r="D83" s="3" t="s">
-        <v>3</v>
+      <c r="D83" s="3">
+        <v>200</v>
       </c>
       <c r="E83" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="F83" s="3">
-        <v>100</v>
+      <c r="F83" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="G83" s="3">
         <v>100</v>
@@ -4851,7 +5050,7 @@
         <v>100</v>
       </c>
       <c r="L83" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="M83" s="3">
         <v>0</v>
@@ -4869,22 +5068,25 @@
         <v>0</v>
       </c>
       <c r="R83" s="3">
+        <v>0</v>
+      </c>
+      <c r="S83" s="3">
         <v>100</v>
       </c>
-      <c r="S83" s="3">
-        <v>0</v>
-      </c>
       <c r="T83" s="3">
         <v>0</v>
       </c>
       <c r="U83" s="3">
         <v>0</v>
       </c>
-      <c r="V83" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="84" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="V83" s="3">
+        <v>0</v>
+      </c>
+      <c r="W83" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="84" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -4945,8 +5147,11 @@
       <c r="V84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -5007,8 +5212,11 @@
       <c r="V85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -5069,8 +5277,11 @@
       <c r="V86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -5131,8 +5342,11 @@
       <c r="V87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -5193,70 +5407,76 @@
       <c r="V88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>-4500</v>
+      </c>
+      <c r="E89" s="3">
         <v>-4800</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>-5100</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>-2700</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>-2300</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>-2200</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>-4300</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>-2400</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>-2700</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>-2300</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>-3300</v>
-      </c>
-      <c r="N89" s="3">
-        <v>-900</v>
       </c>
       <c r="O89" s="3">
         <v>-900</v>
       </c>
       <c r="P89" s="3">
+        <v>-900</v>
+      </c>
+      <c r="Q89" s="3">
         <v>-1900</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>-900</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>-6100</v>
       </c>
-      <c r="S89" s="3">
+      <c r="T89" s="3">
         <v>-1400</v>
       </c>
-      <c r="T89" s="3">
+      <c r="U89" s="3">
         <v>-2200</v>
       </c>
-      <c r="U89" s="3">
+      <c r="V89" s="3">
         <v>-1200</v>
       </c>
-      <c r="V89" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="90" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W89" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="90" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -5279,35 +5499,36 @@
       <c r="T90" s="3"/>
       <c r="U90" s="3"/>
       <c r="V90" s="3"/>
-    </row>
-    <row r="91" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W90" s="3"/>
+    </row>
+    <row r="91" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-300</v>
+      </c>
+      <c r="E91" s="3">
         <v>-700</v>
       </c>
-      <c r="E91" s="3">
+      <c r="F91" s="3">
         <v>-300</v>
       </c>
-      <c r="F91" s="3">
+      <c r="G91" s="3">
         <v>-400</v>
       </c>
-      <c r="G91" s="3">
+      <c r="H91" s="3">
         <v>-300</v>
       </c>
-      <c r="H91" s="3">
+      <c r="I91" s="3">
         <v>-100</v>
       </c>
-      <c r="I91" s="3">
-        <v>0</v>
-      </c>
       <c r="J91" s="3">
+        <v>0</v>
+      </c>
+      <c r="K91" s="3">
         <v>-800</v>
       </c>
-      <c r="K91" s="3">
-        <v>0</v>
-      </c>
       <c r="L91" s="3">
         <v>0</v>
       </c>
@@ -5320,14 +5541,14 @@
       <c r="O91" s="3">
         <v>0</v>
       </c>
-      <c r="P91" s="3" t="s">
-        <v>3</v>
+      <c r="P91" s="3">
+        <v>0</v>
       </c>
       <c r="Q91" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="R91" s="3">
-        <v>0</v>
+      <c r="R91" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="S91" s="3">
         <v>0</v>
@@ -5338,11 +5559,14 @@
       <c r="U91" s="3">
         <v>0</v>
       </c>
-      <c r="V91" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="92" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="V91" s="3">
+        <v>0</v>
+      </c>
+      <c r="W91" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="92" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -5403,8 +5627,11 @@
       <c r="V92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -5465,35 +5692,38 @@
       <c r="V93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-400</v>
+      </c>
+      <c r="E94" s="3">
         <v>-700</v>
-      </c>
-      <c r="E94" s="3">
-        <v>-400</v>
       </c>
       <c r="F94" s="3">
         <v>-400</v>
       </c>
       <c r="G94" s="3">
+        <v>-400</v>
+      </c>
+      <c r="H94" s="3">
         <v>-300</v>
       </c>
-      <c r="H94" s="3">
+      <c r="I94" s="3">
         <v>-100</v>
       </c>
-      <c r="I94" s="3">
-        <v>0</v>
-      </c>
       <c r="J94" s="3">
+        <v>0</v>
+      </c>
+      <c r="K94" s="3">
         <v>-800</v>
       </c>
-      <c r="K94" s="3">
-        <v>0</v>
-      </c>
       <c r="L94" s="3">
         <v>0</v>
       </c>
@@ -5513,22 +5743,25 @@
         <v>0</v>
       </c>
       <c r="R94" s="3">
+        <v>0</v>
+      </c>
+      <c r="S94" s="3">
         <v>-100</v>
       </c>
-      <c r="S94" s="3">
-        <v>0</v>
-      </c>
       <c r="T94" s="3">
+        <v>0</v>
+      </c>
+      <c r="U94" s="3">
         <v>-100</v>
       </c>
-      <c r="U94" s="3">
-        <v>0</v>
-      </c>
-      <c r="V94" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="95" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="V94" s="3">
+        <v>0</v>
+      </c>
+      <c r="W94" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="95" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -5551,8 +5784,9 @@
       <c r="T95" s="3"/>
       <c r="U95" s="3"/>
       <c r="V95" s="3"/>
-    </row>
-    <row r="96" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W95" s="3"/>
+    </row>
+    <row r="96" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -5613,8 +5847,11 @@
       <c r="V96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -5675,8 +5912,11 @@
       <c r="V97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -5737,8 +5977,11 @@
       <c r="V98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -5799,70 +6042,76 @@
       <c r="V99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>0</v>
+        <v>6000</v>
       </c>
       <c r="E100" s="3">
+        <v>0</v>
+      </c>
+      <c r="F100" s="3">
         <v>100</v>
       </c>
-      <c r="F100" s="3">
-        <v>0</v>
-      </c>
       <c r="G100" s="3">
         <v>0</v>
       </c>
       <c r="H100" s="3">
+        <v>0</v>
+      </c>
+      <c r="I100" s="3">
         <v>32000</v>
       </c>
-      <c r="I100" s="3">
-        <v>0</v>
-      </c>
       <c r="J100" s="3">
+        <v>0</v>
+      </c>
+      <c r="K100" s="3">
         <v>5700</v>
       </c>
-      <c r="K100" s="3">
-        <v>0</v>
-      </c>
       <c r="L100" s="3">
+        <v>0</v>
+      </c>
+      <c r="M100" s="3">
         <v>8600</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>9000</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>800</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>-300</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>3300</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="R100" s="3">
         <v>900</v>
       </c>
-      <c r="R100" s="3">
+      <c r="S100" s="3">
         <v>6000</v>
       </c>
-      <c r="S100" s="3">
+      <c r="T100" s="3">
         <v>700</v>
       </c>
-      <c r="T100" s="3">
+      <c r="U100" s="3">
         <v>2300</v>
       </c>
-      <c r="U100" s="3">
+      <c r="V100" s="3">
         <v>2000</v>
       </c>
-      <c r="V100" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="101" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W100" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="101" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -5923,66 +6172,72 @@
       <c r="V101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>-5500</v>
+        <v>1200</v>
       </c>
       <c r="E102" s="3">
         <v>-5500</v>
       </c>
       <c r="F102" s="3">
+        <v>-5500</v>
+      </c>
+      <c r="G102" s="3">
         <v>-3100</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>-2700</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>29800</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>-4300</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>3400</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>-2700</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>6300</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>4900</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>-100</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>-1200</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>1400</v>
       </c>
-      <c r="Q102" s="3">
-        <v>0</v>
-      </c>
       <c r="R102" s="3">
+        <v>0</v>
+      </c>
+      <c r="S102" s="3">
         <v>-100</v>
       </c>
-      <c r="S102" s="3">
+      <c r="T102" s="3">
         <v>-700</v>
       </c>
-      <c r="T102" s="3">
+      <c r="U102" s="3">
         <v>100</v>
       </c>
-      <c r="U102" s="3">
+      <c r="V102" s="3">
         <v>800</v>
       </c>
-      <c r="V102" s="3" t="s">
+      <c r="W102" s="3" t="s">
         <v>3</v>
       </c>
     </row>
